--- a/train_dataset_under512t.xlsx
+++ b/train_dataset_under512t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max\Desktop\Sturdy\3_curs_2_sem\summer_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD1FB2-E6BE-4E94-9793-EBA7C33E6A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7573E19-5B32-4060-9F9F-37F8FC54A60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="11535" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="460">
+  <si>
+    <t>Область применения.</t>
+  </si>
   <si>
     <t>Нормативные ссылки.</t>
   </si>
@@ -45,66 +48,36 @@
     <t>Лидерство. Лидерство и приверженность. Общие положения.</t>
   </si>
   <si>
-    <t>5.1 Лидерство и приверженность 5.1.1 Общие положения ISO 9001:2015, Системы менеджмента качества. Требования 5.1 Лидерство и приверженность 5.1.1 Общие положения Высшее руководство должно демонстрировать свое лидерство и приверженность в отношении системы менеджмента качества посредством: a) принятия ответственности за результативность системы менеджмента качества; b) обеспечения разработки политики и целей в области качества, которые согласуются с условиями среды организации и ее стратегическим направлением; c) обеспечения интеграции требований системы менеджмента качества в бизнес-процессы организации; d) содействия применению процессного подхода и риск-ориентированного мышления; e) обеспечения доступности ресурсов, необходимых для системы менеджмента качества; f) распространения в организации понимания важности результативного менеджмента качества и соответствия требованиям системы менеджмента качества; g) обеспечения достижения системой менеджмента качества намеченных результатов; h) вовлечения, руководства и оказания поддержки участия работников в обеспечении результативности системы менеджмента качества; i) поддержки улучшения; j) поддержки других соответствующих руководителей в демонстрации ими лидерства в сфере их ответственности. ПРИМЕЧАНИЕ Слово «бизнес» в настоящем стандарте следует понимать в широком смысле, как отображение видов деятельности, которые являются ключевыми для целей существования организации, независимо от того, является ли она государственной, частной, ставит ли она своей целью получение прибыли или нет.</t>
-  </si>
-  <si>
     <t>Лидерство. Лидерство и приверженность. Ориентированность на потребителей.</t>
   </si>
   <si>
-    <t>5.1 Лидерство и приверженность 5.1.2 Ориентированность на потребителей ISO 9001:2015, Системы менеджмента качества. Требования 5.1.2 Ориентированность на потребителей Высшее руководство должно демонстрировать лидерство и приверженность в отношении ориентации на потребителей посредством обеспечения того, что: a) требования потребителей, а также применимые законодательные и нормативные правовые требования определены, поняты и неизменно выполняются; b) риски и возможности, которые могут оказывать влияние на соответствие продукции и услуг и на способность повышать удовлетворенность потребителей, определены и рассмотрены; c) в центре внимания находится повышение удовлетворенности потребителей. 5.2 Политика 5.2.1 Разработка политики в области качества ISO 9001:2015, Системы менеджмента качества. Требования</t>
-  </si>
-  <si>
     <t>Лидерство. Политика. Разработка политики в области качества.</t>
   </si>
   <si>
-    <t>5.2.1 Разработка политики в области качества Высшее руководство должно разработать, реализовывать и поддерживать в актуальном состоянии политику в области качества, которая: a) соответствует намерениям и среде организации, а также поддерживает ее стратегическое направление; b) создает основу для установления целей в области качества; c) включает в себя обязательство соответствовать применимым требованиям; d) включает в себя обязательство постоянно улучшать систему менеджмента качества.</t>
-  </si>
-  <si>
     <t>Лидерство. Политика. Доведение политики в области качества.</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.2 Доведение политики в области качества ISO 9001:2015, Системы менеджмента качества. Требования 5.2.2 Доведение политики в области качества Политика в области качества должна: a) быть доступной и применяться как документированная информация; b) быть доведенной до сведения работников, понятной и применяемой внутри организации; c) быть доступной подходящим способом для соответствующих заинтересованных сторон. </t>
-  </si>
-  <si>
     <t>Лидерство. Политика. Политика в области качества. Дополнительные положения.</t>
   </si>
   <si>
-    <t>5.2.3 Политика в области качества. Дополнительные положения Политика в области качества должна учитывать: a) предотвращение отказов; b) ожидания потребителей; c) аспекты безопасности. ПРИМЕЧАНИЕ 1 Термин «безопасность» в настоящем стандарте означает безопасность продукции и услуг. ПРИМЕЧАНИЕ 2 Политики в области качества и безопасности могут быть оформлены отдельно друг от друга. ПРИМЕЧАНИЕ 3 Политика в области качества является частью общей корпоративной политики. С более подробной информацией можно ознакомиться в ISO 9004:2018, 7.2.</t>
-  </si>
-  <si>
     <t>Лидерство. Функции, ответственность и полномочия в организации. Функции, ответственность и  полномочия   в организации. Дополнительные положения.</t>
   </si>
   <si>
-    <t>5.3 Функции, ответственность и полномочия в организации ISO 9001:2015, Системы менеджмента качества. Требования 5.3 Функции, ответственность и полномочия в организации Высшее руководство должно обеспечить определение, доведение до работников и понимание в организации обязанностей, ответственности и полномочий для выполнения соответствующих функций. Высшее руководство должно распределить обязанности, ответственность и полномочия для: a) обеспечения соответствия системы менеджмента качества требованиям настоящего стандарта; b) обеспечения получения намеченных результатов процессов; c) отчетности высшему руководству о результатах функционирования системы менеджмента качества и возможностях ее улучшения (10.1); d) поддержки ориентации на потребителя во всей организации; e) сохранения целостности системы менеджмента качества при планировании и внедрении изменений в систему менеджмента качества. 5.3.1 Функции, ответственность и полномочия в организации. Дополнительные положения Высшее руководство должно: a) определить КПЭ для обеспечения управления и контроля функционирования СМК организации (см. Приложение C); b) назначить владельцев процессов [см 4.4.1 e)]; c) документировать и доводить до персонала актуализированную информацию об обязанностях и полномочиях по соответствующим функциям (например, по владельцам процессов); d) наделять представителей, не зависящих от выполнения процесса, правом останавливать процесс, предоставление продукции или услуги в том случае, если не соблюдаются требования к качеству, включая требования к безопасности. ПРИМЕЧАНИЕ Необходимая степень независимости представителей обуславливается размером организации, например, малые предприятия. Организация должна хранить соответствующую документированную информацию. В случае делегирования задач, условия и порядок такого делегирования должны быть определены и доведены до соответствующих сторон.</t>
-  </si>
-  <si>
     <t>Лидерство. Функции, ответственность и полномочия в организации. Ответственность и полномочия владельцев процессов.</t>
   </si>
   <si>
-    <t>5.3.2 Ответственность и полномочия владельцев процессов Владельцы процессов несут ответственность за соответствие процесса требованиям, перечисленным в 4.4, за исключением доступности ресурсов [см. 4.4.1 d)]. Высшее руководство должно определить границы ответственности и обеспечить их соблюдение.</t>
-  </si>
-  <si>
     <t>Планирование. Действия в отношении рисков и возможностей. Действия в отношении рисков и возможностей. Дополнительные положения.</t>
   </si>
   <si>
     <t>Планирование. Действия в отношении рисков и возможностей. Непрерывность деятельности.</t>
   </si>
   <si>
-    <t>6.1 Действия в отношении рисков и возможностей 6.1.4 Непрерывность деятельности Организация должна: a) разработать, утвердить, валидировать, если это применимо (например, путем регулярных проверок), и регулярно анализировать свой план действий в непредвиденных обстоятельствах на основании оценки рисков для бизнеса; b) обеспечивать непрерывность деятельности; c) распределить ответственность за действия по обеспечению непрерывности бизнеса. ПРИМЕЧАНИЕ 1 Риски бизнеса могут включать: — простои в работе организации; — простои в системе снабжения; — нехватку персонала; — критические технологии; — отказы основного производственного оборудования; — возвраты продукции; — план преемственности руководящих должностей, в частности, ключевые функции обеспечения качества; — информационные технологии; — коммуникационные системы; — убытки; — возникновение чрезвычайной ситуации или кризиса. ПРИМЕЧАНИЕ 2 С более подробной информацией по действиям в непредвиденных обстоятельствах можно ознакомиться в ISO 22301.</t>
-  </si>
-  <si>
     <t>Планирование. Цели в области качества и планирование их достижения.</t>
   </si>
   <si>
-    <t>6.2 Цели в области качества и планирование их достижения ISO 9001:2015, Системы менеджмента качества. Требования 6.2 Цели в области качества и планирование их достижения 6.2.1 Организация должна установить цели в области качества для соответствующих функций, уровней, а также процессов, необходимых для системы менеджмента качества. Цели в области качества должны: a) быть согласованными с политикой в области качества; b) быть измеримыми; c) учитывать применяемые требования; d) быть связанными с обеспечением соответствия продукции и услуг и повышением удовлетворенности потребителей; e) подлежать мониторингу; f) быть доведенными до работников; g) актуализироваться по мере необходимости. Организация должна разрабатывать, актуализировать и применять документированную информацию о целях в области качества. 6.2.2 При планировании действий по достижению целей в области качества организация должна определить: a) что должно быть сделано; b) какие потребуются ресурсы; c) кто будет нести ответственность; d) когда эти действия будут завершены; e) каким образом будут оцениваться результаты. 6.3 Планирование изменений ISO 9001:2015, Системы менеджмента качества. Требования</t>
-  </si>
-  <si>
     <t>Планирование. Планирование изменений.</t>
   </si>
   <si>
-    <t>6.3 Планирование изменений Там, где организация определяет необходимость изменений в системе менеджмента качества, эти изменения должны осуществляться на плановой основе (см.4.4). Организация должна рассматривать: a) цель вносимого изменения и возможные последствия его внесения; b) целостность системы менеджмента качества; c) доступность ресурсов; d) распределение или перераспределение обязанностей, ответственности и полномочий.</t>
-  </si>
-  <si>
     <t>Средства обеспечения. Ресурсы. Общие положения</t>
   </si>
   <si>
@@ -129,9 +102,387 @@
     <t>7 Средства обеспечения 7.1 Ресурсы 7.1.4 Среда для функционирования процессов ISO 9001:2015, Системы менеджмента качества. Требования 7.1.4 Среда для функционирования процессов Организация должна определить, создать и поддерживать среду, необходимую для функционирования ее процессов и достижения соответствия требованиям к продукции и услугам. ПРИМЕЧАНИЕ Подходящая среда может представлять собой сочетание человеческих и физических факторов, таких как: a) социальные (например, отсутствие дискриминации, спокойствие, бесконфликтность); b) психологические (например, снижение уровня стресса, профилактика эмоционального выгорания, эмоциональная защита); c) физические (например, температура, тепловой поток, влажность, освещение, движение воздуха, гигиена, шум). Эти факторы могут существенно различаться в зависимости от поставляемых продукции и услуг.</t>
   </si>
   <si>
+    <t>Средства обеспечения. Ресурсы. Знания организации.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Осведомлённость.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.3 Осведомлённость ISO 9001:2015, Системы менеджмента качества. Требования 7.3 Осведомленность Организация должна обеспечить, чтобы соответствующие лица, выполняющие работу под управлением организации, были осведомлены: a) о политике в области качества; b) о соответствующих целях в области качества; c) своем вкладе в результативность системы менеджмента качества, включая пользу от улучшения результатов деятельности; d) последствиях несоответствия требованиям системы менеджмента качества.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Обмен информацией. Обмен информацией. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.4 Обмен информацией ISO 9001:2015, Системы менеджмента качества. Требования 7.4 Обмен информацией Организация должна определить порядок внутреннего и внешнего обмена информацией, относящейся к системе менеджмента качества, включая: a) какая информация будет передаваться; b) когда будет передаваться информация; c) кому будет передаваться информация; d) каким образом она будет передаваться; e) кто будет передавать информацию. 7.4.1 Обмен информацией. Дополнительные положения Организации следует разработать, внедрить и поддерживать процесс менеджмента обмена внешней и внутренней информацией, относящейся к СМК железнодорожного транспорта.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Документированная информация. Общие положения.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.1 Общие положения ISO 9001:2015, Системы менеджмента качества. Требования 7.5 Документированная информация 7.5.1 Общие положения Система менеджмента качества организации должна включать: a) документированную информацию, требуемую настоящим стандартом; b) документированную информацию, определенную организацией как необходимую для обеспечения результативности системы менеджмента качества. ПРИМЕЧАНИЕ Объем документированной информации системы менеджмента качества одной организации может отличаться от другой в зависимости от: — размера организации и вида ее деятельности, процессов, продукции и услуг; — сложности процессов и их взаимодействия; — компетентности работников.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Документированная информация. Создание и актуализация.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.2 Создание и актуализация ISO 9001:2015, Системы менеджмента качества. Требования 7.5.2 Создание и актуализация При создании и актуализации документированной информации организация должна соответствующим образом обеспечить: a) идентификацию и описание (например: название, дата, автор, ссылочный номер); b) формат (например: язык, версия программного обеспечения, графические средства) и носитель (например: бумажный или электронный); c) анализ и одобрение с точки зрения пригодности и адекватности.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проведения тендеров.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.2 Менеджмент проведения тендеров Организация должна разработать, внедрить и поддерживать документированный процесс менеджмента тендеров. Данный процесс должен включать в себя: a) менеджмент требований (см. 8.2); b) тип и объем средств контроля [см. 4.4.3 f)]; c) менеджмент рисков и возможностей (см. 6.1), включая стоимостную оценку; d) входные данные из знаний организации (например, обратную связь о пользовательском опыте) (см. 7.1.6); e) планирование результатов, включая издержки; ПРИМЕЧАНИЕ 1 Стандартная структура учета издержек по проектам может использоваться для расчета коммерческого предложения. f) планирование ресурсов для выполнения контрактных обязательств; g) одобрение предложения. Организация должна сохранять документированную информацию, связанную с ее деятельностью по менеджменту тендеров. ПРИМЕЧАНИЕ 2 В настоящем документе менеджмент тендеров включает несколько видов деятельности, объединенных общим названием - проведение тендера, подача коммерческого предложения, открытые торги, предложение цены и так далее.</t>
+  </si>
+  <si>
+    <t>Деятельность. Требования к продукции и услугам. Связь с потребителем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Деятельность. Требования к продукции и услугам. Определение требований, относящихся к продукции и услугам. </t>
+  </si>
+  <si>
+    <t>Деятельность. Требования к продукции и услугам. Анализ требований к продукции и услугам.</t>
+  </si>
+  <si>
+    <t>Деятельность. Требования к продукции и услугам. Изменения требований к продукции и услугам.</t>
+  </si>
+  <si>
+    <t>Деятельность. Менеджмент морального устаревания.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Анализ со стороны руководства. Общие положения.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Анализ со стороны руководства. Входные данные для анализа со стороны руководства.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Анализ со стороны руководства. Выходные данные анализа со стороны руководства.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Анализ процессов.</t>
+  </si>
+  <si>
+    <t>Улучшение. Общие положения.</t>
+  </si>
+  <si>
+    <t>Улучшение. Постоянное улучшение.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. План менеджмента проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент объемов работ по проекту.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.3 Менеджмент объемов работ по проекту В отношении менеджмента объемов работ, процесс менеджмента проекта должен включать следующее: a) идентификацию требований к проекту (например, временные, коммерческие, технические требования), (см. 8.2); b) определение объема работ; c) деление работ по пакетам (например, структура распределения работ); d) распределение пакетов работ по владельцам пакетов работ; e) верификация пакетов работ. Проектная команда не должна менять объем работ по проекту, если эти изменения не получили одобрения (см. 8.1.4.2) в соответствии с требованиями организации. В отношении менеджмента объемов работ, в процесс менеджмента проекта следует включить стандартизированную структуру распределения работ. ПРИМЕЧАНИЕ Подробное описание менеджмента объемов работ применительно к проектированию и разработкам дано в 8.3.2.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.4 Менеджмент времени проекта В отношении менеджмента времени проекта, процесс менеджмента проекта должен включать следующее: a) определение и последовательность действий; b) оценку ресурсов и продолжительности действий; c) составление графика с учетом: 1) предыдущего опыта; 2) изделий с длительным сроком удовлетворения заявки под совместным управлением с внешними поставщиками. График проекта должен: d) включать продолжительность, начало, завершение и взаимозависимости пакетов работ, включая пакеты работ внешних поставщиков; e) включать критический путь; f) представлять входные данные для основного производственного графика (см. 8.5.1.2). Проектная команда не должна изменять график в отношении дат поставок заказчикам, если запрос на изменение не был своевременно направлен заказчику (см. 8.1.4.2). Проектной команде следует использовать программное обеспечение для составления графиков работ и отслеживания результатов деятельности.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент времени проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент стоимости проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент качества проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент человеческих ресурсов проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент рисков и возможностей проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент коммуникаций внутри проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент снабжения проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Менеджмент анализа проекта.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.5 Менеджмент стоимости проекта В отношении менеджмента стоимости, процесс менеджмента проекта должен включать следующее: a) определение бюджета на основании калькуляции согласно тендерной документации; b) распределение бюджета в соответствии с бюджетом расходов по проекту с учетом всех требований (например, включая организационные, законодательные и нормативно-правовые требования к пакетам работ); c) регулярный контроль расходов, в том числе сверку фактической и сметной стоимости по завершении проекта. Проектная команда не должна увеличивать бюджет проекта, если данное действие не санкционировано на основании соответствующего решения организации (см. 8.1.4.2). Организации следует использовать стандартизированное программное обеспечение для отслеживания затрат.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.6 Менеджмент качества проекта В отношении менеджмента качества, организация должна разработать, внедрить и поддерживать план качества проекта, включающий, как минимум, действия по обеспечению и контролю качества и хранить соответствующую документированную информацию. ПРИМЕЧАНИЕ 1 Для ознакомления с рекомендациями см. ISO 10005 и ISO 10006. ПРИМЕЧАНИЕ 2 План качества проекта устанавливает систему менеджмента качества проекта, то есть, порядок применения СМК организации к проекту, с добавлением требований контракта (при наличии таковых). ПРИМЕЧАНИЕ 3 План качества проекта может включать проектные процедуры или содержать ссылки на них (например, процедуру менеджмента несоответствий проекта), план контроля качества проекта, шаблоны или формы.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.7 Менеджмент человеческих ресурсов проекта В отношении менеджмента человеческих ресурсов, процесс менеджмента проекта должен включать следующее: a) определение и описание обязанностей по проекту (например, менеджер проекта, менеджер по закупкам проекта, менеджер по качеству проекта) и ответственности участников проекта в отношении обязанностей и ответственностью по линейным функциям, порядок подотчетности и наделения полномочиями (например, полномочия по согласованию финансовых вопросов, ответственность в части прибыли и убытков); b) организация проектной команды; c) менеджмент проектной организации в отношении персонала, компетентности и осведомленности участников в соответствии с требованиями, установленными в 7.1.2, 7.2 и 7.3; Проектная организация должна разработать, внедрить и исполнять план трудовых ресурсов проекта и сохранять соответствующую документированную информацию. Этот план должен включать на соответствующих уровнях: d) назначение основного персонала проектной группы (что подразумевает, например, письма о выдвижении); e) определение необходимых особых компетенций (например, для использования программных инструментов для менеджмента проекта, командной работы и обмена информацией, поставляемой продукции и услуг, построения информационных моделей, структуры распределения работ) помимо компетенций, установленных в 7.2; f) выявление необходимости проведения подготовки персонала.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.8 Менеджмент коммуникаций внутри проекта В отношении менеджмента обеспечения коммуникаций внутри проекта, организация должна: a) применять требования, установленные в 7.4 и 8.2.1; b) разработать, внедрить и поддерживать план менеджмента коммуникаций внутри проекта и сохранять соответствующую документированную информацию. В случае неизбежных отклонений от хода выполнения проекта, проектная организация должна доводить до потребителей и заинтересованных сторон информацию об этих факторах влияния и принимаемых контрмерах (см. 8.1.3.11).</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.9 Менеджмент рисков и возможностей проекта 8.1.3.9.1 В отношении менеджмента рисков и возможностей, проектная команда должна: a) применять требования, установленные в 6.1; b) разрабатывать, внедрять и поддерживать реестр, включающий финансовый анализ затрат и выгод по рискам и возможностям; c) сохранять документированную информацию по менеджменту рисков и возможностей. 8.1.3.9.2 В отношении менеджмента рисков и возможностей, проектной команде следует: a) привлекать к проведению анализа рисков руководителей функциональных подразделений; b) учитывать уровни функционального срока действия продукции, являющиеся, по согласованию с потребителем, входными данными для менеджмента рисков; ПРИМЕЧАНИЕ Анализ риска может учитывать уровень функционального срока действия относительно технических требований. c) осуществлять менеджмент возможностей для экономии затрат (чтобы сбалансировать потери) или увеличения затрат (чтобы повысить коэффициент доходности), в особенности для восстановления ухудшившихся показателей бюджета проекта.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.10 Менеджмент снабжения проекта В отношении менеджмента снабжения проекта, проектная организация должна применять требования, установленные в 8.4</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.11 Менеджмент анализа проекта Организация должна на регулярной основе выполнять анализ проекта в целях мониторинга хода его выполнения, в присутствии основных представителей проектной группы (или их уполномоченных представителей) (см. 8.1.3.7). В случае неизбежных отклонений от целей проекта, проектная команда должна определить и реализовать надлежащие контрмеры для снижения неблагоприятного воздействия на потребителей, организацию и(или) заинтересованные стороны. Анализ проекта должен включать следующее: a) показатели выполнения проекта (фактическое положение в сравнении с планом) на основании показателей эффективности (ПЭ) в соответствии с 9.1.1.1 (то есть, потребности, временные и финансовые параметры); b) прогноз (по времени и расчетной стоимости по завершении); c) риски и возможности, в том числе статус связанной с ними деятельности; d) отслеживание нерешенных вопросов и действий по результатам предыдущих анализов. Результаты анализов проекта следует доводить до уровня руководства выше, чем менеджер проекта, включая вопросы, требующие принятия решения или передачи их на рассмотрение на ещё более высокий уровень управления. ПРИМЕЧАНИЕ Анализы проекта предназначены для мониторинга хода выполнения всего проекта. Анализы этапов проекта (см. 8.1.3.1) предназначены для проверки готовности этапа проекта к закрытию и переходу к началу нового этапа.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент конфигурации и контроль изменений. Менеджмент конфигурации.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент конфигурации и контроль изменений. Контроль изменений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.1 Планирование и управление деятельностью 8.1.4 Менеджмент конфигурации и контроль изменений 8.1.4.1 Менеджмент конфигурации 8.1.4.1.1 Организация должна разработать, внедрить и поддерживать документированный процесс менеджмента конфигурации в соответствии с особенностями продукции. ПРИМЕЧАНИЕ 1 Процесс менеджмента конфигурации применим для аппаратного и программного обеспечения. Процесс должен включать следующее: a) план менеджмента конфигурации; b) определение разбивки продукции до легкосъемных элементов; c) идентификацию элементов конфигурации, как минимум, имеющих отношение к безопасности; d) своевременное определение базовых конфигураций (например, «в соответствии с проектом», «в заводском исполнении» и «установленной»); e) контроль изменений конфигурации в соответствии с 8.1.4.2; f) учет статуса конфигурации; g) выработка критериев для определения возможности отслеживания (например, присвоение серийных номеров, номеров партии изделий). Организация должна хранить документированную информацию по процессам менеджмента конфигурации. 8.1.4.1.2 В рамках этого процесса следует предусмотреть следующее: a) регулярные внутренние аудиты конфигурации; b) интеграцию системы менеджмента конфигурации внешнего поставщика (например, интерфейсы для передачи данных); c) инструменты и программное обеспечение, используемые для проектирования, разработки, производства и обслуживания в качестве элементов конфигурации; d) поддержку в виде программного обеспечения. ПРИМЕЧАНИЕ Руководящие указания даны в ISO 10007. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.2 Требования к продукции и услугам 8.2.3 Анализ требований к продукции и услугам ISO 9001:2015, Системы менеджмента качества. Требования 8.2.3.1 Организация должна убедиться, что обладает способностью выполнять требования к продукции и услугам, которые она предлагает потребителям. Организация должна проводить анализ, прежде чем принять обязательство о поставке продукции или предоставлении услуг потребителям, чтобы учесть: a) требования, установленные потребителем, в том числе требования к поставке и деятельности после поставки; b) требования, не заявленные потребителем, но необходимые для конкретного или предполагаемого использования, когда оно известно; c) требования, установленные организацией; d) законодательные и нормативные требования, применимые к продукции и услугам; e) требования контракта или заказа, отличающиеся от ранее сформулированных. Организация должна обеспечить, чтобы были определены и приняты решения по требованиям контракта или заказа, отличающимся от ранее установленных. Если потребитель не выдвигает документированных требований, организация должна подтвердить его требования до принятия к исполнению. ПРИМЕЧАНИЕ В некоторых ситуациях, таких как продажи, осуществляемые через Интернет, практически нецелесообразно проводить формальный анализ каждого заказа. Вместо этого анализ может распространяться на соответствующую информацию о продукции, такую как каталоги. 8.2.3.2 Организация должна сохранять документированную информацию, насколько это применимо, в отношении: a) результатов анализа; b) любых новых требований к продукции и услугам.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.2 Требования к продукции и услугам 8.2.4 Изменения требований к продукции и услугам ISO 9001:2015, Системы менеджмента качества. Требования 8.2.4 Изменения требований к продукции и услугам Если требования к продукции и услугам изменены, организация должна обеспечить, чтобы в соответствующую документированную информацию были внесены поправки, а соответствующий персонал был поставлен в известность об изменившихся требованиях.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Общие положения.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Планирование проектирования и разработки.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Входные данные для проектирования и разработки.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Средства управления проектированием и разработкой.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Выходные данные проектирования и разработки.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Внесение изменений в проект и разработку.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.6 Внесение изменений в проект и разработку ISO 9001:2015, Системы менеджмента качества. Требования 8.3.6 Внесение изменений в проект и разработку Организация должна идентифицировать, анализировать и управлять изменениями, сделанными во время или после проектирования и разработки продукции и услуг, в той степени, которая необходима для обеспечения исключения негативного влияния на соответствие требованиям. Организация должна регистрировать и сохранять документированную информацию по: a) изменениям проектирования и разработки; b) результатам анализов; c) санкционированию изменений; d) действиям, предпринятым для предотвращения неблагоприятного влияния.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Общие положения.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Тип и степень управления.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Менеджмент цепи поставок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.4 Менеджмент цепи поставок Организация должна: a) запрашивать подтверждение получения своих заказов на поставку внешними поставщиками и сохранять документированную информацию об этих подтверждениях; b) документировать запросы на внесение изменений, направляемые внешним поставщикам (см. 8.4.3.1) Организация должна направлять актуализированные графики поставок и прогнозы своим внешним поставщикам в качестве входных данных для планирования своих ресурсов. Сюда относится информация о задержках при поставке организацией процессов, продукции или услуг внешним поставщикам. Информация о цепочке поставок (например, сроки доставки, количество), которой организация обменивается с потребителями, внешними поставщиками и внутри организации (например, при проектировании, производстве), должна находиться под постоянным контролем и обновляться по мере необходимости (например, с использованием прикладного программного обеспечения). Организации следует согласовать с внешними поставщиками политику раннего предупреждения для получения информации о прогнозных задержках поставок, в противном случае организации следует регулярно проверять график поставок. В подобную политику раннего предупреждения следует также включить вопросы, связанные с моральным устареванием. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг ISO 9001:2015, Системы менеджмента качества. Требования 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг Организация должна осуществлять производство продукции и предоставление услуг в управляемых условиях. Управляемые условия должны включать в себя, насколько это применимо: a) доступность документированной информации, определяющей: 1) характеристики производимой продукции, предоставляемых услуг или осуществляемой деятельности; 2) результаты, которые должны быть достигнуты; b) доступность и применение ресурсов, подходящих для осуществления мониторинга и измерений; c) осуществление деятельности по мониторингу и измерению на соответствующих этапах в целях верификации соответствия процессов или их выходов критериям управления, а также соответствия продукции и услуг критериям приемки; d) применение соответствующей инфраструктуры и среды для функционирования процессов; e) назначение компетентного персонала, включая любую требуемую квалификацию; f) валидацию и периодическую повторную валидацию способности процессов производства продукции и предоставления услуг достигать запланированных результатов в тех случаях, когда конечный выход не может быть верифицирован последующим мониторингом или измерением; g) выполнение действий с целью предотвращения ошибок, связанных с человеческим фактором; h) осуществление выпуска, поставки и действий после поставки. </t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг. Дополнительные положения. Общие положения.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг. Дополнительные положения. Управляемые условия.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг. Дополнительные положения. Верификация процесса производства и оказания услуг.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг. Дополнительные положения. Валидация процесса производства и оказания услуг.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг. Производственный график.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг. Специальные процессы.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг. Производственное оборудование.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг 8.5.1.4 Производственное оборудование 8.5.1.4.1 Применительно к производственному оборудованию, организация должна: a) если применимо, разрабатывать собственное производственное оборудование; b) планировать и осуществлять мероприятия профилактического технического обслуживания для обеспечения того, что производственное оборудование: 1) верифицировано в соответствии с определенными методами и критериями приемки; 2) прошло процедуру валидации до первого использования (см. 8.9); 3) зарегистрировано под индивидуальным идентификационным кодом; 4) защищенного от ухудшения его технических характеристик, включая хранение и консервацию в случае необходимости, когда оборудование не используется; 5) подвергается проверкам технического состояния с плановой периодичностью (например, в отношении ухудшения состояния — путем визуального осмотра); 6) подвергается повторной верификации с плановой периодичностью, в зависимости от степени риска и частоты отказов; c) корректировать плановую периодичность в осуществлении мероприятий в соответствии с частотой возникновения отказов; d) осуществлять периодические проверки производственного оборудования с учетом его эксплуатации в будущие периоды (входные данные для 7.1.1); e) обеспечивать наличие запасных частей и расходных материалов с длительным сроком изготовления; f) применять методы, гарантирующие предотвращение ошибок в производстве (например, метод «пока-еке» (poka yoke)); g) сохранять документированную информацию о мероприятиях по техническому обслуживанию. 8.5.1.4.2 Организации следует: a) применять процесс проектирования и разработки (см. 8.3) для производственного оборудования в зависимости от обстоятельств; b) если применимо, выполнять профилактическое обслуживание оборудования по его техническому состоянию.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг 8.5.1.3 Специальные процессы Организация должна разработать, внедрить и поддерживать документированный процесс менеджмента специальных процессов. Этот процесс должен включать следующее: a) определение специальных процессов, планируемых к использованию организацией; b) для каждого специального процесса определение следующего: 1) обязанности и полномочия; 2) применимые стандарты; 3) оценку рисков с использованием применимых методов (например, анализ FMEA процесса); 4) рабочие инструкции, в случае отсутствия применимых стандартов, в том числе для: — руководства; — персонала; — техники; — методов; — материалов; — природы (условий окружающей среды); 5) компетенции и квалификации персонала; 6) обеспечение качества, методы контроля и сопутствующая документированная информация; 7) квалификационные испытания специальных процессов; 8) валидация каждого отдельного применения; 9) повторная валидация после внесения изменений; c) сохранение документированной информации в отношении вышеизложенных требований. ПРИМЕЧАНИЕ К специальным процессам, согласно определения в ISO 9000:2015, 3.4.1, Примечание 5 к статье, могут относиться, например, склеивание и герметизация, литье, опрессовка, термообработка, клепка, обработка поверхности, в том числе покраска и нанесение покрытия, затяжка соединений и сварка.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг 8.5.1.2 Производственный график 8.5.1.2.1 В отношении производственного графика, организация должна: a) составлять производственные графики (с учетом особенностей производственного оборудования) на краткосрочную, среднесрочную (основной производственный план) и долгосрочную перспективу (план производства и продаж) в целях выполнения требований заказчика по поставкам; b) использовать инструменты программного обеспечения, обеспечивающие: 1) охват всех этапов производства; 2) регистрацию и учет актуализированной информации касательно статуса производства; 3) обновление содержания при каждом изменении заказа потребителем или условий контракта или другом аналогичном событии; c) использовать прогнозы и информацию о имеющихся заказах от заказчиков и внешних поставщиков, для планирования и регулярной корректировки своих ресурсов в соответствии с рабочей нагрузкой, с учетом рисков (например, дополнительный заказ, сделанный в последний момент, невыполнение внешним поставщиком своих обязательств); d) определять критические места в процессе производства. 8.5.1.2.2 В отношении планирования производства, организации следует: a) учитывать: 1) результаты анализа рисков; 2) предшествующий опыт; 3) показатели экономической эффективности; b) разрабатывать соответствующие планы мероприятий по совершенствованию производства.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг 8.5.1.1 Управление производством продукции и предоставлением услуг. Дополнительные положения 8.5.1.1.1 Общие положения ПРИМЕЧАНИЕ Используемый в этом разделе термин «производство» может также относиться к деятельности на площадке потребителя (например, во время пусконаладочных или монтажных работ до передачи оборудования заказчику). Организация должна разработать, внедрить и поддерживать процесс по обеспечению продукцией и предоставлению услуг. Этот процесс должен: a) содержать требования к следующему: 1) мероприятия по обеспечению контролируемых условий (см. 8.5.1.1.2); 2) верификация процесса производства и оказания услуг (см. 8.5.1.1.3); 3) валидация процесса производства и оказания услуг (см. 8.5.1.1.4); 4) производственный график (см. 8.5.1.2); 5) мероприятия по управлению эксплуатацией производственного оборудования (см. 8.5.1.4); 6) мероприятия по обеспечению идентификации и прослеживаемости (см. 8.5.2); 7) управление имуществом, принадлежащим клиентам или внешним поставщикам (см. 8.5.3); 8) сохранность (см. 8.5.4); b) содержать ссылки на следующее: 1) менеджмент конфигурации (см. 8.1.4.1); 2) управление изменениями (см. 8.1.4.2); 3) специальные процессы (см. 8.5.1.3); 4) выпуск продукции и услуг (см. 8.6); 5) управление несоответствиями (см. 8.7); 6) контроль первого изделия (см. 8.9).</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг 8.5.1.1 Управление производством продукции и предоставлением услуг. Дополнительные положения 8.5.1.1.2 Управляемые условия Управляемые условия должны включать следующее: a) одобренные данные для производства и оказания услуг. В эти данные входит следующее: 1) чертежи, ведомости материалов, схемы производственного процесса, планы инспекций и испытаний, производственные документы (например, рабочие инструкции, производственные графики, заказ- наряды на выполнение работ, технологические карты); 2) перечень инструментов и программ для станков с ЧПУ, необходимых для производственного процесса, и специальные инструкции, связанные с их использованием; b) контроль производства и предоставления услуг во всех сменах (например, количество деталей, разбивка заказов, несоответствия результатов); c) доказательства того, что все этапы производства и оказания услуг, в том числе инспекционные проверки, были санкционированы должным образом и проведены в соответствии с планом; d) меры по предотвращению повторения ранее возникавших проблем; e) оценка риска всех видов деятельности, связанных с производством и предоставлением услуг, и применимых методов работы; f) оценка риска влияния отсроченных работ, с целью обеспечения контроля за ходом выполнения работ без ущерба для качества и безопасности; g) доработка и устранение несоответствий в результатах работы (см. 8.7.3); h) использование системы статистического контроля технологических процессов, если применимо.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг 8.5.1.1 Управление производством продукции и предоставлением услуг. Дополнительные положения 8.5.1.1.3 Верификация процесса производства и оказания услуг Верификация процесса производства и оказания услуг должны включать следующее: a) верификация входных данных процесса производства на соответствие выходным данным процесса проектирования и разработки, с точки зрения их полноты (см. 8.3.5.1); b) верификация способности производственного оборудования отвечать требованиям к проектированию и разработке (например, в отношении допусков или классов точности производственного оборудования); c) оценка рисков на раннем этапе процесса с использованием применяемых методов (например, анализ FMEA производственного процесса).</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг 8.5.1.1 Управление производством продукции и предоставлением услуг. Дополнительные положения 8.5.1.1.4 Валидация процесса производства и оказания услуг 8.5.1.1.4.1 Валидация процесса производства и оказания услуг должна обеспечить следующее: a) соответствие требованиям к проектированию и разработке; b) достижение управляемых условий; c) выполнение контроля первого образца изделия (см. 8.9); d) завершение валидации до передачи продукции/услуг потребителю; e) завершение повторной валидации как части работ по внедрению изменений; f) наличие регулярной обратной связи по вопросам проектирования и разработки с целью непрерывного совершенствования производства и соответствующей документации. 8.5.1.1.4.2 Валидация процессов производства и предоставления услуг должна включать следующее: a) исследование измерительных возможностей; b) исследование технологических возможностей; c) анализ допустимых отклонений для упрощения производственного процесса.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Идентификация и прослеживаемость.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Собственность потребителей или внешних поставщиков.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.3 Собственность потребителей или внешних поставщиков ISO 9001:2015, Системы менеджмента качества. Требования 8.5.3 Собственность потребителей или внешних поставщиков Организация должна следить за собственностью заказчика или внешних поставщиков, если она находится под управлением организации или используется ею. Организация должна идентифицировать, верифицировать, сохранять и защищать собственность потребителя или внешнего поставщика, предоставленную для использования или включения в продукцию и услуги. В случае, когда собственность потребителя или внешнего поставщика утеряна, повреждена или признана непригодной для использования, организация должна уведомить об этом потребителя или внешнего поставщика, а также регистрировать и сохранять документированную информацию о произошедшем. ПРИМЕЧАНИЕ Собственность потребителя или внешнего поставщика может включать в себя материалы, компоненты, инструменты и оборудование, недвижимость, интеллектуальную собственность и персональные данные. 8.5.3.1 Собственность потребителей или внешних поставщиков. Дополнительные положения Организация должна обеспечивать возможность прослеживания собственности потребителей или внешних поставщиков вплоть до момента поставки или возврата ПРИМЕЧАНИЕ Стороны могут определить требования к прослеживаемости. В случае утери собственности, повреждения или признания её непригодной для использования по другим причинам, организации следует проанализировать причины и принять необходимые меры. </t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Сохранность.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Деятельность после поставки.</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Управление изменениями.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.6 Управление изменениями ISO 9001:2015, Системы менеджмента качества. Требования 8.5.6 Управление изменениями Организация должна анализировать изменения в производстве продукции или предоставлении услуг и управлять ими в той степени, насколько это будет необходимо для обеспечения постоянного соответствия требованиям. Организация должна регистрировать и сохранять документированную информацию, описывающую результаты анализа изменений, сведения о должностных лицах, санкционировавших внесение изменения, и все необходимые действия, являющиеся результатом анализа. </t>
+  </si>
+  <si>
+    <t>Деятельность. Выпуск продукции и услуг.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.8 Надежность, готовность, ремонтопригодность, безопасность (RAMS) и стоимость жизненного цикла (LCC) 8.8.1 Общие положения Организация должна рассмотреть следующие действующие процессы: a) RAM (см. 8.8.2); b) обеспечения безопасности (см. 8.8.3). Организации следует иметь действующий процесс LCC (см. 8.8.4). Организация должна сохранять соответствующую документированную информацию, относящуюся к этим процессам.</t>
+  </si>
+  <si>
+    <t>Деятельность. Надежность, готовность, ремонтопригодность, безопасность (RAMS) и стоимость жизненного цикла (LCC). Общие положения.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.8 Надежность, готовность, ремонтопригодность, безопасность (RAMS) и стоимость жизненного цикла (LCC) 8.8.2 Надежность, готовность и ремонтопригодность Организация должна разработать, внедрить и поддерживать документированные процессы по управлению RAM в отношении продукции и услуг. Для этого организация должна определить нормативные требования, стандарты (например, IEC 62278 или его эквивалент) или руководящие указания, применимые к процессу RAM. Этот процесс должен включать: a) расчет целевых показателей RAM на этапе проведения тендера или проектирования, подлежащих учету на протяжении всего периода жизненного цикла продукции или услуги; b) внедрение требований RAM в проектирование и разработку по цепи поставок; c) сбор данных (например, эксплуатационных данных или данных по ремонту) при осуществлении деятельности после поставки, при заключении договоров на обслуживание замену или ремонт; d) анализ и сравнение эксплуатационных данных, связанных с предыдущими аналогичными продуктами (например, метод 8D, FRACAS); e) обратную связь по данным RAM с соответствующими рабочими группами с целью улучшить концепцию проектирования; f) обратную связь по данным RAM с соответствующими внешними поставщиками применительно к их поставкам; g) мониторинг достижения целей RAM; в том случае, если цели не достигнуты, организация должна проанализировать эксплуатационные данные, выполнить корректирующие действия в соответствии с требованиями, изложенными в 10.2, и осуществлять контроль эксплуатационных данных до тех пор, пока цели не будут достигнуты; Анализ причин следует выполнять с учетом категории отказа, местоположения компонента и степени влияния отказа (средства устранения и серьёзность отказа). Если организация не участвует в выполнении договоров на обслуживание, замену или ремонт, ей следует запрашивать эксплуатационные данные у потребителей и после окончания гарантии.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.8 Надежность, готовность, ремонтопригодность, безопасность (RAMS) и стоимость жизненного цикла (LCC) 8.8.3 Безопасность Если организация осуществляет поставку относящихся к безопасности механических и(или) электрических, электронных, программных продуктов и услуг, она должна разработать, внедрить и поддерживать процесс менеджмента безопасности для продукции и услуг. Для этого, организация должна установить нормативные требования, стандарты (например, IEC 62278, IEC 62425, IEC 62279 или их эквиваленты) или руководящие указания, применимые к деятельности по обеспечению безопасности. ПРИМЕЧАНИЕ 1 Этот процесс применяется к измерительным ресурсам собственной разработки, используемым для верификации относящихся к безопасности продукции и услуг. ПРИМЕЧАНИЕ 2 Предполагается, что деятельность по обеспечению безопасности охватывает уровни полноты безопасности (SIL), а также относящиеся к безопасности электронные системы, которыми могут быть дверные системы, тормозные системы и системы энергоснабжения.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.8 Надежность, готовность, ремонтопригодность, безопасность (RAMS) и стоимость жизненного цикла (LCC) 8.8.4 Стоимость жизненного цикла Организации следует разработать, внедрить и поддерживать процесс менеджмента стоимости жизненного цикла для продукции и услуг, путем учета потребности рынка и своего интереса (как оператора, системного интегратора, изготовителя оборудования). Этот процесс должен включать в себя: a) расчет данных по LCC; b) выполнение действий по проектированию и разработке, производству и поддержанию по всей цепочке поставок; c) сбор данных (например, эксплуатационных и ремонтных данных) в период деятельности после поставки, в период выполнения контрактов на техническое обслуживание, замену и ремонт изделий; d) анализ и сопоставление с эксплуатационными данными и данными LCC по предыдущей аналогичной продукции (например, методом 8D, FRACAS); e) мониторинг целей LCC.</t>
+  </si>
+  <si>
+    <t>Деятельность. Надежность, готовность, ремонтопригодность, безопасность (RAMS) и стоимость жизненного цикла (LCC).  Стоимость жизненного цикла.</t>
+  </si>
+  <si>
+    <t>Деятельность. Надежность, готовность, ремонтопригодность, безопасность (RAMS) и стоимость жизненного цикла (LCC). Безопасность.</t>
+  </si>
+  <si>
+    <t>Деятельность. Надежность, готовность, ремонтопригодность, безопасность (RAMS) и стоимость жизненного цикла (LCC). Надежность, готовность и ремонтопригодность.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.10 Менеджмент морального устаревания Организация должна разработать, внедрить и поддерживать документированный процесс менеджмента моральным устареванием продукции и услуг для обеспечения доступности поставляемой продукции и запасных частей в соответствии с условиями договора или согласно определения самой организации, как минимум до окончания гарантийного срока. Этот процесс должен включать в себя: a) проведение оценки риска устаревания поставляемой продукции; b) определение и регулярный анализ плана менеджмента морального устаревания поставляемой продукции для упреждающего предотвращения или снижения риска морального устаревания; c) обмен информацией с потребителями. Кроме того, в рамках этого процесса следует определять необходимость мониторинга ассортимента продукции для исключения проблем с моральным устареванием продукции в будущем. ПРИМЕЧАНИЕ 1 Моральное устаревание может быть вызвано проблемами технического, функционального или информационного характера. ПРИМЕЧАНИЕ 2 IEC 62402 содержит требования и руководящие указания по вопросам менеджмента морального устаревания. ПРИМЕЧАНИЕ 3 Управления моральным устареванием можно осуществлять, в частности, при помощи следующего: — средств стратегии второго поставщика; — подхода к вопросам хранения; — модульной конструкции со стандартными интерфейсами; — перехода на более современные технологии.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Мониторинг, измерение, анализ и оценка. Общие положения.</t>
+  </si>
+  <si>
+    <t>9 Оценка результатов деятельности 9.1 Мониторинг, измерение, анализ и оценка 9.1.2 Удовлетворённость потребителей ISO 9001:2015, Системы менеджмента качества. Требования 9.1.2 Удовлетворенность потребителей Организация должна проводить мониторинг данных, касающихся восприятия потребителями степени удовлетворенности своих потребностей и ожиданий. Организация должна определить методы получения, мониторинга и анализа этой информации. ПРИМЕЧАНИЕ Примеры мониторинга восприятия потребителями могут включать опрос потребителей, отзывы от потребителей о поставленных продукции и услугах, встречи с потребителями, анализ доли рынка, благодарности, претензии по гарантийным обязательствам и отчеты дилеров. 9.1.2.1 Удовлетворённость потребителя. Дополнительные положения Организация должна вести работу с жалобами потребителей следующим образом: a) регистрировать жалобы и ответы на них таким образом, чтобы можно было без проблем осуществить обмен информацией по принятым решениям и выводам (например, при помощи централизованного прикладного программного обеспечения); b) обмениваться информацией с потребителем относительно подтверждения и выполнения соответствующих корректирующих действий в соответствии с 10.2. Организации следует разработать, внедрить и поддерживать процесс менеджмента удовлетворенности потребителей. ПРИМЕЧАНИЕ С информацией по работе с жалобами потребителей можно ознакомиться в ISO 10002, по удовлетворённости потребителей - в ISO 10004.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Мониторинг, измерение, анализ и оценка. Удовлетворённость потребителей.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Мониторинг, измерение, анализ и оценка. Анализ и оценка.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Внутренний аудит. Организация должна проводить внутренние аудиты.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.2 Внутренний аудит 9.2.1 Организация должна проводить внутренние аудиты через запланированные интервалы времени для получения информации о том, что система менеджмента качества: a) соответствует: 1) собственным требованиям организации к ее системе менеджмента качества; 2) требованиям настоящего международного стандарта; b) результативно внедрена и функционирует. </t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Внутренний аудит. Организация должна.</t>
+  </si>
+  <si>
+    <t>9 Оценка результатов деятельности 9.2 Внутренний аудит 9.2.2 Организация должна: a) планировать, разрабатывать, реализовывать и поддерживать в актуальном состоянии программу(- ы) аудитов, включая периодичность и методы проведения аудитов, а также ответственность, планируемые для проверки требования и предоставление отчетности. Программа(-ы) аудитов должна(-ы) разрабатываться с учетом важности проверяемых процессов, изменений, оказывающих влияние на организацию, и результатов предыдущих аудитов; b) определять критерии аудита и область проверки для каждого аудита; c) отбирать аудиторов и проводить аудиты так, чтобы обеспечивалась объективность и беспристрастность процесса аудита; d) обеспечивать передачу информации о результатах аудитов соответствующим руководителям; e) осуществлять соответствующую коррекцию и корректирующие действия без необоснованной задержки; f) регистрировать и сохранять документированную информацию как свидетельство реализации программы аудитов и полученных результатов аудитов. ПРИМЕЧАНИЕ См. ISO 19011 для руководства.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.3 Анализ со стороны руководства 9.3.1 Общие положения Высшее руководство должно анализировать через запланированные интервалы времени систему менеджмента качества в целях обеспечения ее постоянной пригодности, адекватности, результативности и согласованности со стратегическим направлением организации. 9.3.1.1 Общие положения. Дополнительные положения Организация должна убедиться, что анализ со стороны руководства выполняется ежегодно и согласовывается с рабочим календарем организации. Организация должна сохранять документированную информацию по анализу со стороны руководства, в том числе, входные и выходные данные (результаты). В случае значительного нарушения качества, способного оказать влияние на систему менеджмента качества, или в случае существенных изменений СМК, организация должна провести дополнительный анализ со стороны руководства. </t>
+  </si>
+  <si>
+    <t>9 Оценка результатов деятельности 9.3 Анализ со стороны руководства 9.3.2 Входные данные анализа со стороны руководства Анализ со стороны руководства должен планироваться и включать в себя рассмотрение: a) статуса действий по результатам предыдущих анализов со стороны руководства; b) изменений во внешних и внутренних вопросах, касающихся системы менеджмента качества; c) информации о результатах деятельности и результативности системы менеджмента качества, включая тенденции, относящиеся: 1) к удовлетворенности потребителей и отзывам от соответствующих заинтересованных сторон; 2) к степени достижения целей в области качества; 3) к показателям процессов и соответствию продукции и услуг; 4) к несоответствиям и корректирующим действиям; 5) к результатам мониторинга и измерений; 6) к результатам аудитов; 7) к результатам деятельности внешних поставщиков; d) достаточности ресурсов; e) результативности действий, предпринятых в отношении рисков и возможностей (см. 6.1); f) возможностям для улучшения. 9.3.2.1 Входные данные для анализа со стороны руководства. Дополнительные положения Анализ со стороны руководства должен учитывать следующее: a) ключевые проблемные вопросы, выявленные в ходе анализа проектов; b) выборочные результаты анализа процессов; ПРИМЕЧАНИЕ Анализ процессов можно использовать для анализа КПЭ. c) как минимум, обзор результатов анализа всех КПЭ, установленных в 5.3.1 a) и других ПЭ, установленных в 9.1.1.1; d) анализ фактических и потенциальных внешних и внутренних технических отказов и их влияние на безопасность; e) выходные данные процесса бизнес-планирования. При проведении анализа со стороны руководства следует учитывать знания организации.</t>
+  </si>
+  <si>
+    <t>9 Оценка результатов деятельности 9.3 Анализ со стороны руководства 9.3.3 Выходные данные анализа со стороны руководства Выходные данные анализа со стороны руководства должны включать в себя решения и действия, относящиеся: a) к возможностям для улучшения; b) любым необходимым изменениям системы менеджмента качества; c) потребности в ресурсах. Организация должна регистрировать и сохранять документированную информацию как свидетельство результатов анализа со стороны руководства. 9.3.3.1 Выходные данные анализа со стороны руководства. Дополнительные положения Результаты анализа со стороны руководства должны включать в себя решения и действия, относящиеся к следующему: a) достижению целей, включая как минимум цели безопасности и качества; b) удовлетворенности потребителей. Если цели не достигнуты, управление корректирующими действиями должно осуществляться в соответствии с 10.2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Улучшение 10.1 Общие положения Организация должна определять и выбирать возможности для улучшения и осуществлять необходимые действия для выполнения требований потребителей и повышения уровня их удовлетворенности. Это должно включать: a) улучшение продукции и услуг в целях выполнения требований, а также учета будущих потребностей и ожиданий; b) коррекцию, предотвращение или снижение влияния нежелательных воздействий; c) улучшение результатов деятельности и результативности системы менеджмента качества. ПРИМЕЧАНИЕ Примеры улучшения могут включать коррекцию, корректирующее действие, постоянное улучшение, прорывное изменение, инновацию и реорганизацию. </t>
+  </si>
+  <si>
+    <t>10 Улучшение 10.3 Постоянное улучшение Организация должна постоянно улучшать пригодность, адекватность и результативность системы менеджмента качества. Организация должна рассматривать результаты анализа и оценки, результаты анализа со стороны руководства, чтобы определить, имеются ли потребности или возможности, требующие рассмотрения в качестве мер по постоянному улучшению.</t>
+  </si>
+  <si>
+    <t>Приложение A. Список процессов. A.1  Обязательные процессы.</t>
+  </si>
+  <si>
+    <t>Приложение A. Список процессов. A.2   Рекомендованные процессы.</t>
+  </si>
+  <si>
+    <t>Приложение B. Концепция классификации требований по пролдукции и услугам.</t>
+  </si>
+  <si>
+    <t>Приложение C. Показатели эффективности. Общие положения.</t>
+  </si>
+  <si>
+    <t>Приложение C. Показатели эффективности. Процесс определения показателей эффективности.</t>
+  </si>
+  <si>
+    <t>Приложение C. Показатели эффективности. Принципы SMART для определения параметров эффективности.</t>
+  </si>
+  <si>
+    <t>Приложение C. Показатели эффективности. Определение показателей эффективности.</t>
+  </si>
+  <si>
+    <t>Приложение C. Показатели эффективности. Обзор ПЭ, необходимых или рекомендованных в настоящем документе.</t>
+  </si>
+  <si>
+    <t>Приложение C. Показатели эффективности. Примеры.</t>
+  </si>
+  <si>
+    <t>Приложение A (информативное) Список процессов A.2 Рекомендованные процессы Таблица A.2 содержит список рекомендованных процессов настоящего документа. Таблица A.2 — Рекомендованные процессы Раздел. Рекомендация. Организации следует разработать, внедрить и поддерживать процесс управления знаниями 7.1.6.1.2 организации для достижения соответствия своей продукции услуг предъявляемым требованиям. Организации следует разработать, внедрить и поддерживать процесс управления 7.4.1 коммуникацией для обеспечения внутреннего и внешнего обмена информацией, относящейся к СМК железнодорожного транспорта. 8.1.1.1 Организации следует разработать, внедрить и поддерживать процесс управления инновациями fв отношении новой продукции, услуг и технологий. 8.6.1 Организации следует разработать, внедрить и поддерживать процесс выпуска продукции и услуг. Организации следует разработать, внедрить и поддерживать процесс управления 8.8.4 стоимостью жизненного цикла продукции и услуг путем учета потребностей рынка, а также собственного интереса (как оператора, системного интегратора, изготовителя оборудования). 9.1.2.1 Организации следует разработать, внедрить и поддерживать процесс управления удовлетворённостью потребителя.</t>
+  </si>
+  <si>
+    <t>Приложение B (информативное) Концепция классификации требований по продукции и услугам Requirement (ISO 9000:2015, 3.6.4) Требование (ISO 9000:2015, 3.6.4) Потребность или ожидание, которое задано, обычно подразумевается или является обязательным. Техническое требование (3.1.3.10) Technical requirement (3.1.3.10) Требование, определяющее характерные особенности продукции или услуги. Нетехническое требование (3.1.3.6) *Non-technical requirement (3.1.3.6)* Требование, влияющее на поставку продукции или услуг. Функциональное требование (3.1.3.2) Functional requirement (3.1.3.2) Требование, определяющее функцию, которую должна выполнять продукция или услуга. Нефункциональное требование (3.1.3.5) *Non-functional requirement (3.1.3.5)* Техническое требование, определяющее признаки, играющие роль ограничителей или сдерживающих факторов и обеспечивающих применимость и эффективность, но не влияющие на функциональность продукции или услуг. Эксплуатационное требование (3.1.3.8) Performance requirement (3.1.3.8) Требование, определяющее результат, достижение которого должна обеспечить продукция или услуга. Требование по интеграции (3.1.3.3) Integration requirement (3.1.3.3) Требование со стороны продукции или услуги предоставить описание того, как составляющая система, подсистема или компонент будут взаимодействовать с другими устройствами для выполнения общей функции. Прочие нефункциональные требования Other non-functional requirements Например: безопасность, моральный износ, удобство эксплуатации, цвет, маркировка.</t>
+  </si>
+  <si>
+    <t>Приложение C (информативное) Показатели эффективности C.1 Общие положения В этом приложении даны пояснения ожидаемых результатов, относящихся к разделам: — 4.4.1 c) (Показатели эффективности (ПЭ)); — 5.3.1 a) (Ключевые показатели эффективности (КПЭ)); — требования 9.1.1.1.1 (ПЭ). ПРИМЕЧАНИЕ приведённая ниже информация действительна в отношении и ПЭ и КПЭ. ПЭ обеспечивают возможность измерения эффективности системы в целом. ПЭ достаточно часто используют в качестве входных данных технологических анализов и анализов со стороны руководства, направленных на непрерывное совершенствование процессов. Для ясности, в требовании 4.4.1 c) сказано, что определение ПЭ необходимо, как минимум, для каждого процесса, реализуемого организацией. Выбор надлежащих ПЭ и методов контроля является критически важным условием для измерений и анализа эффективности организации. С руководящими материалами по этой теме можно ознакомиться в ISO 9004:2018, разделы с 10.1 по 10.4.</t>
+  </si>
+  <si>
+    <t>Приложение C (информативное) Показатели эффективности C.2 Процесс определения показателей эффективности Для определения ПЭ, выполняют следующие действия: a) устанавливают внутренние и внешние заинтересованные стороны процесса (например, потребителей процесса, поставщиков процесса, владельца процесса, исполнителя процесса), см. Рисунок 1; b) определяют требования заинтересованных сторон к внутренним и внешним процессам; c) определяют ПЭ: 1) обеспечивают соответствие требованиям заинтересованных сторон; 2) согласовывают определения ПЭ с заинтересованными сторонами процесса; 3) применяют принципы SMART – цель должна быть конкретной; измеримой; достижимый; реалистичный; определённой по времени (см. пояснения в Разделе C.3); 4) определяют целевые значения ПЭ: согласовывают целевые значения ПЭ с заинтересованными сторонами процесса; d) измеряют ПЭ и оценивают результаты PI; e) при необходимости, выполняют меры по совершенствованию процессов.</t>
+  </si>
+  <si>
+    <t>Приложение C (информативное) Показатели эффективности C.3 Принципы SMART для определения параметров эффективности — Конкретность: четкое определение того, что измеряет показатель в связи с процессом и его целями. Для обеспечения единого понимания, определение ПЭ может быть стандартизировано для всех объектов/производственных площадок и направлений деятельности организации. — Измеримость: количество или качество или другой критерий, можно оценить эффективность, результативность, степень выполнения процессов и т.д., часто в сравнении с согласованным эталоном (стандартом) или целью. Например, ПЭ поддается количественному определению и может быть выражен в виде фактического значения в сопоставлении с целевым значением и может быть вычислен вручную или с использованием автоматизированных средств расчета. При выполнении расчета в автоматическом режиме можно избежать ошибок и разночтений. — Достижимость: Для принятия ПЭ важно, чтобы целевое значение требовало значительных усилий, но, все же, было достижимым и согласованным с заинтересованными сторонами процесса [см. Раздел C.2, c)]. Несмотря на трудности достижения, заданный уровень эффективности должен быть выполнимым с учетом накопленных организацией данных предшествующих периодов. — Целесообразность: ПЭ дают дополнительную возможность понимания и представления эффективности организации или процессов обеспечения соответствия требованиям СМК организации. ПЭ имеют значение, только если организация может оказывать на них влияние и соотносить, как минимум, с одним из трех ключевых факторов: качество, время и стоимость. — Своевременность: важно уметь выражать значения ПЭ в заданных временных рамках, что позволит видеть процесс (тенденцию) развития ПЭ и, при необходимости, принимать соответствующие меры.</t>
+  </si>
+  <si>
+    <t>Приложение C (информативное) Показатели эффективности C.4 Определение показателей эффективности Таблица C.1 содержит описание факторов, подлежащих учету при определении ПЭ. Таблица C.1 — Определение ПЭ Элемент Пояснение Наименование ПЭ Надлежащее обозначение ПЭ Цель/направление Измерение эффективности процесса совершенствования Процесс, к которому относится ПЭ Соответствующий контролируемый, измеряемый, анализируемый, оцениваемый и совершенствуемый процесс Владелец процесса / владелец ПЭ Полномочие/функция/должность лица, ответственного за определение, реализацию и результаты ПЭ Определение и расчет ПЭ Описание того, как производят вычисление (расчет) ПЭ например, формула) и измерение результатов с учетом единиц измерения и области применения Источник данных Доступные данные для вычисления ПЭ Заданные целевые значения и Установление параметров значения и времени, используемых для заданный временной период анализа Ответственный исполнитель и Функция/должность лица, ответственного за консолидацию данных и периодичность отчетности соответствующую отчетность, и периодичность опубликования ПЭ Отчетность a) путь отчетности (включая отделы, департаменты и т.д.) b) уровень отчетности (когда предоставляю отчет и кому) Лицо, отвечающее за определение Полномочие/функция/должность лица, ответственного за определение необходимости выполнения соответствующих действий в случае не достижения заданных целевых соответствующих действий значений.</t>
+  </si>
+  <si>
+    <t>Приложение C (информативное) Показатели эффективности C.5 Обзор ПЭ, необходимых или рекомендованных в настоящем документе — ПЭ, перечисленные в 9.1.1.1; — ПЭ для реализованных процессов: — процессы в соответствии с Приложением A; — дополнительные процессы, признанные необходимыми организацией. ПРИМЕЧАНИЕ 1 ПЭ для процессов могут соответствовать ПЭ, перечисленным в 9.1.1.1. ПРИМЕЧАНИЕ 2 ПЭ могут применяться для измерения одного или нескольких процессов.</t>
+  </si>
+  <si>
     <t>2 Нормативные ссылки. Следующие документы, на которые даны нормативные ссылки в настоящем документе, обязательны при его применении, в полном объеме или частично. Для датированных ссылок применяется только указанная версия. Для недатированных ссылок применяется наиболее позднее издание ссылочного документа (включая все соответствующие изменения). ISO 9000:2015, Система менеджмента качества. Основные положения и словарь.</t>
   </si>
   <si>
+    <t>0.2 Принципы менеджмента качества Настоящий стандарт основан на принципах менеджмента качества, описанных в ISO 9000. Описание включает формулировку каждого принципа и обоснование, почему принцип важен для организации, а также некоторые примеры преимуществ, связанных с принципом, и примеры типичных действий по улучшению результатов деятельности организации при применении принципа. Принципы менеджмента качества: — ориентация на потребителя; — лидерство; — взаимодействие людей; — процессный подход; — улучшение; — принятие решений, основанных на доказательствах; — менеджмент взаимоотношений.</t>
+  </si>
+  <si>
+    <t>0.3 Процессный подход 0.3.1 Общие положения Настоящий стандарт направлен на применение «процессного подхода» при разработке, внедрении и улучшении результативности системы менеджмента качества в целях повышения удовлетворенности потребителей путем выполнения их требований. Конкретные требования, признанные важными для внедрения процессного подхода, включены в подраздел 4.4. Понимание и менеджмент взаимосвязанных процессов как системы способствует результативности и эффективности организации в достижении намеченных результатов. Этот подход позволяет организации управлять взаимосвязями и взаимозависимостями между процессами системы, так что общие результаты деятельности организации могут быть улучшены. Процессный подход включает в себя систематическое определение и менеджмент процессов и их взаимодействия таким образом, чтобы достигать намеченных результатов в соответствии с политикой в области качества и стратегическим направлением организации. Менеджмент процессов и системы как единого целого может достигаться при использовании цикла PDCA (0.3.2) совместно с особым вниманием к риск-ориентированному мышлению (0.3.3), нацеленных на использование возможностей и предотвращение нежелательных результатов. Применение процессного подхода в системе менеджмента качества позволяет: a) понимать и постоянно выполнять требования; b) рассматривать процессы с точки зрения добавления ими ценности; c) достигать эффективного функционирования процессов; d) улучшать процессы на основе оценки данных и информации. Рисунок 1 дает схематичное изображение любого процесса и иллюстрирует взаимосвязь элементов процесса. Контрольные точки мониторинга и измерения, необходимые для управления, являются специфическими для каждого процесса и будут варьироваться в зависимости от соответствующих рисков.</t>
+  </si>
+  <si>
+    <t>Введение. Принципы менеджмента качества</t>
+  </si>
+  <si>
+    <t>Введение. Процессный подход. Цикл.</t>
+  </si>
+  <si>
+    <t>0.3 Процессный подход 0.3.2 Цикл «Планируй — Делай — Проверяй — Действуй» Цикл PDCA может быть применен ко всем процессам и к системе менеджмента качества в целом. Рисунок 2 иллюстрирует как разделы 4 – 10 могут быть сгруппированы в соответствии с циклом PDCA ПРИМЕЧАНИЕ Цифры в скобках являются ссылками на разделы настоящего стандарта Рисунок 2 — Изображение структуры настоящего стандарта в рамках цикла PDCA Цикл PDCA можно кратко описать так: — Планируй: разработка целей системы и ее процессов, а также определение ресурсов, необходимых для достижения результатов в соответствии с требованиями потребителей и политикой организации, определение и рассмотрение рисков и возможностей; — Делай: выполнение того, что было запланировано; — Проверяй: мониторинг и (там, где это применимо) измерение процессов и полученной продукции и услуг с учетом политики, целей, требований и запланированных действий, и отчет о результатах; — Действуй: принятие мер по улучшению результатов деятельности в той степени, насколько это необходимо.</t>
+  </si>
+  <si>
+    <t>Введение. Процессный подход. Риск-ориентированное мышление.</t>
+  </si>
+  <si>
+    <t>1 Область применения ISO 9001:2015, Системы менеджмента качества. Требования 1 Область применения Настоящий стандарт устанавливает требования к системе менеджмента качества в тех случаях, когда организация: a) нуждается в демонстрации своей способности постоянно поставлять продукцию и(или) услуги, отвечающие требованиям потребителей и применимым законодательным и нормативным правовым требованиям; b) ставит своей целью повышение удовлетворенности потребителей посредством результативного применения системы менеджмента качества, включая процессы ее улучшения, и обеспечение соответствия требованиям потребителей и применимым законодательным и нормативным правовым требованиям. Все требования настоящего стандарта носят общий характер и предназначены для применения любыми организациями независимо от их вида, размера, поставляемой продукции и предоставляемых услуг. ПРИМЕЧАНИЕ 1 В настоящем стандарте термины «продукция» или «услуга» применимы только к продукции и услугам, которые предназначены или затребованы потребителем. ПРИМЕЧАНИЕ 2 Законодательные и нормативные правовые требования могут быть обозначены как правовые требования. 1.1 Область применения. Дополнительные положения Настоящий стандарт устанавливает требования к системе менеджмента качества отрасли железнодорожного транспорта (RQMS): — применимые по всей системе снабжения отрасли железнодорожного транспорта и относящиеся к промышленной продукции и услугам, — обеспечивающие непрерывное улучшение путем предотвращения дефектов и снижения количества недостатков в системе снабжения, и — повышающие и поддерживающие надлежащий уровень качества продукции, включая аспекты безопасности.</t>
+  </si>
+  <si>
     <t>Термины, определения и сокращения. Термины и определения. Термины, относящиеся к системе. Непрерывность деятельности.</t>
   </si>
   <si>
@@ -580,6 +931,480 @@
   </si>
   <si>
     <t>4 Среда организации 4.4 Система менеджмента качества и ее процессы 4.4.2 Организация должна в необходимом объеме: a) разрабатывать, актуализировать и применять документированную информацию для обеспечения функционирования процессов; b) регистрировать и сохранять документированную информацию для обеспечения уверенности в том, что эти процессы осуществляются в соответствии с тем, как это было запланировано</t>
+  </si>
+  <si>
+    <t>6 Планирование 6.1 Действия в отношении рисков и возможностей 6.1.4 Непрерывность деятельности Организация должна: a) разработать, утвердить, валидировать, если это применимо (например, путем регулярных проверок), и регулярно анализировать свой план действий в непредвиденных обстоятельствах на основании оценки рисков для бизнеса; b) обеспечивать непрерывность деятельности; c) распределить ответственность за действия по обеспечению непрерывности бизнеса. ПРИМЕЧАНИЕ 1 Риски бизнеса могут включать: — простои в работе организации; — простои в системе снабжения; — нехватку персонала; — критические технологии; — отказы основного производственного оборудования; — возвраты продукции; — план преемственности руководящих должностей, в частности, ключевые функции обеспечения качества; — информационные технологии; — коммуникационные системы; — убытки; — возникновение чрезвычайной ситуации или кризиса. ПРИМЕЧАНИЕ 2 С более подробной информацией по действиям в непредвиденных обстоятельствах можно ознакомиться в ISO 22301.</t>
+  </si>
+  <si>
+    <t>6 Планирование 6.2 Цели в области качества и планирование их достижения ISO 9001:2015, Системы менеджмента качества. Требования 6.2 Цели в области качества и планирование их достижения 6.2.1 Организация должна установить цели в области качества для соответствующих функций, уровней, а также процессов, необходимых для системы менеджмента качества. Цели в области качества должны: a) быть согласованными с политикой в области качества; b) быть измеримыми; c) учитывать применяемые требования; d) быть связанными с обеспечением соответствия продукции и услуг и повышением удовлетворенности потребителей; e) подлежать мониторингу; f) быть доведенными до работников; g) актуализироваться по мере необходимости. Организация должна разрабатывать, актуализировать и применять документированную информацию о целях в области качества. 6.2.2 При планировании действий по достижению целей в области качества организация должна определить: a) что должно быть сделано; b) какие потребуются ресурсы; c) кто будет нести ответственность; d) когда эти действия будут завершены; e) каким образом будут оцениваться результаты. 6.3 Планирование изменений ISO 9001:2015, Системы менеджмента качества. Требования</t>
+  </si>
+  <si>
+    <t>6 Планирование 6.3 Планирование изменений Там, где организация определяет необходимость изменений в системе менеджмента качества, эти изменения должны осуществляться на плановой основе (см.4.4). Организация должна рассматривать: a) цель вносимого изменения и возможные последствия его внесения; b) целостность системы менеджмента качества; c) доступность ресурсов; d) распределение или перераспределение обязанностей, ответственности и полномочий.</t>
+  </si>
+  <si>
+    <t>5 Лидерство 5.1 Лидерство и приверженность 5.1.1 Общие положения ISO 9001:2015, Системы менеджмента качества. Требования 5.1 Лидерство и приверженность 5.1.1 Общие положения Высшее руководство должно демонстрировать свое лидерство и приверженность в отношении системы менеджмента качества посредством: a) принятия ответственности за результативность системы менеджмента качества; b) обеспечения разработки политики и целей в области качества, которые согласуются с условиями среды организации и ее стратегическим направлением; c) обеспечения интеграции требований системы менеджмента качества в бизнес-процессы организации; d) содействия применению процессного подхода и риск-ориентированного мышления; e) обеспечения доступности ресурсов, необходимых для системы менеджмента качества; f) распространения в организации понимания важности результативного менеджмента качества и соответствия требованиям системы менеджмента качества; g) обеспечения достижения системой менеджмента качества намеченных результатов; h) вовлечения, руководства и оказания поддержки участия работников в обеспечении результативности системы менеджмента качества; i) поддержки улучшения; j) поддержки других соответствующих руководителей в демонстрации ими лидерства в сфере их ответственности. ПРИМЕЧАНИЕ Слово «бизнес» в настоящем стандарте следует понимать в широком смысле, как отображение видов деятельности, которые являются ключевыми для целей существования организации, независимо от того, является ли она государственной, частной, ставит ли она своей целью получение прибыли или нет.</t>
+  </si>
+  <si>
+    <t>5 Лидерство 5.1 Лидерство и приверженность 5.1.2 Ориентированность на потребителей ISO 9001:2015, Системы менеджмента качества. Требования 5.1.2 Ориентированность на потребителей Высшее руководство должно демонстрировать лидерство и приверженность в отношении ориентации на потребителей посредством обеспечения того, что: a) требования потребителей, а также применимые законодательные и нормативные правовые требования определены, поняты и неизменно выполняются; b) риски и возможности, которые могут оказывать влияние на соответствие продукции и услуг и на способность повышать удовлетворенность потребителей, определены и рассмотрены; c) в центре внимания находится повышение удовлетворенности потребителей. 5.2 Политика 5.2.1 Разработка политики в области качества ISO 9001:2015, Системы менеджмента качества. Требования</t>
+  </si>
+  <si>
+    <t>5 Лидерство 5.2 Политика 5.2.1 Разработка политики в области качества Высшее руководство должно разработать, реализовывать и поддерживать в актуальном состоянии политику в области качества, которая: a) соответствует намерениям и среде организации, а также поддерживает ее стратегическое направление; b) создает основу для установления целей в области качества; c) включает в себя обязательство соответствовать применимым требованиям; d) включает в себя обязательство постоянно улучшать систему менеджмента качества.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Лидерство 5.2 Политика 5.2.2 Доведение политики в области качества ISO 9001:2015, Системы менеджмента качества. Требования 5.2.2 Доведение политики в области качества Политика в области качества должна: a) быть доступной и применяться как документированная информация; b) быть доведенной до сведения работников, понятной и применяемой внутри организации; c) быть доступной подходящим способом для соответствующих заинтересованных сторон. </t>
+  </si>
+  <si>
+    <t>5 Лидерство 5.2 Политика 5.2.3 Политика в области качества. Дополнительные положения Политика в области качества должна учитывать: a) предотвращение отказов; b) ожидания потребителей; c) аспекты безопасности. ПРИМЕЧАНИЕ 1 Термин «безопасность» в настоящем стандарте означает безопасность продукции и услуг. ПРИМЕЧАНИЕ 2 Политики в области качества и безопасности могут быть оформлены отдельно друг от друга. ПРИМЕЧАНИЕ 3 Политика в области качества является частью общей корпоративной политики. С более подробной информацией можно ознакомиться в ISO 9004:2018, 7.2.</t>
+  </si>
+  <si>
+    <t>5 Лидерство 5.3 Функции, ответственность и полномочия в организации Высшее руководство должно обеспечить определение, доведение до работников и понимание в организации обязанностей, ответственности и полномочий для выполнения соответствующих функций. Высшее руководство должно распределить обязанности, ответственность и полномочия для: a) обеспечения соответствия системы менеджмента качества требованиям настоящего стандарта; b) обеспечения получения намеченных результатов процессов; c) отчетности высшему руководству о результатах функционирования системы менеджмента качества и возможностях ее улучшения (10.1); d) поддержки ориентации на потребителя во всей организации; e) сохранения целостности системы менеджмента качества при планировании и внедрении изменений в систему менеджмента качества. 5.3.1 Функции, ответственность и полномочия в организации. Дополнительные положения Высшее руководство должно: a) определить КПЭ для обеспечения управления и контроля функционирования СМК организации (см. Приложение C); b) назначить владельцев процессов [см 4.4.1 e)]; c) документировать и доводить до персонала актуализированную информацию об обязанностях и полномочиях по соответствующим функциям (например, по владельцам процессов); d) наделять представителей, не зависящих от выполнения процесса, правом останавливать процесс, предоставление продукции или услуги в том случае, если не соблюдаются требования к качеству, включая требования к безопасности. ПРИМЕЧАНИЕ Необходимая степень независимости представителей обуславливается размером организации, например, малые предприятия. Организация должна хранить соответствующую документированную информацию. В случае делегирования задач, условия и порядок такого делегирования должны быть определены и доведены до соответствующих сторон.</t>
+  </si>
+  <si>
+    <t>5 Лидерство 5.3 Функции, ответственность и полномочия в организации 5.3.2 Ответственность и полномочия владельцев процессов Владельцы процессов несут ответственность за соответствие процесса требованиям, перечисленным в 4.4, за исключением доступности ресурсов [см. 4.4.1 d)]. Высшее руководство должно определить границы ответственности и обеспечить их соблюдение.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Ресурсы. Знания организации. Знания организации. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.6 Знания организации Организация должна определить знания, необходимые для функционирования ее процессов и для достижения соответствия продукции и услуг. Знания должны поддерживаться и быть доступными в необходимом объеме. При рассмотрении изменяющихся нужд и тенденций организация должна оценивать текущий уровень знаний и определять, каким образом получить или обеспечить доступ к дополнительным знаниям и их необходимым обновлениям. ПРИМЕЧАНИЕ 1 Знания организации – это знания, специфичные для организации; знания, полученные в основном из опыта. Знания – это информация, которая используется и которой обмениваются для достижения целей организации. ПРИМЕЧАНИЕ 2 Основой знаний организации могут быть: a) внутренние источники (например, интеллектуальная собственность; знания, полученные из опыта; выводы, извлеченные из неудачных или успешных проектов; сбор и обмен недокументированными знаниями и опытом; результаты улучшений процессов, продукции и услуг); b) внешние источники (например, стандарты, научное сообщество, конференции, семинары, знания, полученные от потребителей и внешних поставщиков).</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.6 Знания организации 7.1.6.1 Знания организации. Дополнительные положения 7.1.6.1.1 Применительно к знаниям, организация должна: a) управлять процессом обратной связи о пользовательском опыте, включая следующее: 1) идентификацию, документирование, внедрение и актуализацию передовых практик и приобретённого опыта; 2) передачу информации относительно надлежащих практик и приобретённого опыта для реализации соответствующих процессов и текущих проектов; ПРИМЕЧАНИЕ Информацию о пользовательском опыте можно получать, в частности, из несоответствий, данных по надёжности, готовности, ремонтопригодности, безопасности и стоимости жизненного цикла (далее по тексту RAMS/LCC), претензий потребителей, внутренних аудитов, аудитов внешних поставщиков и результатов сопоставительного анализа b) распределить обязанности для менеджмента знаний в отношении продукции, процессов и проектов (например, в должностных инструкциях); c) при необходимости, осуществлять передачу знаний, например, принимаемым на работу или увольняющимся сотрудникам. 7.1.6.1.2 Организации следует разработать, внедрить и поддерживать процесс менеджмента знаний с точки зрения его адекватности для достижения соответствия продукции и услуг. Применимо к знаниям, организации следует: a) использовать программное обеспечение для обмена информацией; b) стимулировать процедуры обмена знаниями с использованием сетевых технологий; c) защищать знания от непреднамеренного разглашения за пределами организации (например, знания, полученные из опыта; опыт, накопленный при исследовании удачных и неудачных проектов; сбор и обмен недокументированных знаний и опыта; результаты улучшений процессов, продукции и услуг).</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Компетентность.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.2 Компетентность Организация должна: a) определять необходимую компетентность лиц(а), выполняющих(его) работу под ее управлением, которая оказывает влияние на результаты деятельности и результативность системы менеджмента качества; b) обеспечивать компетентность этих лиц на основе соответствующего образования, подготовки и(или) опыта; c) там, где это применимо, предпринимать действия, направленные на получение требуемой компетентности, и оценивать результативность предпринятых действий; d) регистрировать и сохранять соответствующую документированную информацию как свидетельство компетентности. ПРИМЕЧАНИЕ Применимые действия могут включать, например проведение обучения, наставничество или перераспределение обязанностей среди имеющихся работников; или же наем лиц, обладающих требуемым уровнем компетентности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Средства обеспечения 7.2 Компетентность 7.2.1 Компетентность. Дополнительные положения 7.2.1.1 Организация должна разработать, внедрить и поддерживать документированный процесс менеджмента компетентности. ПРИМЕЧАНИЕ Компетентность может включать в себя технические навыки, например, знание о продукции, процессе или проекте, методики (например, методы обеспечения качества) и социальные навыки (например, командная работа, обмен информацией), а также индивидуальные навыки (например, аналитическое мышление, предпринимательские качества). Этот процесс должен включать в себя: a) требования, установленные в 7.2; b) выявление пробелов между фактическими и необходимыми уровнями компетентности; c) планирование, организацию, выполнение и мониторинг выполненных действий [см. 7.2 c)]; d) требования к подготовке персонала: 1) включая входные данные на основе знаний организации, например, надлежащие практики, менеджмент полученного опыта (см. 7.1.6); то есть, входные данные на основе исследований несоответствий продукции, услуг или процессов; 2) предоставление подтверждающий данных, что слушатели поняли учебный материал (например, по результатам письменных или устных проверок, или путем сохранения образцов практических упражнений), в отношении профессиональной подготовки, определённой организацией. Процесс должен применяться ко всему персоналу организации, включая вводный инструктаж для временных и вновь принимаемых работников, охватывающий, как минимум, вопросы обеспечения качества и безопасности продукции. Организация должна сохранять документированную информацию, связанную с ее деятельностью по менеджменту компетентности. </t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.2 Компетентность 7.2.1 Компетентность. Дополнительные положения 7.2.1.2 Рекомендуют, чтобы этот процесс: a) включал в себя метод сопоставления необходимых компетенций с фактическим уровнем подготовки персонала, выполняющего работы, влияющие на качество и безопасности продукции; ПРИМЕЧАНИЕ 1 В качестве практического метода, матрицы навыков могут использоваться для сравнения необходимых компетенций с текущим уровнем подготовки, с учетом уровней прогресса (например, уровень ученика, базовый уровень, продвинутый уровень, уровень наставника). ПРИМЕЧАНИЕ 2 Персонал, выполняющий работу, влияющую на качество и безопасность продукции, не ограничивается персоналом службы качества, инженерной службы и производственной службы. Помимо этого, сотрудники службы снабжения, эксплуатационных или иных функциональных служб организации могут оказывать влияние на качество и безопасность продукции. b) предусматривал обязательный регулярный анализ и актуализацию внутренних учебных материалов.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Компетентность. Компетентность. Дополнительные положения</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.3 Управление документированной информацией 7.5.3.1 Документированная информация, требуемая системой менеджмента качества и настоящим стандартом, должна находиться под управлением в целях обеспечения: a) ее доступности и пригодности, где и когда она необходима; b) ее достаточной защиты (например, от несоблюдения конфиденциальности, от ненадлежащего использования или потери целостности).</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.3.2 Для управления документированной информацией организация должна предусматривать следующие действия в той степени, насколько это применимо: a) распределение, обеспечение ее доступности и поиска, а также использование; b) хранение и защиту, включая сохранение разборчивости; c) управление изменениями (например, управление версиями); d) соблюдение сроков хранения и порядка уничтожения. Документированная информация внешнего происхождения, определенная организацией как необходимая для планирования и функционирования системы менеджмента качества, должна быть соответствующим образом идентифицирована и находиться под контролем. Документированная информация, регистрируемая и сохраняемая в качестве свидетельств соответствия, должна быть защищена от непредумышленных изменений. ПРИМЕЧАНИЕ Доступ подразумевает разрешение только просмотра документированной информации или разрешение просмотра с полномочиями по внесению изменений в документированную информацию.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.3.3 Управление документированной информацией. Дополнительные положения Организация должна разработать, внедрить и поддерживать документированный процесс управления документированной информацией. Этот процесс должен включать в себя: a) требования, установленные в 7.5.1, 7.5.2, 7.5.3.1 и 7.5.3.2; b) определение иерархии документированной информации системы менеджмента качества железнодорожного транспорта (например, политики, процедуры, инструкции, шаблоны); c) полномочия для идентификации лиц, создающих, верифицирующих, утверждающих и актуализирующих документированную информацию d) определение типов учетной документации (например, отчетов, графиков измерений, чертежей) и сроков их хранения для обеспечения соответствия законодательным и нормативно-правовым требованиям, а также требованиям системы менеджмента качества железнодорожного транспорта. Организация должна сохранять документированную информацию, соответствующую требованиям b), c) и d). В рамках данного процесса следует предусмотреть определение уровня конфиденциальности (например, общедоступный, для внутреннего пользования или конфиденциальный документ), носителя для хранения и способа утилизации. Организации следует использовать информационные системы для управления документированной информацией и определения процедур её резервного копирования.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Документированная информация. Управление документированной информацией. Для управления документированной информацией организация должна предусматривать</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Документированная информация. Управление документированной информацией. Управление документированной информацией. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Документированная информация. Управление документированной информацией. Документированная информация, требуемая системой менеджмента качества и настоящим стандартом, должна находиться под управлением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Деятельность. Планирование и управление деятельностью. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью Организация должна планировать, внедрять процессы (см. 4.4), необходимые для выполнения требований к поставке продукции и предоставлению услуг и для выполнения действий, определенных в разделе 6, и осуществлять управление этими процессами посредством: a) определения требований к продукции и услугам; b) установления критериев для: 1) процессов; 2) приемки продукции и услуг; c) определения ресурсов, необходимых для достижения соответствия требованиям, предъявляемым к продукции и услугам; d) управления процессами в соответствии с установленными критериями; e) определения, разработки, актуализации и применения, а также регистрирования и сохранения документированной информации в объеме, необходимом для: 1) обеспечения уверенности в том, что процессы выполнялись так, как это было запланировано; 2) для демонстрации соответствия продукции и услуг требованиям. Результаты такого планирования должны быть подходящими для деятельности организации. Организация должна управлять запланированными изменениями и анализировать последствия непредусмотренных изменений, предпринимая, при необходимости, меры по смягчению любых негативных воздействий. Организация должна обеспечивать, чтобы процессы, переданные внешним организациям, находились под управлением (см. 8.4).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.1 Планирование и управление деятельностью 8.1.1 Планирование и управление деятельностью. Дополнительные положения 8.1.1.1 Менеджмент инновационной деятельности Организации следует разработать, внедрить и поддерживать процесс менеджмента инновационной деятельности в отношении новой продукции, услуг и технологий. Этот процесс должен включать в себя: a) выявление изменений в бизнес-среде организации; b) планирование инноваций; c) определение приоритетов инноваций на основании баланса их актуальности, доступности ресурсов и стратегии организации; d) участие заинтересованных сторон (например, внешних поставщиков). ПРИМЕЧАНИЕ Исследовательскую и опытно-конструкторскую деятельность можно считать частью инновационной деятельности. </t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Планирование и управление деятельностью. Дополнительные положения Менеджмент инновационной деятельности</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.1 Планирование и управление деятельностью. Дополнительные положения 8.1.1.2 Планирование передачи процессов Организация должна разработать, внедрить и поддерживать документированный процесс планирования передачи процессов для выполнения сторонними организациями, которые могут повлиять на качество продукции или услуг организации. Внедрение этого процесса должно быть увязано с решениями, принимаемыми в отношении бизнес- планирования (4.1.1), обеспечения непрерывности бизнеса (6.1.4), поставок продукции и услуг (8.5), проектирования и развития продукции и услуг (8.3): — организациями, распределёнными на нескольких производственных площадках, при передаче процесса с одного объекта на другой; — организациями, находящимися на одной или распределёнными на нескольких производственных площадках, при передаче процесса внешним организациям. Этот процесс должен включать в себя: a) технико-экономическое обоснование; b) оценку рисков (см. 6.1); c) планирование действий, необходимых для осуществления передачи процессов; d) при необходимости, предоставление соответствующей информации потребителям; e) контроль первого изделия (см. 8.9); f) хранение документированной информации от процессов передачи. Если организация определяет необходимость передачи процесса, то в случае изменений (см. 8.1.4.2) необходимо осуществлять контроль и применять требования в отношении планирования передачи процессов, установленные в этом подразделе. ПРИМЕЧАНИЕ 1 Результаты деятельности по планированию передачи процессов могут быть входными данными для принятия решения о собственном производстве или покупке, до реализации требований 8.4, например, на основании недостаточности ресурсов или соответствующего стратегического решения. ПРИМЕЧАНИЕ 2 Процессы, не рассмотренные в 8.1.1.2, рассматриваются в 8.4.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Планирование и управление деятельностью. Дополнительные положения. Планирование передачи процессов.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.1 Общие положения 8.1.3.1.1 Организация должна разработать, внедрить и поддерживать процесс менеджмента проекта. ПРИМЕЧАНИЕ 1 Содержание процесса менеджмента проекта зависит от коммерческой модели организации. В большей части компаний железнодорожного сектора процесс начинается с этапа тендера и заканчивается при завершении гарантийного срока. Тем не менее, в других случаях процесс может ограничиваться следующим: — только проектно-конструкторскими работами (например, при разработке новой линейки продукции или платформы); — разработкой производственного процесса; — повторением изготовления одобренной продукции и услуг (например, производство на склад); — менеджмент заказов и контрактов (например, производство на заказ). Этот процесс должен включать в себя: a) менеджмент требований (см. 8.2); b) тип и объем контроля [см. 4.4.3 f)]; ПРИМЕЧАНИЕ 2 Организация может классифицировать проекты в зависимости от риска и соответственно определять тип и объем средств контроля. c) этапы проекта и соответствующую деятельность; ПРИМЕЧАНИЕ 3 Проектными видами деятельности могут быть, в частности, планирование, выполнение, мониторинг, контроль и завершение. c) основные этапы и результаты каждого этапа, регулируемые по модели прохождения этапов проекта; ПРИМЕЧАНИЕ 4 Результаты каждого этапа можно определять на основании отборочных контрольных списков. d) критерии прохождения для принятия решения, при проведении анализа результатов этапа, касательно приемки, условной приемки или отбраковки, с целью предоставления разрешения на переход к следующему этапу; ПРИМЕЧАНИЕ 5 Условной приемкой может быть приемка с условием выполнения плана действий по устранению недостатков. f) требования, установленные в подразделах с 8.1.3.2 по 8.1.3.11; g) учетные документы и средства контроля нерешённых вопросов, выделение достаточных ресурсов для их разрешения.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Общие положения. Организация должна осуществлять менеджмент документированной информации по собственным проектам.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Общие положения. Этот процесс должен включать в себя</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент проекта. Общие положения. Организация должна разработать, внедрить и поддерживать процесс менеджмента проекта.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.1 Общие положения 8.1.3.1.2 Этот процесс должен включать в себя: a) порядок рассмотрения вышестоящим персоналом в случае принятия решения об отказе в рамках анализа этапа для упрощения процесса решения проблем; b) совместный анализ сильных и слабых сторон, возможностей и угроз со стороны потребителя и основных поставщиков; c) обязательное определение надлежащих практик и опыта, полученного в ходе завершения проекта (см. 7.1.6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.1 Общие положения 8.1.3.1.3 Организация должна осуществлять менеджмент документированной информации по собственным проектам, в соответствии с требованиями, изложенными в 7.5, включая следующие: a) анализ, хранение (например, в стандартизированной структуре папок), контроль и поддержание в надлежащем состоянии информации по проекту; b) сохранение документированной информации (например, планов, графиков, результатов анализа, отчетов и т.д.). Анализ этапа должен: c) выполняться: 1) начиная с определенного уровня структуры распределения работ; 2) на уровне проекта с учетом анализа результатов; d) не завершаться до тех пор, пока открытые вопросы анализа предыдущего этапа не будут закрыты. В противном случае, необходимо получить согласование со стороны высшего руководства или его уполномоченного представителя. Организация должна установить обязательных и возможных участников анализа этапов. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.3 Менеджмент проекта 8.1.3.2 План менеджмента проекта Организация должна разработать, внедрить и поддерживать план менеджмента проекта и сохранять соответствующую документированную информацию. Этот план должен включать в себя, или содержать ссылку на следующее: a) организационную схему проекта; b) цели проекта, типовые условия, назначенные ресурсы, исключения; c) особые обязанности и полномочия проектной команды; d) особые правила, которые необходимо соблюдать в период выполнения проекта; e) согласованные планы от участвующих специалистов, производственных площадок и партнеров по консорциуму, для выработки согласованного плана менеджмента проекта; ПРИМЕЧАНИЕ 1 Представителями типовых функций являются специалисты по продажам, проектированию, производству, обеспечению качества, закупкам, техническому сопровождению, а также прочий персонал, в том числе, внешних поставщиков и, при необходимости, потребителей. f) результаты по этапу (например, результаты по договору для потребителей или документированная информация результатов проектирования, предназначенная для утверждения продукции), включая: 1) идентификацию результатов для утверждения потребителем (например, пункты приемки продукции потребителем) или контрольно-надзорными органами, где это требуется; 2) результаты по внешним поставщикам (например, документы, материалы, услуги); 3) результаты работы с потребителями, например, потребительские качества, если применимо; g) контроль изменений проекта (например, область применения, время, затраты). ПРИМЕЧАНИЕ 2 План менеджмента проекта может включать в себя какие-либо иные дополнительные планы, требующиеся в соответствии с 8.1.3 (например, в части коммуникации, человеческих ресурсов, качества). В том случае, если в проекте участвуют несколько производственных площадок или партнеров по консорциуму, план менеджмента проекта должен дополнительно включать в себя или содержать ссылку на следующее: h) распределение объема работ и функциональные интерфейсы; i) особые обязанности и полномочия; j) каналы обмена информацией (внутренние каналы проекта и каналы коммуникации с потребителем или заинтересованными сторонами); k) применимые процессы и прочую документированную информацию, имеющую отношение к процессам.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.4 Менеджмент конфигурации и контроль изменений 8.1.4.2 Контроль изменений Организация должна разработать, внедрить и поддерживать процесс контроля изменений. В рамках данного процесса следует предусмотреть следующее: a) требования, установленные в Разделе 8 относительно изменений; b) запросы на внесение изменений; c) анализ причин, в том случае, когда необходимость изменений возникает вследствие отказов (систем, оборудования и т.д.) ; d) анализ последствий изменений с учетом рисков и возможностей; e) верификацию предлагаемых изменений для предотвращения неблагоприятных последствий; f) уведомление и договоренность с потребителями, внешними поставщиками и уполномоченными органами, как минимум, в том случае, если изменения влияют на их требования (например, в отношении пригодности, формы, функциональности и т.д.);</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.4 Менеджмент конфигурации и контроль изменений 8.1.4.2 Контроль изменений ПРИМЕЧАНИЕ 1 Изменение, влияющее на требования потребителя, может вызвать необходимость оформления разрешение на отклонение. ПРИМЕЧАНИЕ 2 Запрос на внесение изменения, являющийся следствием оформления разрешения на отклонение, может быть закрыт при одобрении изменения потребителем. g) распределение ответственности и полномочий по одобрению изменений (например, совет по контролю изменений); h) одобрение изменений перед их внедрением; i) внедрение изменений; j) верификация внедрения и контроль эффективности изменения; k) отслеживаемость изменений (например, при помощи программных средств). В рамках данного процесса следует предусмотреть планирование действий, снижающих до минимума последствия этих изменений. В отношении технических изменений продукции и услуг, дополнительно в этот процесс следует включить следующее: l) анализ влияния изменений на: 1) уже поставленную потребителям продукцию и комплектующие изделия; 2) техническое задание заказчика и конфигурацию; 3) соответствующую документированную информацию (например, план качества, результаты анализа FMEA); 4) технические требования; m) повторную оценку технических требований в зависимости от результатов анализа последствий; n) действия по повторной валидации в зависимости от результатов анализа последствий; o) требования по хранению документированной информации и дате и и(или) серийном номере изменённой продукции или услуги.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.1 Планирование и управление деятельностью 8.1.4 Менеджмент конфигурации и контроль изменений 8.1.4.2 Контроль изменений. ПРИМЕЧАНИЕ 3 Причиной возникновения изменений может быть недостаточная надежность, моральное устаревание продукции и услуг, изменение стандартов, правил, законов, производственных потребностей, необходимость оптимизации затрат или наступление определённых событий: происшествий, инцидентов, погодных условий или внесение потребителем поправок в свой заказ. В отношении технических изменений продукции и услуг, в эти процессы также следует включать повторную оценку функционального срока действия. Требования в отношении контроля изменений применяются к следующему: p) менеджменту проекта (см. 8.1.3); q) требованиям к продукции и услугам (см. 8.2.4, 8.2.5); r) проектированию и разработке продукции и услуг (см. 8.3.1.1, 8.3.6); s) контроль процессов, продукции и услуг, обеспечиваемых внешними поставщиками (см. 8.4); © ISO 2023 – Все права сохраняются t) поставки продукции и услуг (см. 8.5.1.3 и 8.5.6), охватывающие процессы производства, производственное оборудование, производственные программы (программное обеспечение компьютерного оборудования) и местоположение производства.</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент конфигурации и контроль изменений. Контроль изменений. Примечания 1 и 2</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент конфигурации и контроль изменений. Контроль изменений. Примечание 3</t>
+  </si>
+  <si>
+    <t>Деятельность. Планирование и управление деятельностью. Менеджмент конфигурации и контроль изменений. Контроль изменений. Примечания 4, 5 и 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.2 Требования к продукции и услугам 8.2.1 Связь с потребителями Связь с потребителями должна включать: a) обеспечение информацией о продукции и услугах; b) обработку запросов, контрактов или заказов, включая их изменения; c) получение отзывов о продукции и услугах от потребителей, включая претензии потребителей; d) обращение или управление собственностью потребителей; e) установление специальных требований к действиям, предпринимаемым в непредвиденных обстоятельствах, там где это уместно. 8.2.1.1 Связь с потребителем. Дополнительные положения Организация должна довести до сведения потребителя информацию о прогнозируемых неизбежных задержках (например, задержки из-за внешних поставщиков). ПРИМЕЧАНИЕ С более подробной информацией о менеджменте коммуникаций с потребителем можно ознакомиться в 8.1.3.8. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.2 Требования к продукции и услугам  8.2.2 Определение требований, относящихся к продукции и услугам При определении требований к продукции и услугам, которые будут предлагаться потребителям, организация должна убедиться, что: a) требования к продукции и услугам определены, включая: 1) применимые законодательные и нормативные требования; 2) требования, рассматриваемые организацией как необходимые; b) организация может выполнять требования к продукции и услугам, которые она предлагает. 8.2.2.1 Определение требований, относящихся к продукции и услугам. Дополнительные положения 8.2.2.1.1 При определении требований (см. Приложение B), организация должна учитывать: a) функциональные, нефункциональные требования; b) требования надёжности, готовности, ремонтопригодности, безопасности и стоимости жизненного цикла; c) требования в отношении устаревания информации, если применимо (например, информации поступающей с рынка или от внешних поставщиков, нормативно-правовой документации); d) критические параметры продукции, установленные организацией и(или) потребителем. 8.2.2.1.2 При определении требований организации следует учитывать: a) опыт, полученный при работе с аналогичной продукцией / тендерами / проектами; b) требования, основанные на результатах анализа рынка; c) требования, связанные с завершением жизненного цикла изделия (например, утилизация, переработка). 8.2.2.1.3 Организация должна хранить документированную информацию в отношении 8.2.2 a) и b) и 8.2.2.1.1 a) и b) и в случае признания необходимости, 8.2.2.1.2 от a) до c). ПРИМЕЧАНИЕ Понятие подчинённости (уровней) классификации требований дано в Приложении B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.1 Планирование и управление деятельностью 8.1.4 Менеджмент конфигурации и контроль изменений 8.1.4.2 Контроль изменений. ПРИМЕЧАНИЕ 4 Изменения могут быть инициированы внешними поставщиками или организацией с целью улучшения или корректировки конструкции, или потребителем в случае внесения поправок в заказ. ПРИМЕЧАНИЕ 5 Пороговой точкой для начала процесса изменений является целевое изменение одобренной документированной информации. ПРИМЕЧАНИЕ 6 Процесс контроля изменений может быть спланирован таким образом, чтобы внедрение каждого изменения осуществлялась контролируемым образом (с учетом оценки рисков) без нанесения ущерба качеству, например, при помощи анализа последствий, их классификации с целью принятия различных процедур, применения методов верификации и валидации и уровней одобрения. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.2 Требования к продукции и услугам 8.2.5 Требования к продукции и услугам. Дополнительные положения Организация должна разработать, внедрить и поддерживать документированный процесс менеджмента требований к продукции и услугам. Этот процесс должен: a) включать требования, установленные в 8.2; b) быть применимым к: 1) проектированию и разработке новой продукции или услуг, отвечающих ожиданиям рынка перед проведением тендера (например, платформы, товарной группы) 2) менеджменту тендеров (например, предоставлению коммерческих предложений, принятию контрактов или заказов); 3) исполнению проекта (например, принятию изменений в контрактах и заказах); 4) контроль изменений (см. 8.1.1.2, 8.1.4.2, 8.2.4, 8.3.6, 8.4.3.1 и 8.5.6);</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.2 Требования к продукции и услугам 8.2.5 Требования к продукции и услугам. Дополнительные положения. ПРИМЕЧАНИЕ 1 Этот процесс может быть включён в процесс менеджмента проекта. c) осуществляться с применением междисциплинарного подхода, включая внутренних и внешних заинтересованных лиц, где это применимо; d) включать как минимум следующие шаги: 1) определение требований (см. 8.2.2.1); 2) анализ (см. 8.2.3); 3) верификацию; 4) валидацию; ПРИМЕЧАНИЕ 2 С определениями терминов «верификация» и «валидация» можно ознакомиться в 3.1.3.12 и 3.1.3.11. e) обеспечивать по отношению к требованиям: 1) индивидуальную проверку соответствия — постатейно; 2) оценку и учёт; 3) оценку в отношении рисков и возможностей (см. 6.1); 4) надлежащую передачу, понимание, подтверждение участниками, при распределении обязательств по нижестоящим уровням и их принятии; 5) полноту, недвусмысленность, объективность и осуществимость; 6) документальное оформление в виде технических условий, включая функциональные и не функциональные требования; ПРИМЕЧАНИЕ 3 Технические условия могут быть предоставлены потребителем или установлены организацией. 7) актуализацию в случае изменений.</t>
+  </si>
+  <si>
+    <t>Деятельность. Требования к продукции и услугам. Требования к продукции и услугам. Дополнительные положения</t>
+  </si>
+  <si>
+    <t>Деятельность. Требования к продукции и услугам. Требования к продукции и услугам. Дополнительные положения. Примечания 1 и 2.</t>
+  </si>
+  <si>
+    <t>8 Деятельность  8.3 Проектирование и разработка продукции и услуг 8.3.1 Общие положения Организация должна разработать, внедрить и поддерживать процесс проектирования и разработки, подходящий для обеспечения последующего производства продукции или предоставления услуги. 8.3.1.1 Общие положения. Дополнительные положения Требования, установленные в 8.3, должны применяться при проектировании и разработке продукции и услуг, а также, при необходимости, при введении новых технологий Организация должна определить новые технологии и оценить риски их применения (например, при помощи процесса FMEA). Процесс проектирования и разработки должен: a) включать требования к планированию, входным данным, средствам контроля, выходным данным и изменениям, описанным в 8.3.2, 8.3.3, 8.3.4, 8.3.5 и 8.3.6; b) включать требования к архитектуре продукции, включая интерфейсы, например, продукты программного обеспечения; c) включать требования к «надежности», «доступности», «ремонтопригодности», «безопасности и, если применимо, «стоимости жизненного цикла», описанным в 8.8; d) требовать соответствия продукции, относящейся к безопасности, положениям IEC 62278 или эквивалентного документа, в зависимости от ситуации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.3 Проектирование и разработка продукции и услуг  8.3.2 Планирование проектирования и разработки При определении этапов и средств управления проектированием и разработкой организация должна рассматривать: a) характер, продолжительность и сложность работ по проектированию и разработке; b) требуемые стадии процесса, включая проведение применимых анализов проектирования и разработки; c) требуемые действия в отношении верификации и валидации проектирования и разработки; d) обязанности, ответственность и полномочия в области проектирования и разработки; e) внутренние и внешние ресурсы, необходимые для проектирования и разработки продукции и услуг; f) необходимость в управлении взаимодействиями между лицами, участвующими в процессе проектирования и разработки; g) необходимость вовлечения потребителей и пользователей в процесс проектирования и разработки; h) требования для последующего производства продукции и предоставления услуг; i) уровень управления процессом проектирования и разработки, ожидаемый потребителями и другими соответствующими заинтересованными сторонами; j) документированную информацию, необходимую для демонстрации выполнения требований к проектированию и разработке. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг  8.3.2 Планирование проектирования и разработки 8.3.2.1 Планирование проектирования и разработки. Дополнительные положения 8.3.2.1.1 При определении этапов и средств управления процессами проектирования и разработки организация должна учитывать: a) цели каждого этапа проекта; b) архитектуру продукции (например, схему разбивки продукции); c) менеджмент конфигурации (см. 8.1.4.1); d) анализ конструкции, верификацию и валидацию на заданных уровнях архитектуры продукции (например, начиная с анализа компонентов конструкции, анализа конструкции подсистем, и заканчивая анализом конструкции системы); e) анализ проектирования, верификацию и валидацию специальных процессов. Этапы и средства управления процессами проектирования и разработки должны быть документированы (например, в плане обеспечения качества). ПРИМЕЧАНИЕ Этапами проектирования могут быть дизайн-проект, предварительный проект и итоговый проект. 8.3.2.1.2 При определении этапов и средств управления процессами проектирования и разработки организации следует учитывать: a) методы обеспечения качества для каждого этапа проектирования и разработки для обеспечения соответствия целям (например, установленным в плане обеспечения качества); b) методы контроля соблюдения технических условий; c) метод контроля функционального срока действия. ПРИМЕЧАНИЕ 1 Средства контроля могут учитывать функциональный срок действия, включая срок действия нефункциональных требований, таких, как требования к эксплуатационным характеристикам, интеграции и другие нефункциональные требования. ПРИМЕЧАНИЕ 2 Если требования специальных процессов являются входными данными для проектирования, оценка рисков этих специальных процессов может являться частью процесса проектирования и разработки ПРИМЕЧАНИЕ 3 Сотрудничество с внешними инженерными службами может считаться предоставлением услуг внешними организациями (см. 8.4).</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Планирование проектирования и разработки. Планирование проектирования и разработки. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг Требования 8.3.3 Входные данные для проектирования и разработки Организация должна определить требования, имеющие важное значение для конкретного вида проектируемых и разрабатываемых продуктов и услуг. Организация должна учитывать: a) функциональные и эксплуатационные требования; b) информацию, полученную из предыдущей аналогичной деятельности по проектированию и разработке; c) законодательные и нормативные требования; d) стандарты или своды правил, которые организация обязалась применять; e) возможные последствия неудачи, связанные с характером продукции и услуг. Ресурсы должны быть адекватны целям проектирования и разработки, а также должны быть полными и непротиворечивыми. Противоречия ресурсов проектирования и разработки должны быть разрешены. Организация должна сохранять документированную информацию по ресурсам проектирования и разработки. 8.3.3.1 Входные данные для проектирования и разработки. Дополнительные положения 8.3.3.1.1 В отношении входных данных для проектирования и разработки, организация должна учитывать: a) требования, установленные в 8.2.2; © ISO 2023 – Все права сохраняются 47 --- ISO 22163:2023(R) b) возможность идентификации и отслеживания. 8.3.3.1.2 Кроме того, организации следует учитывать: a) производственные требования и требования плановых испытаний, включая специальные процессы, в меру имеющейся информации о доступности производственных мощностей на данном этапе; b) требования к сохранности.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.4 Средства управления проектированием и разработкой Организация должна применять средства управления процессами проектирования и разработки для обеспечения уверенности в том, что: a) определены результаты, которые должны быть достигнуты; b) проведены анализы для оценивания способности результатов проектирования и разработки выполнить требования; c) проведены действия по верификации в целях обеспечения соответствия выходных данных проектирования и разработки входным требованиям к проектированию и разработке; d) проведены действия по валидации в целях обеспечения соответствия готовой продукции и услуг требованиям к установленному применению или намеченному использованию; e) предприняты необходимые действия по выявленным проблемам в ходе анализа или верификации и валидации; f) документированная информация об этих действиях зарегистрирована и сохранена. ПРИМЕЧАНИЕ Анализ, верификация и валидация проектирования и разработки имеют различные цели. Они могут выполняться по отдельности или совместно, насколько это применимо к продукции и услугам организации.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Средства управления проектированием и разработкой. Средства управления проектированием и разработкой. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Средства управления проектированием и разработкой. Анализ проектирования</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Средства управления проектированием и разработкой. Верификация проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Средства управления проектированием и разработкой. Валидация проекта.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Средства управления проектированием и разработкой. Требования к испытаниям по верификации и валидации проекта.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.4 Средства управления проектированием и разработкой 8.3.4.1 Средства управления проектированием и разработкой. Дополнительные положения Организации следует применять средства управления в отношении процесса проектирования и разработки с учетом следующего: a) разбивки по функциональному признаку; b) функционального срока действия; c) внедрения методов обеспечения качества.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.4 Средства управления проектированием и разработкой 8.3.4.2 Анализ проектирования В отношении анализа проектирования организация должна определить следующее: a) критерии для разрешения перехода к следующему этапу (например, список контрольных параметров, правила приемки); b) обязательных и не обязательных участников. Представители подразделений, участвующие в анализе проектирования, должны быть наделены полномочиями для принятия соответствующих решений. При анализе проектирования организации следует применять междисциплинарный подход. ПРИМЕЧАНИЕ 1 Участниками могут быть руководители подразделений (например, подразделение по обеспечению надёжности, готовности, ремонтопригодности и безопасности, подразделение по предоставлению услуг), внутренние и внешние потребители, специалисты в области производства. ПРИМЕЧАНИЕ 2 Анализ проектирования может представлять собой входные данные или быть частью этапа анализа (см. 8.1.3.1).</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.4 Средства управления проектированием и разработкой 8.3.4.3 Верификация проекта Организация должна обеспечить выполнение верификации технических требований. ПРИМЕЧАНИЕ Верификация проектирования может проводиться при помощи анализа, выполняемого посредством метода конечных элементов, также для этого могут использоваться расчеты, макеты, сопутствующие проектированию тесты.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.4 Средства управления проектированием и разработкой 8.3.4.4 Валидация проекта В отношении валидации проектирования организация должна: a) обеспечить валидацию технических требований; b) завершить валидацию до поставки или окончания ввода в эксплуатацию или согласовать планы управления с потребителями и осуществлять мониторинг вплоть до завершения. ПРИМЕЧАНИЕ Деятельность по валидации проекта может включать в себя, например, квалификационные испытания, испытания типа, испытания на подтверждение соответствия требованиям одобрения и т.д.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.4 Средства управления проектированием и разработкой 8.3.4.5 Требования к испытаниям по верификации и валидации проекта При необходимости проведения испытаний по верификации и валидации, организация должна осуществлять планирование, контроль и анализ этих испытаний. Организация должна гарантировать, что: a) планы испытаний, технические условия испытаний или процедуры испытаний обеспечивают воспроизводимость результатов и определяют: 1) цели испытаний; 2) среду и условия проведения испытаний; 3) испытываемую продукцию; 4) необходимые ресурсы; 5) критерии приемки результатов; 6) подлежащие регистрации параметры; 7) метод выполнения испытания; 8) порядок выполнения испытания; b) надлежащая конфигурация продукции, предоставленной для проведения испытаний и зарегистрированной в качестве базовой конфигурации; c) соответствие критериям приемки результатов испытаний.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг  8.3.5 Выходные данные проектирования и разработки Организация должна обеспечить, что выходные данные проектирования и разработки: a) соответствовали входным требованиям; b) были адекватными для последующих процессов производства продукции и предоставления услуг; c) содержали требования к мониторингу и измерению, насколько это подходит, а также критерии приемки или ссылки на них; d) определяли характеристики продукции и услуг, которые имеют важное значение для их целевого назначения, безопасного и надлежащего предоставления. Организация должна регистрировать и сохранять документированную информацию по выходным данным проектирования и разработки.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг  8.3.5 Выходные данные проектирования и разработки 8.3.5.1 Выходные данные проектирования и разработки. Дополнительные положения 8.3.5.1.1 Организация должна гарантировать, что выходные данные процесса проектирования и разработки: a) верифицированы и одобрены до их выпуска; b) верифицированы на предмет соответствия входным данным производственного процесса (см. 8.5.1.1.3); c) сопровождаются документированной информацией (например, руководствами по эксплуатации и техническому обслуживанию), а также соответствующим обучением/тренингами. 8.3.5.1.2 Организации следует: a) обеспечить прослеживаемость выходных данных вплоть до входных требований; b) определить полномочия и критерии приемки для утверждения проекта; c) определить правила эскалации в случае, если критерии приемки для утверждения не соблюдены; d) гарантировать, что в информацию о производстве и предоставлении услуг входят требования к сохранности продукции ПРИМЕЧАНИЕ Выходные данные проектирования и разработки могут включать в себя, например, технические условия и чертежи (также полученные от внешних поставщиков), данные о материалах, схему последовательности производственного процесса и (или) соответствующий макет, план проверки и испытаний, рабочие инструкции для производства, критерии приёмки процесса и продукции, требования к идентификации продукции, результаты деятельности по предупреждению ошибок (например, FMEA) при необходимости, методы оперативного обнаружения несоответствий продукции и (или) производственного процесса и обратную связь.</t>
+  </si>
+  <si>
+    <t>Деятельность. Проектирование и разработка продукции и услуг. Выходные данные проектирования и разработки. Выходные данные проектирования и разработки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.1 Общие положения Организация должна обеспечить соответствие процессов, продукции и услуг, поставляемых внешними поставщиками, требованиям. Организация должна определять средства управления, применимые для процессов, продукции и услуг, поставляемых внешними поставщиками, в тех случаях, когда: a) продукция и услуги от внешних поставщиков предназначены для включения их в состав продукции и услуг, предлагаемых самой организацией; b) продукция и услуги поставляются внешними поставщиками напрямую потребителю(ям) от имени организации; c) процесс или его часть выполняется внешним поставщиком в результате принятия решения организацией. Организация должна определить и применять критерии оценки, выбора, мониторинга результатов деятельности, а также повторной оценки внешних поставщиков, исходя из их способности выполнять процессы или поставлять продукцию и услуги в соответствии с требованиями. Организация должна регистрировать и сохранять документированную информацию об этих действиях и о любых необходимых действиях, вытекающих из оценок. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.1 Общие положения 8.4.1.1 Общие положения. Дополнительные положения 8.4.1.1.1 Внешние поставщики Организация должна определить тип и степень действия требований, установленных в 8.4, применительно к внутренним и внешним поставщикам, с учетом оценки рисков на основе определенных критериев. Организация должна разработать, внедрить и применять документально оформленную процедуру для процессов, продукции и услуг, поставляемых внешними поставщиками (EPPPS), описанных в ISO 9001:2015, 8.4.1, для обеспечения соответствия требованиям Этот процесс должен включать установленные требования для: a) классификации внешних поставщиков, а также EPPPS (см. 8.4.1.1.2); b) оценки внешнего поставщика (см. 8.4.1.1.3); c) утверждения внешнего поставщика (см. 8.4.1.1.4); d) выбора предложения внешнего поставщика (см. 8.4.1.1.5); e) информации для внешних поставщиков (см. 8.4.3); f) одобрения выпуска EPPPS (см. 8.4.2.1); g) верификации EPPPS после выпуска (см. 8.4.2.2); h) мониторинга параметров эффективности, переоценки и определения рейтинга внешних поставщиков (см. 8.4.2.3). Кроме того, организация должна: i) управлять рисками EPPPS, по всей цепочке поставок; j) выявлять риски, о которых следует уведомлять внешних поставщиков, и запрашивать от них обратную связь; k) в дополнение к ISO 9001:2015, 8.4.1, сохранять документированную информацию о средствах контроля внешних поставщиков в соответствии с подразделами от a) до g). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.1 Общие положения 8.4.1.1 Общие положения. Дополнительные положения 8.4.1.1.2 Классификация внешних поставщиков и внешней продукции, процессов и услуг Классификация внешних поставщиков и EPPPS должна быть основана на заданных критериях для определения типа и степени контроля в отношении внешних поставщиков, а также EPPPS [см. 4.4.3 f)]. Выходными данными является идентификация основных внешних поставщиков. Кроме того, организация должна на регулярной основе анализировать классификацию внешних поставщиков. В критерии классификации следует включать: a) стратегические потребности; b) предшествующий опыт; c) имеющуюся рыночную информацию; d) внешние целевые показатели; e) функциональный срок действия продукции внешних поставщиков (например, готовность к использованию). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.1 Общие положения 8.4.1.1 Общие положения. Дополнительные положения 8.4.1.1.3 Оценка внешних поставщиков Оценка внешних поставщиков должна включать: a) персонал, инфраструктуру и процессы внешних поставщиков; b) наличие квалификации у внешних поставщиков (например, сертификатов ISO 9001 или данного документа), дополняемой, при необходимости, другими средствами (например, результатами аудита). Организация должна выработать и осуществлять мониторинг стратегии для обеспечения следующего: c) соблюдения внешними поставщиками требований настоящего стандарта; d) обеспечения соответствия внешних поставщиков требованиям ISO 9001 или иного аналогичного стандарта по СМК Целевые внешние поставщики должны выявляться с учетом областей применения их продукции, ее стратегического значения, годового объема финансовых затрат, критичности продукции, проектной деятельности, оборота в секторе железнодорожного транспорта, а также выполнения графика поставок и параметров качества. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.1 Общие положения 8.4.1.1 Общие положения. Дополнительные положения 8.4.1.1.4 Одобрение внешних поставщиков Организация должна: a) выработать критерии одобрения внешних поставщиков; b) убедиться, что подразделения, имеющие полномочия утверждать поставщиков, также наделены правом отказать уже утвержденным внешним поставщикам; c) вести реестр одобренных внешних поставщиков, включая данные о рамках этих одобрений. EPPPS должны поставляться только одобренными внешними поставщиками. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.1 Общие положения 8.4.1.1 Общие положения. Дополнительные положения 8.4.1.1.5 Выбор предложений внешних поставщиков 8.4.1.1.5.1 Организация должна гарантировать, что предложение внешнего поставщика отобрано только после тщательного документально подтвержденного анализа его деятельности, учитывающего следующее: a) соответствие требованиям, например, по пунктам; b) общую стоимость покупки и эксплуатации поставляемой продукции, в том числе стоимость жизненного цикла; c) качество, стоимость и временные параметры поставок внешнего поставщика продукции, процессов и услуг в предыдущих случаях, в том числе затраты на устранение ненадлежащего качества, возникшие по вине внешнего поставщика; d) классификацию внешних поставщиков, имеющих отношение к предложению. 8.4.1.1.5.2 При проведении анализа следует учитывать следующее: a) выходные данные процесса анализа рисков; b) функциональный срок действия продукции, поставляемой внешними поставщиками. Перед оформлением заказа внешнему поставщику организации следует убедиться, что внешний поставщик в полной мере понял все технические требования, например, проведением совместной экспертизы договора.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Общие положения. Внешние поставщики.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Общие положения. Классификация внешних поставщиков и внешней продукции, процессов и услуг.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Общие положения. Оценка внешних поставщиков.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Общие положения. Одобрение внешних поставщиков.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Общие положения. Выбор предложений внешних поставщиков.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.2 Тип и степень управления Организация должна обеспечить, чтобы процессы, продукция и услуги, поставляемые внешними поставщиками, не оказывали негативного влияния на способность организации постоянно поставлять своим потребителям соответствующую продукцию и услуги. Организация должна: a) обеспечивать, чтобы процессы, поставляемые внешними поставщиками, находились под управлением ее системы менеджмента качества; b) определять средства управления, которые она планирует применять как в отношении внешнего поставщика, так и к поставляемым им результатам; c) учитывать: 1) возможное влияние процессов, продукции и услуг, поставляемых внешними поставщиками, на способность организации постоянно обеспечивать соответствие требованиям потребителей и применимым законодательным и нормативным правовым требованиям; 2) результативность средств управления, применяемых внешним поставщиком; определять верификацию или другие действия, необходимые для обеспечения соответствия процессов, продукции и услуг, поставляемых внешними поставщиками, требованиям.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.2 Тип и степень управления 8.4.2.1 Одобрение выпуска процессов, продукции и услуг, поставляемых внешними поставщиками 8.4.2.1.1 Одобрение выпуска новых или модифицированных EPPPS должно включать в себя: a) определение методов одобрения; b) планирование действий по верификации, валидации и одобрению; c) проведение инспекции первого серийного образца (FAI) на площадке внешнего поставщика (см. 8.9) или осуществление входного/выходного контроля; d) валидацию продукции или технологий (например, новое программное обеспечение для проектирования), поставленных внешними поставщиками, перед первым использованием в рамках договора с потребителем, если иное не согласовано с заказчиком e) одобрение выпуска (например, для начала серийного производства); f) определение или обновление базовой конфигурации с учетом управления изменениями (см. 8.1.4). 8.4.2.1.2 При одобрении новых или модифицированных EPPPS следует учитывать следующее: a) результаты пред-производственных анализов; ПРИМЕЧАНИЕ Пред-производственный анализ может предоставить подтверждающие данные о контролируемых условиях и готовности к началу производства первого изделия. b) интеграция первой системы. Организации следует сообщать о прогрессе в достижении целей проектирования и разработки, а также о ходе действий, предпринятых для обеспечения качества, своим внешним поставщикам.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.2 Тип и степень управления 8.4.2.2 Верификация после выпуска процессов, продукции и услуг, поставляемых внешними поставщиками EPPPS не должны использоваться или обрабатываться до тех пор, пока они не будут проверены на соответствие установленным требованиям, или если они не выпускаются в рамках авторизованного разрешения на отступление от требований (см. 8.7.3). В мероприятия по верификации EPPPS после выпуска должно входить следующее: a) планирование мероприятий (например, в рамках плана по проведению инспекторских проверок и испытаний, включая определение их объема, периодичности, размера образцов и методов контроля, см. 4.4.3 f)]; b) предоставление инструкций, списков контрольных параметров или шаблонов для верификации; c) получение доказательств, что EPPPS соответствуют требованиям (например, посредством проверки сопроводительной документации: сертификатов соответствия, протоколов испытаний, статистической отчетности, карт управления технологическим процессом); d) подтверждение выпуска EPPPS; e) менеджмент EPPPS, имеющих несоответствия. Если организация применяет протоколы испытаний в ходе верификации EPPPS, данные в этих протоколах должны быть сопоставимы с критериями приемки, изложенными в протоколе, данными из информации о закупках, например технические условия, стандарты и т.д. Организация должна разработать план регулярной верификации сырья с учетом оценки рисков.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.2 Тип и степень управления 8.4.2.2 Верификация после выпуска процессов, продукции и услуг, поставляемых внешними поставщиками ПРИМЕЧАНИЕ 1 Верификация состава сырьевого материала или его соответствия, может быть выполнена путем проверки, например, сертификатов, методом химического анализа или лабораторных испытаний. Требования к инспекторским проверкам и испытаниям, согласно определения 8.6, применимы для верификации EPPPS. В случае делегирования права выполнения верификации внешнему поставщику, организация должна определить требования к такому делегированию, а также указать средства управления, например, регулярные аудиты на площадке внешнего поставщика В случае, если организация делегирует право выполнения верификации внешнему поставщику, необходимо предоставить документальное доказательство того, что внешний поставщик что внешний поставщик принял условия такой договоренности. Необходимо создать и вести реестр делегирования полномочий в отношении внешних поставщиков. Любой случай делегирования следует анализировать после реализации каких-либо изменений. ПРИМЕЧАНИЕ 2 Верификация EPPPS после выпуска может представлять собой входной контроль или быть частью процесса обеспечения качества на площадке внешнего поставщика</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.2 Тип и степень управления 8.4.2.3 Мониторинг эффективности, переаттестация и определение рейтинга внешнего поставщика При мониторинге эффективности, переаттестации и определении рейтинга ключевых внешних поставщиков необходимо учитывать следующее: a) периодические проверки деятельности внешнего поставщика (соответствующие КЭ см. в 9.1.1.1); b) определение критериев для проведения аудита внешних поставщиков; c) результаты данных проверок служат основой для определения уровня управления, который необходимо реализовать; d) плановые меры, если внешний поставщик не обеспечивает выполнение технических и (или) иных целевых показателей; e) предоставление обратной связи внешним поставщикам по результатам их деятельности; f) проведение регулярных совместных проверок. Кроме того, организация должна: g) выявить внешних поставщиков, которых следует развивать; h) осуществлять планы действий на основе согласованных целей для улучшения возможностей внешних поставщиков.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Тип и степень управления. Мониторинг эффективности, переаттестация и определение рейтинга внешнего поставщика.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Тип и степень управления. Верификация после выпуска процессов, продукции и услуг, поставляемых внешними поставщиками Примеечания 1 и 2</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Тип и степень управления. Верификация после выпуска процессов, продукции и услуг, поставляемых внешними поставщиками.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Тип и степень управления.  Одобрение выпуска процессов, продукции и услуг, поставляемых внешними поставщиками.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.3 Информация для внешних поставщиков Организация должна обеспечивать объективность требований до их передачи внешнему поставщику. Организация должна сообщать внешним поставщикам свои требования, относящиеся: a) к поставляемым процессам, продукции и услугам; b) одобрению: 1) продукции и услуг; 2) методов, процессов и оборудования; 3) выпуска продукции и услуг; c) к компетентности персонала, включая любые требуемые меры подтверждения квалификации; d) взаимодействию внешнего поставщика с организацией; e) применяемым организацией управлению и мониторингу результатов деятельности внешнего поставщика; f) деятельности по верификации или валидации, которые организация или ее потребитель предполагают осуществлять на месте у внешнего поставщика. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.3 Информация для внешних поставщиков 8.4.3.1 Информация, предоставляемая внешним поставщикам. Дополнительные положения Информация, предоставляемая внешним поставщикам, должна учитывать, что: a) требования потребителя распределяются по нижестоящим уровням управления системы поставок; b) в случае изменений, необходимо обеспечивать отслеживаемость требований (см. 8.2); c) при необходимости, необходимо получить одобрение специальных процессов от организации или потребителей её продукции и(или) услуг. Организация должна также довести до своих внешних поставщиков свои требования к: d) идентификации и маркировке применимых изданий технических условий, чертежей, технологических требований, включая требования к специальным процессам, инструкциям по проведению инспекторских проверок, применимым положениям плана качества организации и другим соответствующим техническим данным; e) конечным результатам, связанным с EPPPS (например, документированной информации по EPPPS), и соответствующему графику; f) управлению изменениями и несоответствиями в выходных данных; g) графику поставки EPPPS; h) сведениям о критичности продукта (например, для безопасности); i) праву доступа организации, ее потребителей или прочих соответствующих сторон (например, контрольно- надзорных органов) к объектам, имеющим отношение к выполнению заказа, и к соответствующей документированной информации. ПРИМЕЧАНИЕ Прочие требования, о которых необходимо сообщать внешним поставщикам, могут быть связаны с: — результатами анализа проекта; — испытательными образцами (например, со способом производства, количеством, условиями хранения), необходимыми для исследования или одобрения проекта; — производством, а именно, с плановыми испытаниями, контролем и приемкой, в том числе с соответствующими инструкциями; — менеджментом морального устаревания; — аудитами; — логистикой системы материально-технического снабжения, в том числе упаковкой и маркировкой; — распределением требований, предъявляемых к своими внешними поставщикам, по нижестоящим уровням управления организацией. </t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Информация для внешних поставщиков.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Информация для внешних поставщиков. Информация, предоставляемая внешним поставщикам. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.2 Идентификация и прослеживаемость Организация должна использовать подходящие способы для идентификации выходов, когда это необходимо для обеспечения соответствия продукции и услуг. Организация должна идентифицировать статус выходов по отношению к требованиям, относящимся к мониторингу и измерениям, по ходу производства продукции и предоставления услуг. Организация должна управлять специальной идентификацией выходов, когда прослеживаемость является требованием, регистрировать и сохранять документированную информацию, необходимую для обеспечения прослеживаемости. 8.5.2.1 Идентификация и прослеживаемость. Дополнительные положения Изделия должны быть прослеживаемыми от своего происхождения и, как минимум, до истечения гарантии в тех случаях, когда она требуется в соответствии с положениями договора или менеджментом конфигурации (см. 8.1.4.1). Организация должна установить метод идентификации изделий (например, при помощи считываемых машиной кодов, штампов, этикеток) ПРИМЕЧАНИЕ 1 Метод идентификации изделий может быть согласован с потребителем. ПРИМЕЧАНИЕ 2 Законодательные и нормативно-правовые документы могут содержать требования о прослеживаемости. Если статус продукции или её идентификационные данные не известны, организация должна отнести такую продукцию, как не соответствующую требованиям. Организации следует использовать машинно-считываемые средства идентификации. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.4 Сохранность Организация должна обеспечивать сохранность выходных данные во время производства продукции и предоставления услуг в той мере, насколько это будет необходимым для обеспечения соответствия требованиям. ПРИМЕЧАНИЕ Обеспечение сохранности может включать в себя нанесение идентификационной маркировки, складскую обработку, предотвращение загрязнения, упаковку, хранение, перемещение или транспортировку и защиту. 8.5.4.1 Сохранность. Дополнительные положения Организация должна иметь документированные технические условия обеспечения сохранности в соответствии с техническими требованиями на продукцию и применимыми нормативными документами, предусматривающими выполнение следующих мероприятий до передачи заинтересованным сторонам: a) маркировка и этикетирование в целях идентификации; b) особые меры обращения с чувствительной продукцией; c) очистка в целях предотвращения загрязнения при хранении; d) контроль срока хранения и оборота товарных запасов (например, по принципу, первый пришел – первый ушел); e) условия окружающей среды (например, температура, влажность). Условия обеспечения сохранности, способные повлиять на соответствие продукции, должны быть идентифицированы, проанализированы и учтены в качестве входных данных для таких документированных технических условий. Эти документированные технические условия должны применяться к физическим изделиям, обращение с которыми осуществляется на площадке организации (например, к материалам, полученным от внешнего поставщика, к собственности потребителей, к незавершенным изделиям и продукции, производимой организацией). ПРИМЕЧАНИЕ Действие этих документированных технических условий может распространяться на складские операции, внутреннюю обработку и процессы доставки в пункт назначения. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.5 Деятельность после поставки Организация должна обеспечить выполнение требований к деятельности, связанной с продукцией и услугами, после того, как они были поставлены. При определении объема требуемой деятельности после поставки организация должна учитывать: a) законодательные и нормативные требования; b) потенциальные нежелательные последствия, связанные с ее продукцией и услугами; c) характер, использование и предполагаемый срок эксплуатации продукции и услуг; d) требования потребителей; e) обратную связь с потребителями. ПРИМЕЧАНИЕ Деятельность после поставки может включать в себя действия согласно гарантийным обязательствам, контрактным обязательствам (такие как обслуживание) и дополнительные услуги, такие как, например, переработка или окончательная утилизация. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.5 Деятельность после поставки 8.5.5.1 Деятельность после поставки. Дополнительные положения ПРИМЕЧАНИЕ 1 Деятельность после поставки осуществляется после передачи продукции потребителю до момента выполнения договорных обязательств (например, техническая подготовка персонала на местах, устранение проблем с качеством продукции). Организация должна разработать, внедрить и поддерживать документированный процесс осуществления деятельности после доставки. Данный процесс должен включать в себя следующее: a) требования, установленные в ISO 9001:2015, 8.5.5; b) контроль и актуализацию технической документации (например, инструкций по эксплуатации, руководства по техническому обслуживанию, перечня запасных частей); c) анализ отказов и методы применения корректирующих действий (например, FRACAS) (см. 8.8 и 10.2.3); d) согласование, контроль и использование инструкций по ремонту; e) предоставление запасных частей и(или) управление товарным запасом в случаях, согласованных между потребителем и организацией; f) информацию о жалобах потребителей в качестве входных данных для улучшения СМК организации (например, для совершенствования процессов проектирования и разработки, производства и технического обслуживания). ПРИМЕЧАНИЕ 2 В самом начале выполнения деятельности после поставки, могут быть собраны необходимые данные по надежности, готовности и ремонтопригодности (RAM) [например, признаки отказов, километраж пробега, часы наработки; см. 8.8.2 c)] и по стоимости жизненного цикла (LCC) [см. 8.8.4 c)].</t>
+  </si>
+  <si>
+    <t>Деятельность. Производство продукции и предоставление услуг. Деятельность после поставки. Деятельность после поставки. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.6 Выпуск продукции и услуг Организация должна внедрять запланированные мероприятия на соответствующих этапах в целях верификации выполнения требований, предъявляемых к продукции и услугам. Выпуск продукции и услуг для потребителя не должен происходить до окончания реализации всех запланированных мероприятий с удовлетворительными результатами, кроме тех случаев, когда это санкционировано уполномоченным органом и/или лицом и, когда это применимо, самим потребителем. Организация должна регистрировать и сохранять документированную информацию о выпуске продукции и услуг. Документированная информация должна включать: a) свидетельства, демонстрирующие соответствие критериям приемки; b) возможность прослеживания в отношении должностного лица (лиц), санкционировавшего(-их) выпуск продукции и услуг. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.6 Выпуск продукции и услуг 8.6.1 Выпуск продукции и услуг. Дополнительные положения Организация должна установить: a) последовательность мероприятий по инспекционному контролю и проведению испытаний в ходе производственного процесса в рамках плана по проведению контроля и испытаний, включая определение объема, периодичности, размера образцов и методов контроля. (см. 4.4.3 f). Периодичность необходимо устанавливать в соответствии с уровнем риска для предотвращения результатов, не соответствующих требованиям; b) требования по приемке продукции и услуг в инструкциях по проведению контроля и испытаний; c) уполномоченные органы, ответственные за выпуск продукции. Эти инструкции и планы должны быть частью входных данных для производства (см. 8.5.1). В том случае, если запланированные мероприятия не были реализованы с удовлетворительными результатами, организация должна запросить разрешение на отклонение у потребителя (см. 8.7.3) перед выпуском продукции и услуг. Инструкции по проведению контроля и испытаний должны включать в себя: d) критерии приёмки; e) документированную информацию о результатах инспекционного контроля и испытаний; f) тип требуемых ресурсов для мониторинга и измерений, а также все особые инструкции в отношении этих ресурсов; Учетные документы о контроле и испытаниях должны включать в себя данные фактических измерений в соответствии с инструкциями о проведении контроля и испытаний. Организация должна разработать, внедрить и поддерживать процесс выпуска продукции и услуг.</t>
+  </si>
+  <si>
+    <t>Деятельность. Выпуск продукции и услуг. Выпуск продукции и услуг. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.7 Управление несоответствующими результатами процессов 8.7.1 Организация должна обеспечивать идентификацию и управление результатами процессов, которые не соответствуют требованиям, в целях предотвращения их непредусмотренного использования или поставки. Организация должна предпринимать соответствующие действия, исходя из характера несоответствия и его влияния на соответствие продукции и услуг. Это применимо также к несоответствующей продукции и услугам, выявленным после поставки продукции, в ходе или после предоставления услуг. Организация должна осуществлять в отношении несоответствующих результатов процессов одно или несколько следующих действий: a) коррекцию; b) отделение, ограничение распространения, возврат или приостановку поставки продукции и предоставления услуг; c) информирование потребителя; d) получение разрешения на приемку с отклонением. После выполнения коррекции несоответствующих результатов процессов их соответствие требованиям должно быть верифицировано. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.7 Управление несоответствующими результатами процессов 8.7.2 Организация должна регистрировать и сохранять документированную информацию, которая: a) описывает несоответствие; b) описывает предпринятые действия; c) описывает полученные разрешения на отклонение; d) указывает полномочный орган и/или лицо, принимавшее решение о действии в отношении несоответствия. 8.7.3 Управление несоответствующими результатами процессов. Дополнительные положения Организация должна разработать, внедрить и поддерживать документированный процесс контроля несоответствующих результатов. ПРИМЕЧАНИЕ 1 Любые процессы могут вызывать появление несоответствующих результатов (например, результатов проектирования и разработки). ПРИМЕЧАНИЕ 2 Процесс управления несоответствующими результатами может быть скомбинирован с процессом менеджмента несоответствий и корректирующих действий в соответствии с 10.2.3, или процессом управления изменениями 8.1.4.2. Этот процесс должен включать следующее: a) требования, установленные в 8.7.1, 8.7.2 и 10.2; b) реестр несоответствующих результатов. В отношении несоответствующих результатов, вытекающих из 8.5, процесс должен включать следующее: c) идентификацию критериев и полномочий для: 1) переработки, ремонта или списания; 2) разрешения на отклонения, как внутренние, так и согласованные с потребителем; d) реестр разрешений, предоставленных организацией и внешними поставщиками, с указанием даты истечения срока действия и разрешённого количества; e) регулярный мониторинг полученных разрешений на отклонения (например, их срока действия) и корректировки несоответствующих результатов. В отношении контроля несоответствующих результатов, организация должна убедиться, что: f) при истечении срока действия разрешения на отклонение продукция больше не может использоваться; g) в случае отклонений, требующих одобрения потребителя: 1) согласование с заказчиком должно быть получено до поставки; 2) разрешения на отклонение, полученные от внешних поставщиков, должны быть согласованы внутри организации перед передачей потребителю; 3) идентификация продукции, на которую распространяется действие разрешения об отклонении, согласована с заказчиком; 4) информация об отклонениях вносится в декларацию о соответствии продукции.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление несоответствующими результатами процессов.  Организация должна регистрировать и сохранять документированную информацию.</t>
+  </si>
+  <si>
+    <t>Деятельность. Управление несоответствующими результатами процессов.  Организация должна обеспечивать идентификацию и управление результатами процессов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.9 Контроль первого изделия 8.9.1 Организация должна разработать, внедрить и поддерживать процесс менеджмента контроля первого изделия (FAI). Этот процесс должен включать в себя: a) планирование в соответствии с установленными критериями для идентификации продукции, подлежащей FAI; b) подготовку FAI; c) выполнение мероприятий по инспекционному контролю и верификации, в том числе анализ производственных процессов, уделяя особое внимание критическим и специальным процессам; d) критерии: 1) для выпуска серийной продукции; 2) для условного выпуска; 3) для браковки. e) контроль выполнения корректирующих действий. Организация должна сохранять всю соответствующую документированную информацию. </t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.9 Контроль первого изделия 8.9.2 Кроме того, в рамках этого процесса следует определить следующее: a) предварительные условия, подлежащие оценке перед проведением мероприятий по контролю FAI; b) участников FAI в зависимости от изделия. 8.9.3 Процесс FAI должен применяться в отношении следующего: a) внутренних продуктов и EPPPS (см. 8.4) для выпуска серийной продукции, валидации производственного оборудования (см. 8.5.1.4) и производственных процессов (см. 8.5.1.1.4); b) репрезентативного изделия из первой серийной партии новой продукции или существенного изменения существующего продукта после: 1) верификации производственного процесса; или 2) изменения, которое делает результаты предыдущей инспекции первого изделия недействительными. ПРИМЕЧАНИЕ К существенным изменениям выпускаемой продукции относятся следующие: — кардинальные изменения конструкции (например, относящиеся к эксплуатационным характеристикам, надежности, доступности, ремонтопригодности, безопасности или другим важнейшим особенностям); — кардинальные изменения производственного процесса (например, методов выполнения процессов, методов испытаний, производственного или измерительного оборудования, или другие изменения); — перенос производства с одной производственной площадки на другую; — возобновление производства, в случае изменения технологических условий; — другие изменения, способные повлиять на соответствие продукции.</t>
+  </si>
+  <si>
+    <t>Деятельность. Контроль первого изделия. В рамках этого процесса следует определить следующее</t>
+  </si>
+  <si>
+    <t>Деятельность. Контроль первого изделия. Организация должна разработать, внедрить и поддерживать процесс менеджмента контроля первого изделия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.1 Мониторинг, измерение, анализ и оценка 9.1.1 Общие положения Организация должна определить: a) что должно подлежать мониторингу и измерениям; b) методы мониторинга, измерения, анализа и оценки, необходимые для обеспечения достоверных результатов; c) когда должны проводиться мониторинг и измерения; d) когда результаты мониторинга и измерений должны быть проанализированы и оценены. Организация должна оценивать результаты деятельности и результативность системы менеджмента качества. Организация должна регистрировать и сохранять соответствующую документированную информацию как свидетельство полученных результатов. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.1 Мониторинг, измерение, анализ и оценка 9.1.1 Общие положения 9.1.1.1 Мониторинг и измерение. Дополнительные положения 9.1.1.1.1 Организация должна разработать, внедрить и поддерживать документированную систему ПЭ для мониторинга и улучшения эффективности своих процессов [см. 4.4.1 c)], продукции, услуг и проектов. С более подробными пояснениями можно ознакомиться в Приложении C. Организация должна собирать данные по отчетам о внутренних и внешних технических отказах в соответствии с установленными критериями. ПРИМЕЧАНИЕ Некоторые показатели эффективности (ПЭ) могут рассматриваться как ключевые показатели эффективности (КПЭ) [см. 5.3.1 a)]. При определении каждого ПЭ должны устанавливаться: a) соответствующий процесс, процессы или виды деятельности, к которым относится ПЭ; b) метод расчета ПЭ (например, формула); c) соответствующие цели, достижимые в определённый период; d) должностное лицо, осуществляющее измерение ПЭ; e) когда необходимо предоставлять отчет по ПЭ и кому (с учетом распределения ответственности за достижение ПЭ в организации); f) кто отвечает за определение соответствующих действий; g) источники данных. ПЭ должны измерять: h) степень удовлетворенности потребителей (см. 9.1.2); i) своевременность доставки потребителю; j) несоответствия, выявленные потребителем (см. 8.7); k) внутренние несоответствия (см. 8.7); l) несоответствия внешних поставщиков (см. 8.7); m) своевременность доставки от внешних поставщиков; n) затраты на устранение ненадлежащего качества; o) проектные затраты (см. 8.1.3.5). </t>
+  </si>
+  <si>
+    <t>9 Оценка результатов деятельности 9.1 Мониторинг, измерение, анализ и оценка 9.1.1 Общие положения 9.1.1.1 Мониторинг и измерение. 9.1.1.1.2 При планировании ПЭ следует предусматривать следующие измерения: a) время реагирования на несоответствия и жалобы, предъявленные потребителем; b) производственные мощности, включая прогноз (в том числе для производства и инфраструктуры); c) время решения проблем, например открытых вопросов, несоответствий, корректирующих действий; d) время простоя производственного оборудования.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Мониторинг, измерение, анализ и оценка. Общие положения. Мониторинг и измерение. При планировании ПЭ следует предусматривать следующие измерени.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Мониторинг, измерение, анализ и оценка. Общие положения. Мониторинг и измерение. Дополнительные положения. Организация должна разработать, внедрить и поддерживать документированную систему ПЭ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.1 Мониторинг, измерение, анализ и оценка 9.1.3 Анализ и оценка Организация должна анализировать и оценивать соответствующие данные и информацию, полученную в ходе мониторинга и измерения. Результаты анализа должны быть использованы для оценки: a) соответствия продукции и услуг; b) степени удовлетворенности потребителей; c) результатов деятельности и результативности системы менеджмента качества; d) успешности планирования; e) результативности действий, предпринятых в отношении рисков и возможностей; f) результатов деятельности внешних поставщиков; g) потребности в улучшениях системы менеджмента качества. ПРИМЕЧАНИЕ Методы анализа данных могут включать в себя статистические методы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.1 Мониторинг, измерение, анализ и оценка 9.1.3 Анализ и оценка 9.1.3.1 Анализ и оценка. Дополнительные положения Организация должна анализировать и оценивать все данные, определённые для мониторинга и измерений (см. 9.1.1). Если целевые показатели, относящиеся к ключевым показателям эффективности (КПЭ), определённым организацией как необходимые, не достигнуты, должны быть предприняты корректирующие действия в соответствии с 10.2. Если целевые показатели, относящиеся к показателям эффективности (ПЭ), определённым организацией как необходимые, не достигнуты, должны быть предприняты корректирующие действия в соответствии с 10.2 Если целевые показатели превышены, организации следует проанализировать условия, в результате которых это стало возможным для поддержания высоких показателей. Результаты анализа и оценки должны демонстрировать тенденцию за определённый период времени, при наличии соответствующих условий (например, жизненный цикл проекта, анализ проекта). ПРИМЕЧАНИЕ 1 С описаниями статистических методов, применимых для анализа тенденций, можно ознакомиться в ISO 10017. Результаты анализа данных должны быть доступны для определённых заинтересованных сторон в соответствии с 7.4, особенно тех, кто непосредственно пострадал от отказа (изделия) или от необходимости выполнения корректирующих действий. ПРИМЕЧАНИЕ 2 В этом случае, заинтересованными сторонами могут быть внутренние или внешние поставщики, или потребители, конечные пользователи, высшие руководители организации или представители уполномоченных органов. </t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Мониторинг, измерение, анализ и оценка. Анализ и оценка. Анализ и оценка. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t>9 Оценка результатов деятельности 9.2 Внутренний аудит 9.2.3 Внутренний аудит. Дополнительные положения 9.2.3.1 Общие положения Организация должна разработать, внедрить и поддерживать документированный процесс проведения внутреннего аудита для подтверждения соответствия процессов, проектов, продукции и услуг внутренним и внешним требованиям. Этот процесс должен включать в себя: a) требования, установленные в 9.2.1 и 9.2.2; b) менеджмент программы аудита (см. 9.2.3.2); c) менеджмент внутренних аудиторов (см. 9.2.3.3). Внутренние аудиты должны предоставлять возможности для обратной связи (см. 7.1.6).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.2 Внутренний аудит 9.2.3 Внутренний аудит. Дополнительные положения 9.2.3.2 Программа аудита В дополнение к 9.2.2, требования к годовой программе аудита должны учитывать следующее: a) процессы, идентифицированные в иерархической структуре процессов системы менеджмента качества железнодорожного транспорта [см. 4.4.3 a)]; b) критические проекты, продукцию и услуги; c) частоту проведения аудитов с учетом статуса и важности области аудита, при этом аудит должен проводиться не реже одного раза в три года для процессов и требований настоящего стандарта; d) аудиторы не должны выполнять аудит собственной работы; e) по мере возможности, программа аудита должна охватывать все рабочие смены. Трехлетняя программа аудита должна подвергаться анализу ежегодно. В требованиях программы аудита следует учитывать междисциплинарные аудиты, чтобы обеспечить оптимизацию количества внутренних аудитов и избежать дублирование функций. ПРИМЕЧАНИЕ 1 Междисциплинарными аудитами могут быть аудиты, относящиеся к разным направлениям деятельности (например, снабжению, менеджменту проекта, производству и финансам) или одновременно к процессу и проекту. ПРИМЕЧАНИЕ 2 Организация может планировать совмещенные аудиты (например, качества и защиты окружающей среды) для повышения эффективности при условии, что объем аудита затрагиваемых направлений надлежащим образом сбалансирован в системе менеджмента. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.2 Внутренний аудит 9.2.3 Внутренний аудит. Дополнительные положения 9.2.3.3 Менеджмент аудиторов 9.2.3.3.1 Организация должна убедиться, что команда аудиторов, выполняющая аудит на соответствие требованиям настоящего документа, обладает: a) знаниями и навыками, развиваемыми и поддерживаемыми на надлежащем уровне (например, как минимум, путем регулярной внутренней подготовки и курсов повышения квалификации, связанными с: 1) принципами аудита (например, личное поведение), процессом и методами аудита; 2) областью аудита (например, продукцией или услугой, структурным подразделением); 3) соответствующими разделами настоящего документа, в соответствии с областью проведения аудита; 4) критериями аудита (например, внутренними процедурами, настоящим документом); b) опытом проведения аудитов (например, наблюдение за проведением аудитов, регулярное участие в аудитах или руководство командой аудиторов), определение минимального количества проведенных аудитов. Организации следует сохранять соответствующую документированную информацию. 9.2.3.3.2 В ходе менеджмента аудиторов организации следует: a) назначать аудиторов из соответствующих подразделений (например, отделов закупки, проектирования, менеджмента проекта); b) оценивать работу внутренних аудиторов на основании информации, полученной от проверяемой стороны, с учетом определенных критериев, использовать подобную оценку в качестве входных данных для менеджмента компетенций аудиторов; c) разработать и поддерживать список внутренних аудиторов с указанием их квалификации и компетенций в области аудита (например, область деятельности, продукция, стандарты). </t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Внутренний аудит. Дополнительные положения. Общие положения.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Внутренний аудит. Дополнительные положения. Программа аудита</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Внутренний аудит. Дополнительные положения. Менеджмент аудиторов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Оценка результатов деятельности 9.4 Анализ процессов В отношении анализа процессов, организация должна анализировать процессы, перечисленные в Таблице A.1, не реже одного раза в год согласованно со сроками проведения анализа со стороны руководства. Кроме того, организации следует анализировать рекомендованные процессы, перечисленные в Таблице A.2, и дополнительные процессы, определённые организацией в качестве необходимых, с регулярностью в зависимости от оценки. В результаты анализа процессов следует включать следующее: a) выявленную степень соответствия процессов требованиям, установленным в 4.4.1 a), b), c) и f); b) мониторинг действий, выполняемых по результатам предыдущих анализов процессов; c) мониторинг несоответствующих выходных данных процессов; d) наличие необходимых ресурсов для выполнения процессов; e) измерение и анализ ПЭ, относящихся к процессам (см. 9.1.1.1), включая достижение целевых показателей эффективности; </t>
+  </si>
+  <si>
+    <t>9 Оценка результатов деятельности 9.4 Анализ процессов ПРИМЕЧАНИЕ Для анализа процессов, могут применяться требования к анализу и оценке, установленные в 9.1.3. f) анализ актуальности ПЭ процессов и результаты корректирующих действий; g) управление выполнением корректирующих действий по результатам проведённых аудитов. При выполнении анализа процессов, организация должна гарантировать следующее: h) владельцы процессов участвуют в анализе процессов вместе с представителями руководства заинтересованных в процессе внутренних сторон; i) учет входных данных и требований соответствующих внутренних и внешних заинтересованных сторон, установленных в 4.2; j) принятие решений и выполнение необходимых действий; k) доведение до высшего руководства выходных данных анализов процессов; l) документальное оформление и хранение входных и выходных данных анализов процессов. Кроме того, владельцам процесса следует убедиться, что анализ процесса определяет необходимость приобретения знаний и внесения изменений в отношении компетенций, применяемых в ходе выполнения процессов.</t>
+  </si>
+  <si>
+    <t>Оценка результатов деятельности. Анализ процессов. Примечание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Улучшение 10.2 Несоответствия и корректирующие действия 10.2.1 При появлении несоответствий, в том числе связанных с претензиями, организация должна: a) реагировать на данное несоответствие и, насколько применимо: 1) предпринимать действия по управлению и коррекции выявленного несоответствия; 2) предпринимать действия в отношении последствий данного несоответствия; b) оценивать необходимость действий по устранению причин данного несоответствия с тем, чтобы избежать его повторного появления или появления в другом месте, посредством: 1) анализа несоответствия; 2) определения причин, вызвавших появление несоответствия; 3) определения наличия аналогичного несоответствия или возможности его возникновения где-либо еще; c) выполнять все необходимые действия; d) проанализировать результативность каждого предпринятого корректирующего действия; e) актуализировать при необходимости риски и возможности, определенные в ходе планирования; f) вносить при необходимости изменения в систему менеджмента качества. Корректирующие действия должны соответствовать последствиям выявленных несоответствий. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Улучшение 10.2 Несоответствия и корректирующие действия 10.2.2 Организация должна регистрировать и сохранять документированную информацию как свидетельство: a) характера выявленных несоответствий и последующих предпринятых действий; b) результатов всех корректирующих действий. </t>
+  </si>
+  <si>
+    <t>10 Улучшение 10.2 Несоответствия и корректирующие действия 10.2.3 Несоответствия и корректирующие действия. Дополнительные положения Организация должна разработать, внедрить и поддерживать процесс менеджмента несоответствий и корректирующих действий. Этот процесс должен включать в себя: a) требования, установленные в 10.2.1 и 10.2.2; b) определение критериев для оценки необходимости корректирующих действий; c) применение методов решения проблем (например, 4D, 8D); d) мониторинг корректирующих действий; e) критерии передачи проблемных вопросов для решения на более высоком уровне управления (например, матрица принятия решений). ПРИМЕЧАНИЕ Эти требования могут применяться к несоответствующей требованиям продукции, услугам, процессам и ходу выполнения проектов</t>
+  </si>
+  <si>
+    <t>Улучшение. Несоответствия и корректирующие действия. При появлении несоответствий, в том числе связанных с претензиями, организация должна.</t>
+  </si>
+  <si>
+    <t>Улучшение. Несоответствия и корректирующие действия. Организация должна регистрировать и сохранять документированную информацию.</t>
+  </si>
+  <si>
+    <t>Улучшение. Несоответствия и корректирующие действия. Несоответствия и корректирующие действия. Дополнительные положения.</t>
+  </si>
+  <si>
+    <t>Приложение A (информативное) продолжение. 8.5.1.1.1 Организация должна разработать, внедрить и поддерживать процесс предоставления продукции и услуг. 8.5.1.3 Организация должна разработать, внедрить и поддерживать процесс управления специальными процессами. 8.5.5.1 Организация должна разработать, внедрить и поддерживать процесс деятельности после поставки. 8.7.3 Организация должна разработать, внедрить и поддерживать процесс контроля несоответствующих результатов. 8.8.2 Организация должна разработать, внедрить и поддерживать процесс управления надежностью, готовностью, ремонтопригодностью (RAM) продукции и услуг. Если организация осуществляет поставки относящихся к безопасности механических и(или) 8.8.3 электрических/электронных/программируемых электронных продуктов и услуг, она должна разработать, внедрить и поддерживать процесс управления безопасностью продукции и услуг. 8.9.1 Организация должна разработать, внедрить и поддерживать процесс контроля первого изделия. Организация должна разработать, внедрить и поддерживать процесс менеджмента 8.10 морального износа для обеспечения наличия поставляемых продукции и запасных частей, в соответствии с требованиями контрактов или согласно определения организации, как минимум, до окончания гарантийного срока. Организация должна разработать, внедрить и поддерживать процесс управления 9.2.3.1 внутренними аудитами для верификации соответствия процессов внутренним и внешним требованиям. 10.2.3 Организация должна разработать, внедрить и поддерживать процесс управления несоответствиями и корректирующими действиями. a этот процесс является обязательным согласно ISO 9001.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение A (информативное) Список процессов A.1 Обязательные процессы. Таблица A.1 содержит список обязательных процессов настоящего документа. Таблица A.1 — Обязательные процессы Раздел. Требование. 6.1.3.1 Организация должна разработать, внедрить и поддерживать процесс управления рисками и возможностями. 7.1.1.1 Организация должна разработать, внедрить и поддерживать процесс планирования ресурсов, одобрения и контроля. Организация должна разработать, внедрить и поддерживать процесс калибровки и(или) 7.1.5.3 поверки контрольных и измерительных ресурсов, а также инструментов, используемых в специальных процессах. 7.2.1.1 Организация должна разработать, внедрить и поддерживать процесс управления компетенциями. 7.5.3.3 Организация должна разработать, внедрить и поддерживать процесс контроля документированной информации. 8.1.1.2 Организация должна разработать, внедрить и поддерживать процесс планирования передачи процессов, способных повлиять на качество продукции и услуг организации. 8.1.2 Организация должна разработать, внедрить и поддерживать процесс управления тендерами. 8.1.3.1.1 Организация должна разработать, внедрить и поддерживать a процесс управления проектами. 8.1.4.1.1 Организация должна разработать, внедрить и поддерживать процесс управления конфигурацией, соответствующий выпускаемой продукции. 8.1.4.2 Организация должна разработать, внедрить и поддерживать процесс управления изменениями. 8.2.5 Организация должна разработать, внедрить и поддерживать процесс управления требованиями к продукции и услугам 8.3.1 a Организация должна разработать, внедрить и поддерживать процесс проектирования и разработки, соответствующий последующим поставкам продукции и услуг. a Организация должна разработать, внедрить и поддерживать процесс для поставляемых 8.4.1.1.1 внешними поставщиками процессов, продукции и услуг (EPPPS), описанный в ISO 9001:2015, 8.4.1 для гарантии соответствия предъявляемым требованиям. </t>
+  </si>
+  <si>
+    <t>Приложение A. Список процессов. A.1  Обязательные процессы. Продолжение.</t>
+  </si>
+  <si>
+    <t>Приложение C (информативное) Показатели эффективности C.6 Примеры Таблица C.2 содержит примеры ПЭ Таблица C.2 — Примеры ПЭ Показатель эффективности Пример Удовлетворённость потребителя ПРИМЕР Среднее значение по результатам анализа степени удовлетворенности потребителей Среднее значение по результатам ответов потребителей на вопросы, задаваемые им в процессе анализа степени удовлетворенности результатами деятельности организации по ключевым функциям (например, проектирование, поставки, гарантийные обязательства) Своевременная доставка потребителю ПРИМЕР Процент своевременных доставок Количество своевременных доставок потребителям, поделённое на общее количество доставок потребителям по условиям контрактов a Несоответствия, выявленные ПРИМЕР Несоответствия, выявленные потребителями потребителем Количество рекламационный изделий, поделённое на количество поставленных изделий Внутренние несоответствия ПРИМЕР Отсутствие брака (предоставление продукции или услуги надлежащего качества с первого раза) Количество изделий, отвечающих требованиям при итоговом контроле качества, поделённое на количество изделий, представленных для итогового контроля качества Несоответствия у внешнего поставщика ПРИМЕР Несоответствия у внешнего поставщика Количество несоответствующих изделий относительно общего количества приобретённых изделий (за период) Своевременная доставка от внешних ПРИМЕР Своевременная доставка от внешних поставщиков поставщиков Количество изделий, своевременно полученных от внешних поставщиков, поделённое на общее количество изделий, поставленных внешними поставщиками Затраты на устранение ненадлежащего ПРИМЕР Уровень общих затрат на устранение качества ненадлежащего качества Сумма всех издержек, включая брак, доработки и ремонты, модификации, штрафы, дополнительные гарантии и т.д. относительно дохода от продаж Проектные затраты ПРИМЕР Отклонение от итогового результата Фактическая валовая прибыль минус изначально планируемая валовая прибыть a Поставки потребителю могут включать в себя физическую продукцию, средства программного обеспечения, документированную информацию, проекты и чертежи.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предисловие ISO (Международная организация по стандартизации) является всемирной федерацией национальных организаций по стандартизации (комитетов-членов ISO). Разработка международных стандартов обычно осуществляется техническими комитетами ISO. Каждый комитет-член, заинтересованный в деятельности, для которой создан технический комитет, имеет право быть представленным в этом комитете. Международные правительственные и неправительственные организации, имеющие связи с ISO, также принимают участие в работах. Что касается стандартизации в области электротехники, ISO работает в тесном сотрудничестве с Международной электротехнической комиссией (IEC). Процедуры, примененные для разработки этого документа и предназначенные для его дальнейшего поддержания, приведены в Части 1 Директив ISO/IEC. Особенно следует отметить различные критерии одобрения, необходимые для различных типов документов ISO. Этот документ был подготовлен в соответствии с правилами редактирования Части 2 Директив ISO/IEC (см. www.iso.org/directives). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международная организация по стандартизации (ISO) обращает внимание пользователей настоящего стандарта на то, что его практическая реализация предполагает вероятность применения патентного права, предметом которого он является. ISO не выражает какой-либо позиции в отношении доказательств, юридической силы или применимости каких-либо заявленных патентных прав. На дату публикации настоящего стандарта, ISO не получала никаких уведомлений о каких-либо патентных правах, соблюдение которых было бы обязательно при практическом применении настоящего стандарта. Однако, пользователям настоящего стандарта следует иметь в виду, что указанные ограничениям могут не соответствовать самой актуальной информации, которую можно получить из патентной базы данных по адресу www.iso.org/patents. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Международная организация по стандартизации (ISO) не несет ответственности за идентификацию любых или всех указанных патентных прав. Любое торговое наименование, использованное в настоящем документе, является информацией, предоставленной для удобства пользователей, и не представляет собой акта одобрения. Для разъяснения добровольного характера стандартов, значения специальных терминов и выражений ISO, относящихся к оценке соответствия, а также информации в отношении соблюдения Международной организацией по стандартизации (ISO) принципов Всемирной торговой организации (WTO), изложенных в Соглашении по техническим барьерам в торговле (TBT), см. информацию по следующему URL-адресу: www.iso.org/iso/foreword.html. Настоящий стандарт был подготовлен Техническим комитетом ISO/TC 269 Железные дороги. </t>
+  </si>
+  <si>
+    <t>Данное первое издание ISO 22163 отменяет и заменяет ISO/TS 22163:2017. Основные изменения следующие: — упрощена область применения; — пересмотрены термины и определения в Разделе 3; — подраздел, ранее имевший номер 6.4 «Планирование бизнеса», перенесен в 4.1.1; — добавлен новый подраздел 4.1.2 «Социальная ответственность»; — пересмотрен подпункт 7.2.1 «Компетентность. Дополнительные положения»; — подраздел, ранее имевший номер 8.11 «Управление инновациями», перенесен в 8.1.1.1; — пункт «Менеджмент анализа проекта» отделен от подраздела 8.1.3.7 «Менеджмент обеспечения коммуникаций внутри проекта» и добавлен в виде нового подраздела 8.1.3.11; — отдельные подразделы, ранее имевшие номера 8.1.4 «Менеджмент конфигурации» и 8.1.5 «Менеджмент изменений», объединены в один раздел 8.1.4 «Менеджмент конфигурации и контроль изменений»; — требования к безопасности продукции интегрированы с требованиями к качеству; © ISO 2023 – Все права сохраняются 5 --- ISO 22163:2023(R) — пояснения экономических требований к надежности, доступности, ремонтопригодности, безопасности и срокам эксплуатации даны в 8.8; — добавлено понятие «показатели эффективности в сравнении с ключевыми показателями эффективности»; — пересмотрены показатели эффективности; — добавлено Приложение A «Список процессов»; — добавлено Приложение БB «Понятие подчиненности уровней классификации продукции и услуг»; — Добавлено Приложение C «Показатели эффективности». Все вопросы или предложения по настоящему стандарту следует направлять в национальные органы по стандартизации страны пользователя. С полным перечнем этих органов можно ознакомиться по адресу www.iso.org/members.html.</t>
+  </si>
+  <si>
+    <t>Введение. ISO. 2 часть</t>
+  </si>
+  <si>
+    <t>Введение. ISO. 3 часть</t>
+  </si>
+  <si>
+    <t>Введение. ISO. 4 часть</t>
+  </si>
+  <si>
+    <t>Введение. ISO. 1 часть</t>
+  </si>
+  <si>
+    <t>Введение. Общие положения. 1 часть</t>
+  </si>
+  <si>
+    <t>Введение. Общие положения. 2 часть</t>
+  </si>
+  <si>
+    <t>Введение. Общие положения. 3 часть</t>
+  </si>
+  <si>
+    <t>Введение. Общие положения. 4 часть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1 Общие положения Целью настоящего стандарта является обеспечение развития и непрерывного совершенствования системы менеджмента качества железнодорожного транспорта, качества продукции, включая безопасность глобальной отрасли железнодорожных перевозок, для удовлетворения потребностей клиентов. Настоящий стандарт содержит дополнительные особые требования к железнодорожному транспорту, кроме тех, что изложены в ISO 9001:2015. В рамках приведен текст ISO 9001:2015. Если в цитатах из ISO 9001:2015, приведённых в настоящем стандарте, имеется ссылка на «систему менеджмента качества», то далее по тексту этот термин следует понимать как «систему менеджмента качества железнодорожного транспорта», не ограничиваясь только понятием «качество». Таким образом, этот термин охватывает все процессы обеспечения качества организации. Поэтому, в дополнительных особых требованиях к железнодорожному транспорту, термин «система менеджмента качества железнодорожного транспорта» используют вне рамок цитируемого текста. Если в тексте ISO 9001:2015 встречается ссылка на «настоящий международный стандарт», подразумевается настоящий документ, в том числе текст вне рамок. </t>
+  </si>
+  <si>
+    <t>Если в настоящем стандарте указан номер раздела, подразумевается, что должны учитываться все требования этого раздела, включая подпункты. Если в настоящем стандарте встречается ссылка на «безопасность», этот термин означает «безопасность продукции и услуг», но не «безопасность на производстве». Если в настоящем стандарте упоминается процесс, то этот процесс может быть: — самостоятельным, — скомбинированным с ещё одним или несколькими другими процессами, или — разделен на несколько процессов в соответствии с требованиями системы менеджмента качества железнодорожного транспорта, действующей в организации. ISO 9001:2015, Системы менеджмента качества. Требования 0.1 Общие положения Применение системы менеджмента качества является стратегическим решением для организации, которое может помочь улучшить результаты ее деятельности и обеспечить прочную основу для инициатив, ориентированных на устойчивое развитие.</t>
+  </si>
+  <si>
+    <t>Потенциальными преимуществами для организации от применения системы менеджмента качества, основанной на настоящем стандарте, являются: a) способность стабильно предоставлять продукцию и услуги, которые удовлетворяют требования потребителей и применимые законодательные и нормативные правовые требования; b) создание возможностей для повышения удовлетворенности потребителей; c) направление усилий на риски и возможности, связанные со средой и целями организации; d) возможность продемонстрировать соответствие установленным требованиям системы менеджмента качества. Настоящий стандарт может использоваться внутренними и внешними сторонами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настоящий стандарт не предполагает необходимость: — единообразия в структуре различных систем менеджмента качества; — согласования документации со структурой разделов настоящего стандарта; — использования специальной терминологии настоящего стандарта в рамках организации. Требования к системам менеджмента качества, установленные настоящим стандартом, являются дополнительными к требованиям к продукции и услугам. В настоящем стандарте применен процессный подход, который включает цикл «Планируй – Делай – Проверяй – Действуй» (PDCA), и риск-ориентированное мышление. Процессный подход позволяет организации планировать свои процессы и их взаимодействие. Реализация цикла PDCA позволяет организации обеспечить ее процессы необходимыми ресурсами, осуществлять их менеджмент, определять и реализовывать возможности для улучшения. Риск-ориентированное мышление позволяет организации определять факторы, которые могут привести к отклонению от запланированных результатов процессов и системы менеджмента качества организации, а также использовать предупреждающие средства управления для минимизации негативных последствий и максимального использования возникающих возможностей. </t>
+  </si>
+  <si>
+    <t>Постоянное выполнение требований и учет будущих потребностей и ожиданий в условиях все более динамичной и сложной среды ставит перед организацией сложные задачи. Для решения этих задач организация могла бы посчитать необходимым использовать различные формы улучшения в дополнение к коррекции и постоянному улучшению, например, такие как прорывное изменение, инновация и реорганизация. В настоящем стандарте используются следующие глагольные формы: — «должна» указывает на требование; — «следует» указывает на рекомендацию; — «могло бы» указывает на разрешение; — «может» указывает на способность или возможность. Информация, обозначенная как «Примечание», носит характер руководящих указаний для понимания или разъяснения соответствующего требования.</t>
+  </si>
+  <si>
+    <t>Введение. Общие положения. 5 часть</t>
+  </si>
+  <si>
+    <t>Введение. Процессный подход. Общие положения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3 Процессный подход 0.3.3 Риск-ориентированное мышление Риск-ориентированное мышление необходимо для достижения эффективности системы менеджмента качества. Концепция риск-ориентированного мышления подразумевалась в предыдущей версии настоящего стандарта, включая, например, выполнение предупреждающих действий, направленных на исключение потенциальных несоответствий, анализ любых несоответствий, которые возникают, и принятие мер по предотвращению их повторения, соответствующих последствиям несоответствия. Чтобы соответствовать требованиям настоящего стандарта организации необходимо планировать и внедрять действия, связанные с рисками и возможностями. Направление усилий на риски и возможности создает основу для повышения результативности системы менеджмента качества, достижения улучшенных результатов и предотвращение неблагоприятных последствий. Возможности могут возникнуть в ситуации, благоприятной для достижения намеченного результата, например, как совокупность обстоятельств, позволяющих организации привлекать потребителей, разрабатывать новую продукцию и услуги, сокращать отходы или повышать производительность. Действия в отношении возможностей могут также включать рассмотрение связанных с ними рисков. Риск это влияние неопределенности, и любая такая неопределенность может иметь положительные или отрицательные воздействия. Положительное отклонение, вытекающее из риска, может создать возможность, но не все положительные отклонения приводят к возможностям. 0.4 Взаимосвязь с другими стандартами систем менеджмента ISO 9001:2015, Системы менеджмента качества. Требования </t>
+  </si>
+  <si>
+    <t>0.4 Взаимосвязь с другими стандартами систем менеджмента В настоящем стандарте применена структура, разработанная ISO для улучшения согласованности между стандартами ISO на системы менеджмента. Настоящий стандарт позволяет организации применять процессный подход в сочетании с циклом PDCA и риск-ориентированным мышлением с тем, чтобы согласовать или интегрировать свою систему менеджмента качества с требованиями других стандартов на системы менеджмента. Настоящий стандарт связан со стандартами ISO 9000 и ISO 9004 следующим образом: — ISO 9000 «Системы менеджмента качества. Основные положения и словарь» создает важную основу для надлежащего понимания и внедрения настоящего стандарта. — ISO 9004 «Менеджмент для достижения устойчивого успеха организации. Подход на основе менеджмента качества» дает руководство организациям, стремящимся превзойти требования настоящего стандарта. Настоящий стандарт не содержит конкретных требований к другим системам менеджмента, таким как экологический менеджмент, менеджмент безопасности труда и охраны здоровья или финансовый менеджмент. Отраслевые стандарты на системы менеджмента качества разработаны для ряда отраслей на основе требований настоящего стандарта. Некоторые из этих стандартов устанавливают дополнительные требования к системе менеджмента качества, в то время как другие ограничиваются предоставлением руководящих указаний по применению настоящего стандарта в рамках конкретной отрасли. Матрица, показывающая корреляцию между разделами настоящего издания данного международного стандарта и предыдущим изданием (ISO 9001:2008) см. на веб-сайте открытого доступа ISO/TC 176/SC 2 по ссылке: https://www.iso.org/tc176/sc02/public.</t>
+  </si>
+  <si>
+    <t>Введение. Взаимосвязь с другими стандартами систем менеджмента.</t>
   </si>
 </sst>
 </file>
@@ -617,12 +1442,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -637,10 +1468,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -921,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H95"/>
+  <dimension ref="A2:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,10 +1769,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -948,10 +1780,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -959,10 +1791,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -970,10 +1802,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -981,10 +1813,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -992,10 +1824,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1003,10 +1835,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1014,10 +1846,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1025,10 +1857,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1036,10 +1868,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1047,10 +1879,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1058,10 +1890,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1069,10 +1901,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1080,10 +1912,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1091,10 +1923,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1102,10 +1934,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1113,10 +1945,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1124,10 +1956,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1135,10 +1967,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1146,10 +1978,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1157,10 +1989,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1168,10 +2000,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1179,10 +2011,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1190,10 +2022,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1201,10 +2033,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1212,10 +2044,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1223,10 +2055,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1234,10 +2066,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1245,10 +2077,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1256,10 +2088,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1267,10 +2099,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1278,10 +2110,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1289,10 +2121,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1300,10 +2132,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1311,10 +2143,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>226</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1322,10 +2154,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1333,10 +2165,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1344,10 +2176,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1355,10 +2187,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1366,10 +2198,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1377,10 +2209,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>232</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1388,10 +2220,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1399,10 +2231,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1410,10 +2242,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1421,10 +2253,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1432,10 +2264,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>249</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1443,407 +2275,362 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="C53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>127</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="C54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="C55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="C59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="C60">
         <v>59</v>
       </c>
-      <c r="F60" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" t="s">
-        <v>172</v>
-      </c>
-      <c r="H60">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="C61">
         <v>60</v>
       </c>
-      <c r="F61" t="s">
-        <v>176</v>
-      </c>
-      <c r="G61" t="s">
-        <v>173</v>
-      </c>
-      <c r="H61">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
-      <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>174</v>
-      </c>
-      <c r="H62">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>149</v>
+        <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
-      <c r="F66" t="s">
-        <v>180</v>
-      </c>
-      <c r="G66" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
-      <c r="F67" t="s">
-        <v>181</v>
-      </c>
-      <c r="G67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
-      <c r="F68" t="s">
-        <v>182</v>
-      </c>
-      <c r="G68" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>283</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="C72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="C77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="C78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="C79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -1851,10 +2638,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -1862,10 +2649,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>311</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -1873,10 +2660,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -1884,10 +2671,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -1895,10 +2682,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -1906,10 +2693,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -1917,10 +2704,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -1928,10 +2715,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -1939,10 +2726,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -1950,10 +2737,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -1961,10 +2748,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -1972,10 +2759,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -1983,10 +2770,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -1994,10 +2781,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2005,13 +2792,1531 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="C95">
         <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>313</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>312</v>
+      </c>
+      <c r="B97" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>315</v>
+      </c>
+      <c r="B98" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B99" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" t="s">
+        <v>318</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>325</v>
+      </c>
+      <c r="B105" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" t="s">
+        <v>321</v>
+      </c>
+      <c r="C106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" t="s">
+        <v>322</v>
+      </c>
+      <c r="C107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>326</v>
+      </c>
+      <c r="B108" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>329</v>
+      </c>
+      <c r="B109" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>331</v>
+      </c>
+      <c r="B110" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>334</v>
+      </c>
+      <c r="B113" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>342</v>
+      </c>
+      <c r="B127" t="s">
+        <v>340</v>
+      </c>
+      <c r="C127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>343</v>
+      </c>
+      <c r="B128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>344</v>
+      </c>
+      <c r="B129" t="s">
+        <v>347</v>
+      </c>
+      <c r="C129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130" t="s">
+        <v>345</v>
+      </c>
+      <c r="C130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>38</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" t="s">
+        <v>70</v>
+      </c>
+      <c r="C133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>351</v>
+      </c>
+      <c r="B134" t="s">
+        <v>348</v>
+      </c>
+      <c r="C134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>350</v>
+      </c>
+      <c r="B135" t="s">
+        <v>349</v>
+      </c>
+      <c r="C135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" t="s">
+        <v>352</v>
+      </c>
+      <c r="C136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" t="s">
+        <v>353</v>
+      </c>
+      <c r="C137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>355</v>
+      </c>
+      <c r="B138" t="s">
+        <v>354</v>
+      </c>
+      <c r="C138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>73</v>
+      </c>
+      <c r="B139" t="s">
+        <v>356</v>
+      </c>
+      <c r="C139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>74</v>
+      </c>
+      <c r="B140" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" t="s">
+        <v>363</v>
+      </c>
+      <c r="C141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>359</v>
+      </c>
+      <c r="B142" t="s">
+        <v>364</v>
+      </c>
+      <c r="C142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>360</v>
+      </c>
+      <c r="B143" t="s">
+        <v>365</v>
+      </c>
+      <c r="C143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" t="s">
+        <v>366</v>
+      </c>
+      <c r="C144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>362</v>
+      </c>
+      <c r="B145" t="s">
+        <v>367</v>
+      </c>
+      <c r="C145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>75</v>
+      </c>
+      <c r="B146" t="s">
+        <v>368</v>
+      </c>
+      <c r="C146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>370</v>
+      </c>
+      <c r="B147" t="s">
+        <v>369</v>
+      </c>
+      <c r="C147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" t="s">
+        <v>371</v>
+      </c>
+      <c r="C149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>377</v>
+      </c>
+      <c r="B150" t="s">
+        <v>372</v>
+      </c>
+      <c r="C150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>378</v>
+      </c>
+      <c r="B151" t="s">
+        <v>373</v>
+      </c>
+      <c r="C151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>379</v>
+      </c>
+      <c r="B152" t="s">
+        <v>374</v>
+      </c>
+      <c r="C152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>380</v>
+      </c>
+      <c r="B153" t="s">
+        <v>375</v>
+      </c>
+      <c r="C153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>381</v>
+      </c>
+      <c r="B154" t="s">
+        <v>376</v>
+      </c>
+      <c r="C154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>79</v>
+      </c>
+      <c r="B155" t="s">
+        <v>382</v>
+      </c>
+      <c r="C155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>390</v>
+      </c>
+      <c r="B156" t="s">
+        <v>383</v>
+      </c>
+      <c r="C156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>389</v>
+      </c>
+      <c r="B157" t="s">
+        <v>384</v>
+      </c>
+      <c r="C157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>388</v>
+      </c>
+      <c r="B158" t="s">
+        <v>385</v>
+      </c>
+      <c r="C158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>387</v>
+      </c>
+      <c r="B159" t="s">
+        <v>386</v>
+      </c>
+      <c r="C159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>393</v>
+      </c>
+      <c r="B160" t="s">
+        <v>391</v>
+      </c>
+      <c r="C160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>394</v>
+      </c>
+      <c r="B161" t="s">
+        <v>392</v>
+      </c>
+      <c r="C161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>80</v>
+      </c>
+      <c r="B162" t="s">
+        <v>81</v>
+      </c>
+      <c r="C162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" t="s">
+        <v>82</v>
+      </c>
+      <c r="C163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>96</v>
+      </c>
+      <c r="C166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>87</v>
+      </c>
+      <c r="B167" t="s">
+        <v>97</v>
+      </c>
+      <c r="C167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>88</v>
+      </c>
+      <c r="B168" t="s">
+        <v>93</v>
+      </c>
+      <c r="C168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>89</v>
+      </c>
+      <c r="B169" t="s">
+        <v>92</v>
+      </c>
+      <c r="C169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>90</v>
+      </c>
+      <c r="B170" t="s">
+        <v>91</v>
+      </c>
+      <c r="C170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>98</v>
+      </c>
+      <c r="B171" t="s">
+        <v>395</v>
+      </c>
+      <c r="C171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>99</v>
+      </c>
+      <c r="B172" t="s">
+        <v>100</v>
+      </c>
+      <c r="C172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>101</v>
+      </c>
+      <c r="B173" t="s">
+        <v>396</v>
+      </c>
+      <c r="C173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>102</v>
+      </c>
+      <c r="B174" t="s">
+        <v>397</v>
+      </c>
+      <c r="C174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>399</v>
+      </c>
+      <c r="B175" t="s">
+        <v>398</v>
+      </c>
+      <c r="C175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>103</v>
+      </c>
+      <c r="B176" t="s">
+        <v>104</v>
+      </c>
+      <c r="C176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>105</v>
+      </c>
+      <c r="B177" t="s">
+        <v>400</v>
+      </c>
+      <c r="C177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>402</v>
+      </c>
+      <c r="B178" t="s">
+        <v>401</v>
+      </c>
+      <c r="C178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>406</v>
+      </c>
+      <c r="B179" t="s">
+        <v>403</v>
+      </c>
+      <c r="C179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B180" t="s">
+        <v>404</v>
+      </c>
+      <c r="C180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" t="s">
+        <v>106</v>
+      </c>
+      <c r="C181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>113</v>
+      </c>
+      <c r="B182" t="s">
+        <v>108</v>
+      </c>
+      <c r="C182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>112</v>
+      </c>
+      <c r="B183" t="s">
+        <v>109</v>
+      </c>
+      <c r="C183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>111</v>
+      </c>
+      <c r="B184" t="s">
+        <v>110</v>
+      </c>
+      <c r="C184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>410</v>
+      </c>
+      <c r="B185" t="s">
+        <v>407</v>
+      </c>
+      <c r="C185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>409</v>
+      </c>
+      <c r="B186" t="s">
+        <v>408</v>
+      </c>
+      <c r="C186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187" t="s">
+        <v>114</v>
+      </c>
+      <c r="C187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>115</v>
+      </c>
+      <c r="B188" t="s">
+        <v>411</v>
+      </c>
+      <c r="C188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>415</v>
+      </c>
+      <c r="B189" t="s">
+        <v>412</v>
+      </c>
+      <c r="C189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>414</v>
+      </c>
+      <c r="B190" t="s">
+        <v>413</v>
+      </c>
+      <c r="C190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>117</v>
+      </c>
+      <c r="B191" t="s">
+        <v>116</v>
+      </c>
+      <c r="C191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>118</v>
+      </c>
+      <c r="B192" t="s">
+        <v>416</v>
+      </c>
+      <c r="C192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>418</v>
+      </c>
+      <c r="B193" t="s">
+        <v>417</v>
+      </c>
+      <c r="C193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>119</v>
+      </c>
+      <c r="B194" t="s">
+        <v>120</v>
+      </c>
+      <c r="C194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>121</v>
+      </c>
+      <c r="B195" t="s">
+        <v>122</v>
+      </c>
+      <c r="C195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>422</v>
+      </c>
+      <c r="B196" t="s">
+        <v>419</v>
+      </c>
+      <c r="C196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>423</v>
+      </c>
+      <c r="B197" t="s">
+        <v>420</v>
+      </c>
+      <c r="C197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>424</v>
+      </c>
+      <c r="B198" t="s">
+        <v>421</v>
+      </c>
+      <c r="C198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>41</v>
+      </c>
+      <c r="B199" t="s">
+        <v>123</v>
+      </c>
+      <c r="C199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>42</v>
+      </c>
+      <c r="B200" t="s">
+        <v>124</v>
+      </c>
+      <c r="C200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>43</v>
+      </c>
+      <c r="B201" t="s">
+        <v>125</v>
+      </c>
+      <c r="C201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" t="s">
+        <v>425</v>
+      </c>
+      <c r="C202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>427</v>
+      </c>
+      <c r="B203" t="s">
+        <v>426</v>
+      </c>
+      <c r="C203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>45</v>
+      </c>
+      <c r="B204" t="s">
+        <v>126</v>
+      </c>
+      <c r="C204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>431</v>
+      </c>
+      <c r="B205" t="s">
+        <v>428</v>
+      </c>
+      <c r="C205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>432</v>
+      </c>
+      <c r="B206" t="s">
+        <v>429</v>
+      </c>
+      <c r="C206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>433</v>
+      </c>
+      <c r="B207" t="s">
+        <v>430</v>
+      </c>
+      <c r="C207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208" t="s">
+        <v>127</v>
+      </c>
+      <c r="C208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>128</v>
+      </c>
+      <c r="B209" t="s">
+        <v>435</v>
+      </c>
+      <c r="C209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>436</v>
+      </c>
+      <c r="B210" t="s">
+        <v>434</v>
+      </c>
+      <c r="C210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>129</v>
+      </c>
+      <c r="B211" t="s">
+        <v>137</v>
+      </c>
+      <c r="C211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>130</v>
+      </c>
+      <c r="B212" t="s">
+        <v>138</v>
+      </c>
+      <c r="C212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>131</v>
+      </c>
+      <c r="B213" t="s">
+        <v>139</v>
+      </c>
+      <c r="C213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>132</v>
+      </c>
+      <c r="B214" t="s">
+        <v>140</v>
+      </c>
+      <c r="C214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>133</v>
+      </c>
+      <c r="B215" t="s">
+        <v>141</v>
+      </c>
+      <c r="C215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>134</v>
+      </c>
+      <c r="B216" t="s">
+        <v>142</v>
+      </c>
+      <c r="C216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>135</v>
+      </c>
+      <c r="B217" t="s">
+        <v>143</v>
+      </c>
+      <c r="C217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>136</v>
+      </c>
+      <c r="B218" t="s">
+        <v>437</v>
+      </c>
+      <c r="C218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>445</v>
+      </c>
+      <c r="B219" t="s">
+        <v>438</v>
+      </c>
+      <c r="C219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>442</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+      <c r="C220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>443</v>
+      </c>
+      <c r="B221" t="s">
+        <v>440</v>
+      </c>
+      <c r="C221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>444</v>
+      </c>
+      <c r="B222" t="s">
+        <v>441</v>
+      </c>
+      <c r="C222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>446</v>
+      </c>
+      <c r="B223" t="s">
+        <v>450</v>
+      </c>
+      <c r="C223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>447</v>
+      </c>
+      <c r="B224" t="s">
+        <v>451</v>
+      </c>
+      <c r="C224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>452</v>
+      </c>
+      <c r="C225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>449</v>
+      </c>
+      <c r="B226" t="s">
+        <v>453</v>
+      </c>
+      <c r="C226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>455</v>
+      </c>
+      <c r="B227" t="s">
+        <v>454</v>
+      </c>
+      <c r="C227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>147</v>
+      </c>
+      <c r="B228" t="s">
+        <v>145</v>
+      </c>
+      <c r="C228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>146</v>
+      </c>
+      <c r="C229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>148</v>
+      </c>
+      <c r="B230" t="s">
+        <v>149</v>
+      </c>
+      <c r="C230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>150</v>
+      </c>
+      <c r="B231" t="s">
+        <v>457</v>
+      </c>
+      <c r="C231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>459</v>
+      </c>
+      <c r="B232" t="s">
+        <v>458</v>
+      </c>
+      <c r="C232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" t="s">
+        <v>151</v>
+      </c>
+      <c r="C233">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/train_dataset_under512t.xlsx
+++ b/train_dataset_under512t.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\max\Desktop\Sturdy\3_curs_2_sem\summer_work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7573E19-5B32-4060-9F9F-37F8FC54A60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A09FF-4720-4234-B1AB-BEF740F78927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="11535" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="461">
   <si>
     <t>Область применения.</t>
   </si>
@@ -81,54 +82,30 @@
     <t>Средства обеспечения. Ресурсы. Общие положения</t>
   </si>
   <si>
-    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.1 Общие положения ISO 9001:2015, Системы менеджмента качества. Требования 7 Средства обеспечения 7.1 Ресурсы 7.1.1 Общие положения Организация должна определить и обеспечить наличие ресурсов, необходимых для разработки, внедрения, поддержания и постоянного улучшения системы менеджмента качества. Организация должна рассматривать: a) возможности и ограничения, связанные с существующими внутренними ресурсами; b) то, что необходимо получить от внешних поставщиков. 7.1.1.1 Общие положения. Дополнительные положения Организация должна разработать, внедрить и поддерживать процесс планирования, утверждения и контроля ресурсов. Этот процесс должен включать в себя: a) необходимые персоналу ресурсы и инфраструктуру в качестве минимальных условий осуществления процессов [см. 4.4.1 d)]; b) влияние текущего портфеля заказов и прогнозов; c) резервы на случай возможных рисков (например, при потенциальном недостатке ресурсов). Организация должна сохранять соответствующую документированную информацию.</t>
-  </si>
-  <si>
     <t>Средства обеспечения. Ресурсы. Человеческие ресурсы.</t>
   </si>
   <si>
-    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.2 Человеческие ресурсы ISO 9001:2015, Системы менеджмента качества. Требования 7.1.2 Человеческие ресурсы Организация должна определить и обеспечить наличие сотрудников, необходимых для результативного внедрения системы менеджмента качества и для функционирования и управления ее процессами.</t>
-  </si>
-  <si>
     <t>Средства обеспечения. Ресурсы. Инфраструктура.</t>
   </si>
   <si>
-    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.3 Инфраструктура ISO 9001:2015, Системы менеджмента качества. Требования 7.1.3 Инфраструктура Организация должна определить, создать и поддерживать инфраструктуру, необходимую для функционирования ее процессов с целью достижения соответствия продукции и услуг. ПРИМЕЧАНИЕ Инфраструктура может включать: a) здания и связанные с ними инженерные сети и системы; b) оборудование, включая технические и программные средства; c) транспортные ресурсы; d) информационные и коммуникационные технологии.</t>
-  </si>
-  <si>
     <t>Средства обеспечения. Ресурсы. Среда для функционирования процессов.</t>
   </si>
   <si>
-    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.4 Среда для функционирования процессов ISO 9001:2015, Системы менеджмента качества. Требования 7.1.4 Среда для функционирования процессов Организация должна определить, создать и поддерживать среду, необходимую для функционирования ее процессов и достижения соответствия требованиям к продукции и услугам. ПРИМЕЧАНИЕ Подходящая среда может представлять собой сочетание человеческих и физических факторов, таких как: a) социальные (например, отсутствие дискриминации, спокойствие, бесконфликтность); b) психологические (например, снижение уровня стресса, профилактика эмоционального выгорания, эмоциональная защита); c) физические (например, температура, тепловой поток, влажность, освещение, движение воздуха, гигиена, шум). Эти факторы могут существенно различаться в зависимости от поставляемых продукции и услуг.</t>
-  </si>
-  <si>
     <t>Средства обеспечения. Ресурсы. Знания организации.</t>
   </si>
   <si>
     <t>Средства обеспечения. Осведомлённость.</t>
   </si>
   <si>
-    <t>7 Средства обеспечения 7.3 Осведомлённость ISO 9001:2015, Системы менеджмента качества. Требования 7.3 Осведомленность Организация должна обеспечить, чтобы соответствующие лица, выполняющие работу под управлением организации, были осведомлены: a) о политике в области качества; b) о соответствующих целях в области качества; c) своем вкладе в результативность системы менеджмента качества, включая пользу от улучшения результатов деятельности; d) последствиях несоответствия требованиям системы менеджмента качества.</t>
-  </si>
-  <si>
     <t>Средства обеспечения. Обмен информацией. Обмен информацией. Дополнительные положения.</t>
   </si>
   <si>
-    <t>7 Средства обеспечения 7.4 Обмен информацией ISO 9001:2015, Системы менеджмента качества. Требования 7.4 Обмен информацией Организация должна определить порядок внутреннего и внешнего обмена информацией, относящейся к системе менеджмента качества, включая: a) какая информация будет передаваться; b) когда будет передаваться информация; c) кому будет передаваться информация; d) каким образом она будет передаваться; e) кто будет передавать информацию. 7.4.1 Обмен информацией. Дополнительные положения Организации следует разработать, внедрить и поддерживать процесс менеджмента обмена внешней и внутренней информацией, относящейся к СМК железнодорожного транспорта.</t>
-  </si>
-  <si>
     <t>Средства обеспечения. Документированная информация. Общие положения.</t>
   </si>
   <si>
-    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.1 Общие положения ISO 9001:2015, Системы менеджмента качества. Требования 7.5 Документированная информация 7.5.1 Общие положения Система менеджмента качества организации должна включать: a) документированную информацию, требуемую настоящим стандартом; b) документированную информацию, определенную организацией как необходимую для обеспечения результативности системы менеджмента качества. ПРИМЕЧАНИЕ Объем документированной информации системы менеджмента качества одной организации может отличаться от другой в зависимости от: — размера организации и вида ее деятельности, процессов, продукции и услуг; — сложности процессов и их взаимодействия; — компетентности работников.</t>
-  </si>
-  <si>
     <t>Средства обеспечения. Документированная информация. Создание и актуализация.</t>
   </si>
   <si>
-    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.2 Создание и актуализация ISO 9001:2015, Системы менеджмента качества. Требования 7.5.2 Создание и актуализация При создании и актуализации документированной информации организация должна соответствующим образом обеспечить: a) идентификацию и описание (например: название, дата, автор, ссылочный номер); b) формат (например: язык, версия программного обеспечения, графические средства) и носитель (например: бумажный или электронный); c) анализ и одобрение с точки зрения пригодности и адекватности.</t>
-  </si>
-  <si>
     <t>Деятельность. Планирование и управление деятельностью. Менеджмент проведения тендеров.</t>
   </si>
   <si>
@@ -234,12 +211,6 @@
     <t xml:space="preserve">8 Деятельность 8.1 Планирование и управление деятельностью 8.1.4 Менеджмент конфигурации и контроль изменений 8.1.4.1 Менеджмент конфигурации 8.1.4.1.1 Организация должна разработать, внедрить и поддерживать документированный процесс менеджмента конфигурации в соответствии с особенностями продукции. ПРИМЕЧАНИЕ 1 Процесс менеджмента конфигурации применим для аппаратного и программного обеспечения. Процесс должен включать следующее: a) план менеджмента конфигурации; b) определение разбивки продукции до легкосъемных элементов; c) идентификацию элементов конфигурации, как минимум, имеющих отношение к безопасности; d) своевременное определение базовых конфигураций (например, «в соответствии с проектом», «в заводском исполнении» и «установленной»); e) контроль изменений конфигурации в соответствии с 8.1.4.2; f) учет статуса конфигурации; g) выработка критериев для определения возможности отслеживания (например, присвоение серийных номеров, номеров партии изделий). Организация должна хранить документированную информацию по процессам менеджмента конфигурации. 8.1.4.1.2 В рамках этого процесса следует предусмотреть следующее: a) регулярные внутренние аудиты конфигурации; b) интеграцию системы менеджмента конфигурации внешнего поставщика (например, интерфейсы для передачи данных); c) инструменты и программное обеспечение, используемые для проектирования, разработки, производства и обслуживания в качестве элементов конфигурации; d) поддержку в виде программного обеспечения. ПРИМЕЧАНИЕ Руководящие указания даны в ISO 10007. </t>
   </si>
   <si>
-    <t>8 Деятельность 8.2 Требования к продукции и услугам 8.2.3 Анализ требований к продукции и услугам ISO 9001:2015, Системы менеджмента качества. Требования 8.2.3.1 Организация должна убедиться, что обладает способностью выполнять требования к продукции и услугам, которые она предлагает потребителям. Организация должна проводить анализ, прежде чем принять обязательство о поставке продукции или предоставлении услуг потребителям, чтобы учесть: a) требования, установленные потребителем, в том числе требования к поставке и деятельности после поставки; b) требования, не заявленные потребителем, но необходимые для конкретного или предполагаемого использования, когда оно известно; c) требования, установленные организацией; d) законодательные и нормативные требования, применимые к продукции и услугам; e) требования контракта или заказа, отличающиеся от ранее сформулированных. Организация должна обеспечить, чтобы были определены и приняты решения по требованиям контракта или заказа, отличающимся от ранее установленных. Если потребитель не выдвигает документированных требований, организация должна подтвердить его требования до принятия к исполнению. ПРИМЕЧАНИЕ В некоторых ситуациях, таких как продажи, осуществляемые через Интернет, практически нецелесообразно проводить формальный анализ каждого заказа. Вместо этого анализ может распространяться на соответствующую информацию о продукции, такую как каталоги. 8.2.3.2 Организация должна сохранять документированную информацию, насколько это применимо, в отношении: a) результатов анализа; b) любых новых требований к продукции и услугам.</t>
-  </si>
-  <si>
-    <t>8 Деятельность 8.2 Требования к продукции и услугам 8.2.4 Изменения требований к продукции и услугам ISO 9001:2015, Системы менеджмента качества. Требования 8.2.4 Изменения требований к продукции и услугам Если требования к продукции и услугам изменены, организация должна обеспечить, чтобы в соответствующую документированную информацию были внесены поправки, а соответствующий персонал был поставлен в известность об изменившихся требованиях.</t>
-  </si>
-  <si>
     <t>Деятельность. Проектирование и разработка продукции и услуг. Общие положения.</t>
   </si>
   <si>
@@ -258,9 +229,6 @@
     <t>Деятельность. Проектирование и разработка продукции и услуг. Внесение изменений в проект и разработку.</t>
   </si>
   <si>
-    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.6 Внесение изменений в проект и разработку ISO 9001:2015, Системы менеджмента качества. Требования 8.3.6 Внесение изменений в проект и разработку Организация должна идентифицировать, анализировать и управлять изменениями, сделанными во время или после проектирования и разработки продукции и услуг, в той степени, которая необходима для обеспечения исключения негативного влияния на соответствие требованиям. Организация должна регистрировать и сохранять документированную информацию по: a) изменениям проектирования и разработки; b) результатам анализов; c) санкционированию изменений; d) действиям, предпринятым для предотвращения неблагоприятного влияния.</t>
-  </si>
-  <si>
     <t>Деятельность. Управление процессами, продукцией и услугами,  поставляемыми внешними поставщиками. Общие положения.</t>
   </si>
   <si>
@@ -273,9 +241,6 @@
     <t xml:space="preserve">8 Деятельность 8.4 Управление процессами, продукцией и услугами, поставляемыми внешними поставщиками 8.4.4 Менеджмент цепи поставок Организация должна: a) запрашивать подтверждение получения своих заказов на поставку внешними поставщиками и сохранять документированную информацию об этих подтверждениях; b) документировать запросы на внесение изменений, направляемые внешним поставщикам (см. 8.4.3.1) Организация должна направлять актуализированные графики поставок и прогнозы своим внешним поставщикам в качестве входных данных для планирования своих ресурсов. Сюда относится информация о задержках при поставке организацией процессов, продукции или услуг внешним поставщикам. Информация о цепочке поставок (например, сроки доставки, количество), которой организация обменивается с потребителями, внешними поставщиками и внутри организации (например, при проектировании, производстве), должна находиться под постоянным контролем и обновляться по мере необходимости (например, с использованием прикладного программного обеспечения). Организации следует согласовать с внешними поставщиками политику раннего предупреждения для получения информации о прогнозных задержках поставок, в противном случае организации следует регулярно проверять график поставок. В подобную политику раннего предупреждения следует также включить вопросы, связанные с моральным устареванием. </t>
   </si>
   <si>
-    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг ISO 9001:2015, Системы менеджмента качества. Требования 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг Организация должна осуществлять производство продукции и предоставление услуг в управляемых условиях. Управляемые условия должны включать в себя, насколько это применимо: a) доступность документированной информации, определяющей: 1) характеристики производимой продукции, предоставляемых услуг или осуществляемой деятельности; 2) результаты, которые должны быть достигнуты; b) доступность и применение ресурсов, подходящих для осуществления мониторинга и измерений; c) осуществление деятельности по мониторингу и измерению на соответствующих этапах в целях верификации соответствия процессов или их выходов критериям управления, а также соответствия продукции и услуг критериям приемки; d) применение соответствующей инфраструктуры и среды для функционирования процессов; e) назначение компетентного персонала, включая любую требуемую квалификацию; f) валидацию и периодическую повторную валидацию способности процессов производства продукции и предоставления услуг достигать запланированных результатов в тех случаях, когда конечный выход не может быть верифицирован последующим мониторингом или измерением; g) выполнение действий с целью предотвращения ошибок, связанных с человеческим фактором; h) осуществление выпуска, поставки и действий после поставки. </t>
-  </si>
-  <si>
     <t>Деятельность. Производство продукции и предоставление услуг. Управление производством продукции и предоставлением услуг.</t>
   </si>
   <si>
@@ -327,9 +292,6 @@
     <t>Деятельность. Производство продукции и предоставление услуг. Собственность потребителей или внешних поставщиков.</t>
   </si>
   <si>
-    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.3 Собственность потребителей или внешних поставщиков ISO 9001:2015, Системы менеджмента качества. Требования 8.5.3 Собственность потребителей или внешних поставщиков Организация должна следить за собственностью заказчика или внешних поставщиков, если она находится под управлением организации или используется ею. Организация должна идентифицировать, верифицировать, сохранять и защищать собственность потребителя или внешнего поставщика, предоставленную для использования или включения в продукцию и услуги. В случае, когда собственность потребителя или внешнего поставщика утеряна, повреждена или признана непригодной для использования, организация должна уведомить об этом потребителя или внешнего поставщика, а также регистрировать и сохранять документированную информацию о произошедшем. ПРИМЕЧАНИЕ Собственность потребителя или внешнего поставщика может включать в себя материалы, компоненты, инструменты и оборудование, недвижимость, интеллектуальную собственность и персональные данные. 8.5.3.1 Собственность потребителей или внешних поставщиков. Дополнительные положения Организация должна обеспечивать возможность прослеживания собственности потребителей или внешних поставщиков вплоть до момента поставки или возврата ПРИМЕЧАНИЕ Стороны могут определить требования к прослеживаемости. В случае утери собственности, повреждения или признания её непригодной для использования по другим причинам, организации следует проанализировать причины и принять необходимые меры. </t>
-  </si>
-  <si>
     <t>Деятельность. Производство продукции и предоставление услуг. Сохранность.</t>
   </si>
   <si>
@@ -339,9 +301,6 @@
     <t>Деятельность. Производство продукции и предоставление услуг. Управление изменениями.</t>
   </si>
   <si>
-    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.6 Управление изменениями ISO 9001:2015, Системы менеджмента качества. Требования 8.5.6 Управление изменениями Организация должна анализировать изменения в производстве продукции или предоставлении услуг и управлять ими в той степени, насколько это будет необходимо для обеспечения постоянного соответствия требованиям. Организация должна регистрировать и сохранять документированную информацию, описывающую результаты анализа изменений, сведения о должностных лицах, санкционировавших внесение изменения, и все необходимые действия, являющиеся результатом анализа. </t>
-  </si>
-  <si>
     <t>Деятельность. Выпуск продукции и услуг.</t>
   </si>
   <si>
@@ -375,9 +334,6 @@
     <t>Оценка результатов деятельности. Мониторинг, измерение, анализ и оценка. Общие положения.</t>
   </si>
   <si>
-    <t>9 Оценка результатов деятельности 9.1 Мониторинг, измерение, анализ и оценка 9.1.2 Удовлетворённость потребителей ISO 9001:2015, Системы менеджмента качества. Требования 9.1.2 Удовлетворенность потребителей Организация должна проводить мониторинг данных, касающихся восприятия потребителями степени удовлетворенности своих потребностей и ожиданий. Организация должна определить методы получения, мониторинга и анализа этой информации. ПРИМЕЧАНИЕ Примеры мониторинга восприятия потребителями могут включать опрос потребителей, отзывы от потребителей о поставленных продукции и услугах, встречи с потребителями, анализ доли рынка, благодарности, претензии по гарантийным обязательствам и отчеты дилеров. 9.1.2.1 Удовлетворённость потребителя. Дополнительные положения Организация должна вести работу с жалобами потребителей следующим образом: a) регистрировать жалобы и ответы на них таким образом, чтобы можно было без проблем осуществить обмен информацией по принятым решениям и выводам (например, при помощи централизованного прикладного программного обеспечения); b) обмениваться информацией с потребителем относительно подтверждения и выполнения соответствующих корректирующих действий в соответствии с 10.2. Организации следует разработать, внедрить и поддерживать процесс менеджмента удовлетворенности потребителей. ПРИМЕЧАНИЕ С информацией по работе с жалобами потребителей можно ознакомиться в ISO 10002, по удовлетворённости потребителей - в ISO 10004.</t>
-  </si>
-  <si>
     <t>Оценка результатов деятельности. Мониторинг, измерение, анализ и оценка. Удовлетворённость потребителей.</t>
   </si>
   <si>
@@ -882,12 +838,6 @@
     <t xml:space="preserve">4 Среда организации 4.1 Понимание организации и ее среды  4.1.2 Социальная ответственность Организации следует учитывать принципы социальной ответственности. ПРИМЕЧАНИЕ Основными вопросами, рассматриваемыми в ISO 26000, являются организационное управление, права человека, кадровая политика, защита окружающей среды, добросовестные методы работы, вопросы защиты прав потребителей, участие в общественной деятельности и развитие общества. </t>
   </si>
   <si>
-    <t>4 Среда организации 4.2 Понимание потребностей и ожиданий заинтересованных сторон ISO 9001:2015, Системы менеджмента качества. Требования 4.2 Понимание потребностей и ожиданий заинтересованных сторон С учетом влияния, которое заинтересованные стороны оказывают или могут оказать на способность организации постоянно поставлять продукцию и услуги, отвечающие требованиям потребителей и применимым к ним законодательным и нормативным правовым требованиям, организация должна определить: a) заинтересованные стороны, имеющие отношение к системе менеджмента качества; b) требования этих заинтересованных сторон, относящиеся к системе менеджмента качества. Организация должна осуществлять мониторинг и анализ информации об этих заинтересованных сторонах и их соответствующих требованиях.</t>
-  </si>
-  <si>
-    <t>4 Среда организации 4.3 Определение области применения системы менеджмента качества ISO 9001:2015, Системы менеджмента качества. Требования 4.3 Определение области применения системы менеджмента качества Организация должна определить границы системы менеджмента качества и охватываемую ею деятельность, чтобы установить область ее применения. При определении области применения организация должна рассматривать: а) внешние и внутренние факторы (см. 4.1); b) требования соответствующих заинтересованных сторон (см. 4.2); c) продукцию и услуги организации. Организация должна применять все требования настоящего стандарта, если эти требования применимы в пределах установленной области применения ее системы менеджмента качества. Область применения системы менеджмента качества организации должна быть доступна, разрабатываться, актуализироваться и применяться как документированная информация. Область применения должна указывать на охватываемые виды продукции и услуг и давать обоснование для исключения требования настоящего стандарта, которое она определила как неприменимое к ее области применения системы менеджмента качества. Соответствие требованиям настоящего стандарта может быть заявлено только в том случае, если требования, определенные как неприменимые, не влияют на способность или ответственность организации обеспечивать соответствие продукции и услуг и повышать удовлетворенность потребителей. 4.3.1 Определение области применения системы менеджмента качества. Дополнительные положения Организация также должна определить границы и условия применения специфических требований системы менеджмента качества железнодорожного транспорта. ПРИМЕЧАНИЕ Это дополнительное требование не влияет на гибкость организаций. Деятельность, продукция, услуги и требования, связанные с имеющими временные ограничения организационными структурами (например, распределённое по разным площадкам производство, перенос процессов) могут быть обозначены как не применимые.</t>
-  </si>
-  <si>
     <t>Среда организации. Система менеджмента качества и ее процессы.</t>
   </si>
   <si>
@@ -936,24 +886,12 @@
     <t>6 Планирование 6.1 Действия в отношении рисков и возможностей 6.1.4 Непрерывность деятельности Организация должна: a) разработать, утвердить, валидировать, если это применимо (например, путем регулярных проверок), и регулярно анализировать свой план действий в непредвиденных обстоятельствах на основании оценки рисков для бизнеса; b) обеспечивать непрерывность деятельности; c) распределить ответственность за действия по обеспечению непрерывности бизнеса. ПРИМЕЧАНИЕ 1 Риски бизнеса могут включать: — простои в работе организации; — простои в системе снабжения; — нехватку персонала; — критические технологии; — отказы основного производственного оборудования; — возвраты продукции; — план преемственности руководящих должностей, в частности, ключевые функции обеспечения качества; — информационные технологии; — коммуникационные системы; — убытки; — возникновение чрезвычайной ситуации или кризиса. ПРИМЕЧАНИЕ 2 С более подробной информацией по действиям в непредвиденных обстоятельствах можно ознакомиться в ISO 22301.</t>
   </si>
   <si>
-    <t>6 Планирование 6.2 Цели в области качества и планирование их достижения ISO 9001:2015, Системы менеджмента качества. Требования 6.2 Цели в области качества и планирование их достижения 6.2.1 Организация должна установить цели в области качества для соответствующих функций, уровней, а также процессов, необходимых для системы менеджмента качества. Цели в области качества должны: a) быть согласованными с политикой в области качества; b) быть измеримыми; c) учитывать применяемые требования; d) быть связанными с обеспечением соответствия продукции и услуг и повышением удовлетворенности потребителей; e) подлежать мониторингу; f) быть доведенными до работников; g) актуализироваться по мере необходимости. Организация должна разрабатывать, актуализировать и применять документированную информацию о целях в области качества. 6.2.2 При планировании действий по достижению целей в области качества организация должна определить: a) что должно быть сделано; b) какие потребуются ресурсы; c) кто будет нести ответственность; d) когда эти действия будут завершены; e) каким образом будут оцениваться результаты. 6.3 Планирование изменений ISO 9001:2015, Системы менеджмента качества. Требования</t>
-  </si>
-  <si>
     <t>6 Планирование 6.3 Планирование изменений Там, где организация определяет необходимость изменений в системе менеджмента качества, эти изменения должны осуществляться на плановой основе (см.4.4). Организация должна рассматривать: a) цель вносимого изменения и возможные последствия его внесения; b) целостность системы менеджмента качества; c) доступность ресурсов; d) распределение или перераспределение обязанностей, ответственности и полномочий.</t>
   </si>
   <si>
-    <t>5 Лидерство 5.1 Лидерство и приверженность 5.1.1 Общие положения ISO 9001:2015, Системы менеджмента качества. Требования 5.1 Лидерство и приверженность 5.1.1 Общие положения Высшее руководство должно демонстрировать свое лидерство и приверженность в отношении системы менеджмента качества посредством: a) принятия ответственности за результативность системы менеджмента качества; b) обеспечения разработки политики и целей в области качества, которые согласуются с условиями среды организации и ее стратегическим направлением; c) обеспечения интеграции требований системы менеджмента качества в бизнес-процессы организации; d) содействия применению процессного подхода и риск-ориентированного мышления; e) обеспечения доступности ресурсов, необходимых для системы менеджмента качества; f) распространения в организации понимания важности результативного менеджмента качества и соответствия требованиям системы менеджмента качества; g) обеспечения достижения системой менеджмента качества намеченных результатов; h) вовлечения, руководства и оказания поддержки участия работников в обеспечении результативности системы менеджмента качества; i) поддержки улучшения; j) поддержки других соответствующих руководителей в демонстрации ими лидерства в сфере их ответственности. ПРИМЕЧАНИЕ Слово «бизнес» в настоящем стандарте следует понимать в широком смысле, как отображение видов деятельности, которые являются ключевыми для целей существования организации, независимо от того, является ли она государственной, частной, ставит ли она своей целью получение прибыли или нет.</t>
-  </si>
-  <si>
-    <t>5 Лидерство 5.1 Лидерство и приверженность 5.1.2 Ориентированность на потребителей ISO 9001:2015, Системы менеджмента качества. Требования 5.1.2 Ориентированность на потребителей Высшее руководство должно демонстрировать лидерство и приверженность в отношении ориентации на потребителей посредством обеспечения того, что: a) требования потребителей, а также применимые законодательные и нормативные правовые требования определены, поняты и неизменно выполняются; b) риски и возможности, которые могут оказывать влияние на соответствие продукции и услуг и на способность повышать удовлетворенность потребителей, определены и рассмотрены; c) в центре внимания находится повышение удовлетворенности потребителей. 5.2 Политика 5.2.1 Разработка политики в области качества ISO 9001:2015, Системы менеджмента качества. Требования</t>
-  </si>
-  <si>
     <t>5 Лидерство 5.2 Политика 5.2.1 Разработка политики в области качества Высшее руководство должно разработать, реализовывать и поддерживать в актуальном состоянии политику в области качества, которая: a) соответствует намерениям и среде организации, а также поддерживает ее стратегическое направление; b) создает основу для установления целей в области качества; c) включает в себя обязательство соответствовать применимым требованиям; d) включает в себя обязательство постоянно улучшать систему менеджмента качества.</t>
   </si>
   <si>
-    <t xml:space="preserve">5 Лидерство 5.2 Политика 5.2.2 Доведение политики в области качества ISO 9001:2015, Системы менеджмента качества. Требования 5.2.2 Доведение политики в области качества Политика в области качества должна: a) быть доступной и применяться как документированная информация; b) быть доведенной до сведения работников, понятной и применяемой внутри организации; c) быть доступной подходящим способом для соответствующих заинтересованных сторон. </t>
-  </si>
-  <si>
     <t>5 Лидерство 5.2 Политика 5.2.3 Политика в области качества. Дополнительные положения Политика в области качества должна учитывать: a) предотвращение отказов; b) ожидания потребителей; c) аспекты безопасности. ПРИМЕЧАНИЕ 1 Термин «безопасность» в настоящем стандарте означает безопасность продукции и услуг. ПРИМЕЧАНИЕ 2 Политики в области качества и безопасности могут быть оформлены отдельно друг от друга. ПРИМЕЧАНИЕ 3 Политика в области качества является частью общей корпоративной политики. С более подробной информацией можно ознакомиться в ISO 9004:2018, 7.2.</t>
   </si>
   <si>
@@ -984,9 +922,6 @@
     <t>7 Средства обеспечения 7.2 Компетентность 7.2.1 Компетентность. Дополнительные положения 7.2.1.2 Рекомендуют, чтобы этот процесс: a) включал в себя метод сопоставления необходимых компетенций с фактическим уровнем подготовки персонала, выполняющего работы, влияющие на качество и безопасности продукции; ПРИМЕЧАНИЕ 1 В качестве практического метода, матрицы навыков могут использоваться для сравнения необходимых компетенций с текущим уровнем подготовки, с учетом уровней прогресса (например, уровень ученика, базовый уровень, продвинутый уровень, уровень наставника). ПРИМЕЧАНИЕ 2 Персонал, выполняющий работу, влияющую на качество и безопасность продукции, не ограничивается персоналом службы качества, инженерной службы и производственной службы. Помимо этого, сотрудники службы снабжения, эксплуатационных или иных функциональных служб организации могут оказывать влияние на качество и безопасность продукции. b) предусматривал обязательный регулярный анализ и актуализацию внутренних учебных материалов.</t>
   </si>
   <si>
-    <t>Средства обеспечения. Компетентность. Компетентность. Дополнительные положения</t>
-  </si>
-  <si>
     <t>7 Средства обеспечения 7.5 Документированная информация 7.5.3 Управление документированной информацией 7.5.3.1 Документированная информация, требуемая системой менеджмента качества и настоящим стандартом, должна находиться под управлением в целях обеспечения: a) ее доступности и пригодности, где и когда она необходима; b) ее достаточной защиты (например, от несоблюдения конфиденциальности, от ненадлежащего использования или потери целостности).</t>
   </si>
   <si>
@@ -1405,6 +1340,75 @@
   </si>
   <si>
     <t>Введение. Взаимосвязь с другими стандартами систем менеджмента.</t>
+  </si>
+  <si>
+    <t>4 Среда организации 4.3 Определение области применения системы менеджмента качества  4.3 Определение области применения системы менеджмента качества Организация должна определить границы системы менеджмента качества и охватываемую ею деятельность, чтобы установить область ее применения. При определении области применения организация должна рассматривать: а) внешние и внутренние факторы (см. 4.1); b) требования соответствующих заинтересованных сторон (см. 4.2); c) продукцию и услуги организации. Организация должна применять все требования настоящего стандарта, если эти требования применимы в пределах установленной области применения ее системы менеджмента качества. Область применения системы менеджмента качества организации должна быть доступна, разрабатываться, актуализироваться и применяться как документированная информация. Область применения должна указывать на охватываемые виды продукции и услуг и давать обоснование для исключения требования настоящего стандарта, которое она определила как неприменимое к ее области применения системы менеджмента качества. Соответствие требованиям настоящего стандарта может быть заявлено только в том случае, если требования, определенные как неприменимые, не влияют на способность или ответственность организации обеспечивать соответствие продукции и услуг и повышать удовлетворенность потребителей. 4.3.1 Определение области применения системы менеджмента качества. Дополнительные положения Организация также должна определить границы и условия применения специфических требований системы менеджмента качества железнодорожного транспорта. ПРИМЕЧАНИЕ Это дополнительное требование не влияет на гибкость организаций. Деятельность, продукция, услуги и требования, связанные с имеющими временные ограничения организационными структурами (например, распределённое по разным площадкам производство, перенос процессов) могут быть обозначены как не применимые.</t>
+  </si>
+  <si>
+    <t>4 Среда организации 4.2 Понимание потребностей и ожиданий заинтересованных сторон 4.2 Понимание потребностей и ожиданий заинтересованных сторон С учетом влияния, которое заинтересованные стороны оказывают или могут оказать на способность организации постоянно поставлять продукцию и услуги, отвечающие требованиям потребителей и применимым к ним законодательным и нормативным правовым требованиям, организация должна определить: a) заинтересованные стороны, имеющие отношение к системе менеджмента качества; b) требования этих заинтересованных сторон, относящиеся к системе менеджмента качества. Организация должна осуществлять мониторинг и анализ информации об этих заинтересованных сторонах и их соответствующих требованиях.</t>
+  </si>
+  <si>
+    <t>5 Лидерство 5.1 Лидерство и приверженность 5.1.1 Общие положения  5.1 Лидерство и приверженность 5.1.1 Общие положения Высшее руководство должно демонстрировать свое лидерство и приверженность в отношении системы менеджмента качества посредством: a) принятия ответственности за результативность системы менеджмента качества; b) обеспечения разработки политики и целей в области качества, которые согласуются с условиями среды организации и ее стратегическим направлением; c) обеспечения интеграции требований системы менеджмента качества в бизнес-процессы организации; d) содействия применению процессного подхода и риск-ориентированного мышления; e) обеспечения доступности ресурсов, необходимых для системы менеджмента качества; f) распространения в организации понимания важности результативного менеджмента качества и соответствия требованиям системы менеджмента качества; g) обеспечения достижения системой менеджмента качества намеченных результатов; h) вовлечения, руководства и оказания поддержки участия работников в обеспечении результативности системы менеджмента качества; i) поддержки улучшения; j) поддержки других соответствующих руководителей в демонстрации ими лидерства в сфере их ответственности. ПРИМЕЧАНИЕ Слово «бизнес» в настоящем стандарте следует понимать в широком смысле, как отображение видов деятельности, которые являются ключевыми для целей существования организации, независимо от того, является ли она государственной, частной, ставит ли она своей целью получение прибыли или нет.</t>
+  </si>
+  <si>
+    <t>5 Лидерство 5.1 Лидерство и приверженность 5.1.2 Ориентированность на потребителей 5.1.2 Ориентированность на потребителей Высшее руководство должно демонстрировать лидерство и приверженность в отношении ориентации на потребителей посредством обеспечения того, что: a) требования потребителей, а также применимые законодательные и нормативные правовые требования определены, поняты и неизменно выполняются; b) риски и возможности, которые могут оказывать влияние на соответствие продукции и услуг и на способность повышать удовлетворенность потребителей, определены и рассмотрены; c) в центре внимания находится повышение удовлетворенности потребителей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Лидерство 5.2 Политика 5.2.2 Доведение политики в области качества 5.2.2 Доведение политики в области качества Политика в области качества должна: a) быть доступной и применяться как документированная информация; b) быть доведенной до сведения работников, понятной и применяемой внутри организации; c) быть доступной подходящим способом для соответствующих заинтересованных сторон. </t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.3 Инфраструктура  7.1.3 Инфраструктура Организация должна определить, создать и поддерживать инфраструктуру, необходимую для функционирования ее процессов с целью достижения соответствия продукции и услуг. ПРИМЕЧАНИЕ Инфраструктура может включать: a) здания и связанные с ними инженерные сети и системы; b) оборудование, включая технические и программные средства; c) транспортные ресурсы; d) информационные и коммуникационные технологии.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.2 Человеческие ресурсы 7.1.2 Человеческие ресурсы Организация должна определить и обеспечить наличие сотрудников, необходимых для результативного внедрения системы менеджмента качества и для функционирования и управления ее процессами.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.1 Общие положения 7 Средства обеспечения 7.1 Ресурсы 7.1.1 Общие положения Организация должна определить и обеспечить наличие ресурсов, необходимых для разработки, внедрения, поддержания и постоянного улучшения системы менеджмента качества. Организация должна рассматривать: a) возможности и ограничения, связанные с существующими внутренними ресурсами; b) то, что необходимо получить от внешних поставщиков. 7.1.1.1 Общие положения. Дополнительные положения Организация должна разработать, внедрить и поддерживать процесс планирования, утверждения и контроля ресурсов. Этот процесс должен включать в себя: a) необходимые персоналу ресурсы и инфраструктуру в качестве минимальных условий осуществления процессов [см. 4.4.1 d)]; b) влияние текущего портфеля заказов и прогнозов; c) резервы на случай возможных рисков (например, при потенциальном недостатке ресурсов). Организация должна сохранять соответствующую документированную информацию.</t>
+  </si>
+  <si>
+    <t>6 Планирование 6.2 Цели в области качества и планирование их достижения  6.2 Цели в области качества и планирование их достижения 6.2.1 Организация должна установить цели в области качества для соответствующих функций, уровней, а также процессов, необходимых для системы менеджмента качества. Цели в области качества должны: a) быть согласованными с политикой в области качества; b) быть измеримыми; c) учитывать применяемые требования; d) быть связанными с обеспечением соответствия продукции и услуг и повышением удовлетворенности потребителей; e) подлежать мониторингу; f) быть доведенными до работников; g) актуализироваться по мере необходимости. Организация должна разрабатывать, актуализировать и применять документированную информацию о целях в области качества. 6.2.2 При планировании действий по достижению целей в области качества организация должна определить: a) что должно быть сделано; b) какие потребуются ресурсы; c) кто будет нести ответственность; d) когда эти действия будут завершены; e) каким образом будут оцениваться результаты. 6.3 Планирование изменений ISO 9001:2015, Системы менеджмента качества. Требования</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.1 Ресурсы 7.1.4 Среда для функционирования процессов  7.1.4 Среда для функционирования процессов Организация должна определить, создать и поддерживать среду, необходимую для функционирования ее процессов и достижения соответствия требованиям к продукции и услугам. ПРИМЕЧАНИЕ Подходящая среда может представлять собой сочетание человеческих и физических факторов, таких как: a) социальные (например, отсутствие дискриминации, спокойствие, бесконфликтность); b) психологические (например, снижение уровня стресса, профилактика эмоционального выгорания, эмоциональная защита); c) физические (например, температура, тепловой поток, влажность, освещение, движение воздуха, гигиена, шум). Эти факторы могут существенно различаться в зависимости от поставляемых продукции и услуг.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.3 Осведомлённость  7.3 Осведомленность Организация должна обеспечить, чтобы соответствующие лица, выполняющие работу под управлением организации, были осведомлены: a) о политике в области качества; b) о соответствующих целях в области качества; c) своем вкладе в результативность системы менеджмента качества, включая пользу от улучшения результатов деятельности; d) последствиях несоответствия требованиям системы менеджмента качества.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.4 Обмен информацией 7.4 Обмен информацией Организация должна определить порядок внутреннего и внешнего обмена информацией, относящейся к системе менеджмента качества, включая: a) какая информация будет передаваться; b) когда будет передаваться информация; c) кому будет передаваться информация; d) каким образом она будет передаваться; e) кто будет передавать информацию. 7.4.1 Обмен информацией. Дополнительные положения Организации следует разработать, внедрить и поддерживать процесс менеджмента обмена внешней и внутренней информацией, относящейся к СМК железнодорожного транспорта.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.1 Общие положения 7.5 Документированная информация 7.5.1 Общие положения Система менеджмента качества организации должна включать: a) документированную информацию, требуемую настоящим стандартом; b) документированную информацию, определенную организацией как необходимую для обеспечения результативности системы менеджмента качества. ПРИМЕЧАНИЕ Объем документированной информации системы менеджмента качества одной организации может отличаться от другой в зависимости от: — размера организации и вида ее деятельности, процессов, продукции и услуг; — сложности процессов и их взаимодействия; — компетентности работников.</t>
+  </si>
+  <si>
+    <t>7 Средства обеспечения 7.5 Документированная информация 7.5.2 Создание и актуализация 7.5.2 Создание и актуализация При создании и актуализации документированной информации организация должна соответствующим образом обеспечить: a) идентификацию и описание (например: название, дата, автор, ссылочный номер); b) формат (например: язык, версия программного обеспечения, графические средства) и носитель (например: бумажный или электронный); c) анализ и одобрение с точки зрения пригодности и адекватности.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.2 Требования к продукции и услугам 8.2.3 Анализ требований к продукции и услугам 8.2.3.1 Организация должна убедиться, что обладает способностью выполнять требования к продукции и услугам, которые она предлагает потребителям. Организация должна проводить анализ, прежде чем принять обязательство о поставке продукции или предоставлении услуг потребителям, чтобы учесть: a) требования, установленные потребителем, в том числе требования к поставке и деятельности после поставки; b) требования, не заявленные потребителем, но необходимые для конкретного или предполагаемого использования, когда оно известно; c) требования, установленные организацией; d) законодательные и нормативные требования, применимые к продукции и услугам; e) требования контракта или заказа, отличающиеся от ранее сформулированных. Организация должна обеспечить, чтобы были определены и приняты решения по требованиям контракта или заказа, отличающимся от ранее установленных. Если потребитель не выдвигает документированных требований, организация должна подтвердить его требования до принятия к исполнению. ПРИМЕЧАНИЕ В некоторых ситуациях, таких как продажи, осуществляемые через Интернет, практически нецелесообразно проводить формальный анализ каждого заказа. Вместо этого анализ может распространяться на соответствующую информацию о продукции, такую как каталоги. 8.2.3.2 Организация должна сохранять документированную информацию, насколько это применимо, в отношении: a) результатов анализа; b) любых новых требований к продукции и услугам.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.2 Требования к продукции и услугам 8.2.4 Изменения требований к продукции и услугам 8.2.4 Изменения требований к продукции и услугам Если требования к продукции и услугам изменены, организация должна обеспечить, чтобы в соответствующую документированную информацию были внесены поправки, а соответствующий персонал был поставлен в известность об изменившихся требованиях.</t>
+  </si>
+  <si>
+    <t>8 Деятельность 8.3 Проектирование и разработка продукции и услуг 8.3.6 Внесение изменений в проект и разработку 8.3.6 Внесение изменений в проект и разработку Организация должна идентифицировать, анализировать и управлять изменениями, сделанными во время или после проектирования и разработки продукции и услуг, в той степени, которая необходима для обеспечения исключения негативного влияния на соответствие требованиям. Организация должна регистрировать и сохранять документированную информацию по: a) изменениям проектирования и разработки; b) результатам анализов; c) санкционированию изменений; d) действиям, предпринятым для предотвращения неблагоприятного влияния.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг 8.5 Производство продукции и предоставление услуг 8.5.1 Управление производством продукции и предоставлением услуг Организация должна осуществлять производство продукции и предоставление услуг в управляемых условиях. Управляемые условия должны включать в себя, насколько это применимо: a) доступность документированной информации, определяющей: 1) характеристики производимой продукции, предоставляемых услуг или осуществляемой деятельности; 2) результаты, которые должны быть достигнуты; b) доступность и применение ресурсов, подходящих для осуществления мониторинга и измерений; c) осуществление деятельности по мониторингу и измерению на соответствующих этапах в целях верификации соответствия процессов или их выходов критериям управления, а также соответствия продукции и услуг критериям приемки; d) применение соответствующей инфраструктуры и среды для функционирования процессов; e) назначение компетентного персонала, включая любую требуемую квалификацию; f) валидацию и периодическую повторную валидацию способности процессов производства продукции и предоставления услуг достигать запланированных результатов в тех случаях, когда конечный выход не может быть верифицирован последующим мониторингом или измерением; g) выполнение действий с целью предотвращения ошибок, связанных с человеческим фактором; h) осуществление выпуска, поставки и действий после поставки. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.3 Собственность потребителей или внешних поставщиков 8.5.3 Собственность потребителей или внешних поставщиков Организация должна следить за собственностью заказчика или внешних поставщиков, если она находится под управлением организации или используется ею. Организация должна идентифицировать, верифицировать, сохранять и защищать собственность потребителя или внешнего поставщика, предоставленную для использования или включения в продукцию и услуги. В случае, когда собственность потребителя или внешнего поставщика утеряна, повреждена или признана непригодной для использования, организация должна уведомить об этом потребителя или внешнего поставщика, а также регистрировать и сохранять документированную информацию о произошедшем. ПРИМЕЧАНИЕ Собственность потребителя или внешнего поставщика может включать в себя материалы, компоненты, инструменты и оборудование, недвижимость, интеллектуальную собственность и персональные данные. 8.5.3.1 Собственность потребителей или внешних поставщиков. Дополнительные положения Организация должна обеспечивать возможность прослеживания собственности потребителей или внешних поставщиков вплоть до момента поставки или возврата ПРИМЕЧАНИЕ Стороны могут определить требования к прослеживаемости. В случае утери собственности, повреждения или признания её непригодной для использования по другим причинам, организации следует проанализировать причины и принять необходимые меры. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Деятельность 8.5 Производство продукции и предоставление услуг 8.5.6 Управление изменениями 8.5.6 Управление изменениями Организация должна анализировать изменения в производстве продукции или предоставлении услуг и управлять ими в той степени, насколько это будет необходимо для обеспечения постоянного соответствия требованиям. Организация должна регистрировать и сохранять документированную информацию, описывающую результаты анализа изменений, сведения о должностных лицах, санкционировавших внесение изменения, и все необходимые действия, являющиеся результатом анализа. </t>
+  </si>
+  <si>
+    <t>9 Оценка результатов деятельности 9.1 Мониторинг, измерение, анализ и оценка 9.1.2 Удовлетворённость потребителей 9.1.2 Удовлетворенность потребителей Организация должна проводить мониторинг данных, касающихся восприятия потребителями степени удовлетворенности своих потребностей и ожиданий. Организация должна определить методы получения, мониторинга и анализа этой информации. ПРИМЕЧАНИЕ Примеры мониторинга восприятия потребителями могут включать опрос потребителей, отзывы от потребителей о поставленных продукции и услугах, встречи с потребителями, анализ доли рынка, благодарности, претензии по гарантийным обязательствам и отчеты дилеров. 9.1.2.1 Удовлетворённость потребителя. Дополнительные положения Организация должна вести работу с жалобами потребителей следующим образом: a) регистрировать жалобы и ответы на них таким образом, чтобы можно было без проблем осуществить обмен информацией по принятым решениям и выводам (например, при помощи централизованного прикладного программного обеспечения); b) обмениваться информацией с потребителем относительно подтверждения и выполнения соответствующих корректирующих действий в соответствии с 10.2. Организации следует разработать, внедрить и поддерживать процесс менеджмента удовлетворенности потребителей. ПРИМЕЧАНИЕ С информацией по работе с жалобами потребителей можно ознакомиться в ISO 10002, по удовлетворённости потребителей - в ISO 10004.</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Компетентность. Компетентность. Дополнительные положения. Организация должна разработать, внедрить и поддерживать</t>
+  </si>
+  <si>
+    <t>Средства обеспечения. Компетентность. Компетентность. Дополнительные положения. Рекомендуют, чтобы этот процесс.</t>
   </si>
 </sst>
 </file>
@@ -1468,11 +1472,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1755,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1780,10 +1785,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1791,10 +1796,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1802,10 +1807,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1813,10 +1818,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1824,10 +1829,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1835,10 +1840,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1846,10 +1851,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1857,10 +1862,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1868,10 +1873,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1879,10 +1884,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1890,10 +1895,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1901,10 +1906,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1912,10 +1917,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1923,10 +1928,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1934,10 +1939,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1945,10 +1950,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1956,10 +1961,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1967,10 +1972,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1978,10 +1983,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1989,10 +1994,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -2000,10 +2005,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -2011,10 +2016,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -2022,10 +2027,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -2033,10 +2038,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -2044,10 +2049,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -2055,10 +2060,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -2066,10 +2071,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -2077,10 +2082,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -2088,10 +2093,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -2099,10 +2104,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -2110,10 +2115,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -2121,10 +2126,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -2132,10 +2137,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -2143,10 +2148,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -2154,10 +2159,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -2165,10 +2170,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -2176,10 +2181,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -2187,10 +2192,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -2198,10 +2203,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -2209,10 +2214,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -2220,10 +2225,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -2231,10 +2236,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -2242,10 +2247,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -2253,10 +2258,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -2264,10 +2269,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -2275,10 +2280,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -2286,10 +2291,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -2297,10 +2302,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B50" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -2308,10 +2313,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -2319,10 +2324,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -2330,10 +2335,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -2341,10 +2346,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2352,10 +2357,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2363,10 +2368,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2374,10 +2379,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -2385,10 +2390,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2396,10 +2401,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -2407,10 +2412,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2418,10 +2423,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2429,10 +2434,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2440,10 +2445,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2451,10 +2456,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2462,10 +2467,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2473,10 +2478,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2495,10 +2500,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -2506,10 +2511,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -2517,10 +2522,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -2531,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>439</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -2542,7 +2547,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -2550,10 +2555,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -2561,10 +2566,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2572,10 +2577,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2586,7 +2591,7 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>440</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2597,7 +2602,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>306</v>
+        <v>441</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2608,7 +2613,7 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2619,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>308</v>
+        <v>442</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2630,7 +2635,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2641,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2652,7 +2657,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2660,10 +2665,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2671,10 +2676,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B84" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2685,7 +2690,7 @@
         <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2696,7 +2701,7 @@
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2707,7 +2712,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2718,7 +2723,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2729,7 +2734,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>445</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2737,10 +2742,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2748,10 +2753,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>443</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2759,10 +2764,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2770,10 +2775,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2781,10 +2786,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -2792,10 +2797,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C95">
         <v>94</v>
@@ -2803,10 +2808,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="C96">
         <v>95</v>
@@ -2814,10 +2819,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -2825,32 +2830,32 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C98">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>319</v>
+      <c r="A99" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="C99">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>319</v>
+      <c r="A100" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -2858,10 +2863,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>448</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -2869,10 +2874,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>449</v>
       </c>
       <c r="C102">
         <v>101</v>
@@ -2880,10 +2885,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>450</v>
       </c>
       <c r="C103">
         <v>102</v>
@@ -2891,10 +2896,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>451</v>
       </c>
       <c r="C104">
         <v>103</v>
@@ -2902,10 +2907,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C105">
         <v>104</v>
@@ -2913,10 +2918,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C106">
         <v>105</v>
@@ -2924,10 +2929,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="C107">
         <v>106</v>
@@ -2935,10 +2940,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="C108">
         <v>107</v>
@@ -2946,10 +2951,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="C109">
         <v>108</v>
@@ -2957,10 +2962,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B110" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C110">
         <v>109</v>
@@ -2968,10 +2973,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C111">
         <v>110</v>
@@ -2979,10 +2984,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C112">
         <v>111</v>
@@ -2990,10 +2995,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B113" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C113">
         <v>112</v>
@@ -3001,10 +3006,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B114" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="C114">
         <v>113</v>
@@ -3012,10 +3017,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="C115">
         <v>114</v>
@@ -3023,10 +3028,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C116">
         <v>115</v>
@@ -3034,10 +3039,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C117">
         <v>116</v>
@@ -3045,10 +3050,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C118">
         <v>117</v>
@@ -3056,10 +3061,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C119">
         <v>118</v>
@@ -3067,10 +3072,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C120">
         <v>119</v>
@@ -3078,10 +3083,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C121">
         <v>120</v>
@@ -3089,10 +3094,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" t="s">
         <v>55</v>
-      </c>
-      <c r="B122" t="s">
-        <v>63</v>
       </c>
       <c r="C122">
         <v>121</v>
@@ -3100,10 +3105,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C123">
         <v>122</v>
@@ -3111,10 +3116,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C124">
         <v>123</v>
@@ -3122,10 +3127,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C125">
         <v>124</v>
@@ -3133,10 +3138,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C126">
         <v>125</v>
@@ -3144,10 +3149,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B127" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C127">
         <v>126</v>
@@ -3155,10 +3160,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="B128" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C128">
         <v>127</v>
@@ -3166,10 +3171,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="B129" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C129">
         <v>128</v>
@@ -3177,10 +3182,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B130" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="C130">
         <v>129</v>
@@ -3188,10 +3193,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C131">
         <v>130</v>
@@ -3199,10 +3204,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>452</v>
       </c>
       <c r="C132">
         <v>131</v>
@@ -3210,10 +3215,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B133" t="s">
-        <v>70</v>
+        <v>453</v>
       </c>
       <c r="C133">
         <v>132</v>
@@ -3221,10 +3226,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C134">
         <v>133</v>
@@ -3232,10 +3237,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B135" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C135">
         <v>134</v>
@@ -3243,10 +3248,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C136">
         <v>135</v>
@@ -3254,10 +3259,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B137" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C137">
         <v>136</v>
@@ -3265,10 +3270,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C138">
         <v>137</v>
@@ -3276,10 +3281,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B139" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C139">
         <v>138</v>
@@ -3287,10 +3292,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B140" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C140">
         <v>139</v>
@@ -3298,10 +3303,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="B141" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="C141">
         <v>140</v>
@@ -3309,10 +3314,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B142" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="C142">
         <v>141</v>
@@ -3320,10 +3325,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B143" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="C143">
         <v>142</v>
@@ -3331,10 +3336,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B144" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="C144">
         <v>143</v>
@@ -3342,10 +3347,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B145" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C145">
         <v>144</v>
@@ -3353,10 +3358,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="C146">
         <v>145</v>
@@ -3364,10 +3369,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B147" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="C147">
         <v>146</v>
@@ -3375,10 +3380,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B148" t="s">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="C148">
         <v>147</v>
@@ -3386,10 +3391,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B149" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C149">
         <v>148</v>
@@ -3397,10 +3402,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B150" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C150">
         <v>149</v>
@@ -3408,10 +3413,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="B151" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C151">
         <v>150</v>
@@ -3419,10 +3424,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="B152" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="C152">
         <v>151</v>
@@ -3430,10 +3435,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B153" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="C153">
         <v>152</v>
@@ -3441,10 +3446,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="B154" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C154">
         <v>153</v>
@@ -3452,10 +3457,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B155" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="C155">
         <v>154</v>
@@ -3463,10 +3468,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="B156" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C156">
         <v>155</v>
@@ -3474,10 +3479,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="B157" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C157">
         <v>156</v>
@@ -3485,10 +3490,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="B158" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C158">
         <v>157</v>
@@ -3496,10 +3501,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="B159" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C159">
         <v>158</v>
@@ -3507,10 +3512,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="B160" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="C160">
         <v>159</v>
@@ -3518,10 +3523,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="B161" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="C161">
         <v>160</v>
@@ -3529,10 +3534,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B162" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C162">
         <v>161</v>
@@ -3540,10 +3545,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B163" t="s">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="C163">
         <v>162</v>
@@ -3551,10 +3556,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B164" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C164">
         <v>163</v>
@@ -3562,10 +3567,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B165" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C165">
         <v>164</v>
@@ -3573,10 +3578,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B166" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C166">
         <v>165</v>
@@ -3584,10 +3589,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B167" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C167">
         <v>166</v>
@@ -3595,10 +3600,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B168" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C168">
         <v>167</v>
@@ -3606,10 +3611,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B169" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C169">
         <v>168</v>
@@ -3617,10 +3622,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B170" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C170">
         <v>169</v>
@@ -3628,10 +3633,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B171" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="C171">
         <v>170</v>
@@ -3639,10 +3644,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s">
-        <v>100</v>
+        <v>456</v>
       </c>
       <c r="C172">
         <v>171</v>
@@ -3650,10 +3655,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B173" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="C173">
         <v>172</v>
@@ -3661,10 +3666,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B174" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C174">
         <v>173</v>
@@ -3672,10 +3677,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="B175" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="C175">
         <v>174</v>
@@ -3683,10 +3688,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B176" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="C176">
         <v>175</v>
@@ -3694,10 +3699,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B177" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C177">
         <v>176</v>
@@ -3705,10 +3710,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B178" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="C178">
         <v>177</v>
@@ -3716,10 +3721,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="B179" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C179">
         <v>178</v>
@@ -3727,10 +3732,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B180" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="C180">
         <v>179</v>
@@ -3738,10 +3743,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B181" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C181">
         <v>180</v>
@@ -3749,10 +3754,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B182" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C182">
         <v>181</v>
@@ -3760,10 +3765,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B183" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C183">
         <v>182</v>
@@ -3771,10 +3776,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B184" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C184">
         <v>183</v>
@@ -3782,10 +3787,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B185" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C185">
         <v>184</v>
@@ -3793,10 +3798,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="B186" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="C186">
         <v>185</v>
@@ -3804,10 +3809,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B187" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C187">
         <v>186</v>
@@ -3815,10 +3820,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B188" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C188">
         <v>187</v>
@@ -3826,10 +3831,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="B189" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="C189">
         <v>188</v>
@@ -3837,10 +3842,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="B190" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="C190">
         <v>189</v>
@@ -3848,10 +3853,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B191" t="s">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="C191">
         <v>190</v>
@@ -3859,10 +3864,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B192" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="C192">
         <v>191</v>
@@ -3870,10 +3875,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="B193" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C193">
         <v>192</v>
@@ -3881,10 +3886,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B194" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C194">
         <v>193</v>
@@ -3892,10 +3897,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B195" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C195">
         <v>194</v>
@@ -3903,10 +3908,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B196" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C196">
         <v>195</v>
@@ -3914,10 +3919,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="B197" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="C197">
         <v>196</v>
@@ -3925,10 +3930,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B198" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C198">
         <v>197</v>
@@ -3936,10 +3941,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B199" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C199">
         <v>198</v>
@@ -3947,10 +3952,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B200" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C200">
         <v>199</v>
@@ -3958,10 +3963,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B201" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C201">
         <v>200</v>
@@ -3969,10 +3974,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B202" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="C202">
         <v>201</v>
@@ -3980,10 +3985,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B203" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="C203">
         <v>202</v>
@@ -3991,10 +3996,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B204" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C204">
         <v>203</v>
@@ -4002,10 +4007,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="C205">
         <v>204</v>
@@ -4013,10 +4018,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B206" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C206">
         <v>205</v>
@@ -4024,10 +4029,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B207" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="C207">
         <v>206</v>
@@ -4035,10 +4040,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B208" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C208">
         <v>207</v>
@@ -4046,10 +4051,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B209" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="C209">
         <v>208</v>
@@ -4057,10 +4062,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B210" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="C210">
         <v>209</v>
@@ -4068,10 +4073,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B211" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C211">
         <v>210</v>
@@ -4079,10 +4084,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B212" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C212">
         <v>211</v>
@@ -4090,10 +4095,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B213" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C213">
         <v>212</v>
@@ -4101,10 +4106,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B214" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C214">
         <v>213</v>
@@ -4112,10 +4117,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B215" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C215">
         <v>214</v>
@@ -4123,10 +4128,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B216" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C216">
         <v>215</v>
@@ -4134,10 +4139,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B217" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C217">
         <v>216</v>
@@ -4145,10 +4150,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B218" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C218">
         <v>217</v>
@@ -4156,10 +4161,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B219" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C219">
         <v>218</v>
@@ -4167,10 +4172,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B220" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C220">
         <v>219</v>
@@ -4178,10 +4183,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B221" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="C221">
         <v>220</v>
@@ -4189,10 +4194,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="B222" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C222">
         <v>221</v>
@@ -4200,10 +4205,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="B223" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="C223">
         <v>222</v>
@@ -4211,10 +4216,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B224" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="C224">
         <v>223</v>
@@ -4222,10 +4227,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="B225" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="C225">
         <v>224</v>
@@ -4233,10 +4238,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="B226" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="C226">
         <v>225</v>
@@ -4244,10 +4249,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="B227" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="C227">
         <v>226</v>
@@ -4255,10 +4260,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B228" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C228">
         <v>227</v>
@@ -4266,10 +4271,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="B229" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C229">
         <v>228</v>
@@ -4277,10 +4282,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B230" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C230">
         <v>229</v>
@@ -4288,10 +4293,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B231" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="C231">
         <v>230</v>
@@ -4299,10 +4304,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="B232" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="C232">
         <v>231</v>
@@ -4313,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C233">
         <v>232</v>
